--- a/raw_data/20200818_saline/20200818_Sensor3_Test_8.xlsx
+++ b/raw_data/20200818_saline/20200818_Sensor3_Test_8.xlsx
@@ -1,479 +1,895 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="true"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <workbookPr date1904="1" defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox (GaTech)\Lab files\code\Impedance_fit\raw_data\20200818_saline\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{025AF511-4198-4D60-9785-762238B6A944}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="2240" yWindow="2240" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <si>
-    <t>Inf</t>
-  </si>
-  <si>
-    <t>-Inf</t>
-  </si>
-  <si>
-    <t>#NV</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+  <si>
+    <t>Untitled</t>
+  </si>
+  <si>
+    <t>Untitled 1</t>
+  </si>
+  <si>
+    <t>Untitled 2</t>
+  </si>
+  <si>
+    <t>Untitled 3</t>
+  </si>
+  <si>
+    <t>Untitled 4</t>
+  </si>
+  <si>
+    <t>Untitled 5</t>
+  </si>
+  <si>
+    <t>Untitled 6</t>
+  </si>
+  <si>
+    <t>Untitled 7</t>
+  </si>
+  <si>
+    <t>Untitled 8</t>
+  </si>
+  <si>
+    <t>Untitled 9</t>
+  </si>
+  <si>
+    <t>Untitled 10</t>
+  </si>
+  <si>
+    <t>Untitled 11</t>
+  </si>
+  <si>
+    <t>Untitled 12</t>
+  </si>
+  <si>
+    <t>Untitled 13</t>
+  </si>
+  <si>
+    <t>Untitled 14</t>
+  </si>
+  <si>
+    <t>Untitled 15</t>
+  </si>
+  <si>
+    <t>Untitled 16</t>
+  </si>
+  <si>
+    <t>Untitled 17</t>
+  </si>
+  <si>
+    <t>Untitled 18</t>
+  </si>
+  <si>
+    <t>Untitled 19</t>
+  </si>
+  <si>
+    <t>Untitled 20</t>
+  </si>
+  <si>
+    <t>Untitled 21</t>
+  </si>
+  <si>
+    <t>Untitled 22</t>
+  </si>
+  <si>
+    <t>Untitled 23</t>
+  </si>
+  <si>
+    <t>Untitled 24</t>
+  </si>
+  <si>
+    <t>Untitled 25</t>
+  </si>
+  <si>
+    <t>Untitled 26</t>
+  </si>
+  <si>
+    <t>Untitled 27</t>
+  </si>
+  <si>
+    <t>Untitled 28</t>
+  </si>
+  <si>
+    <t>Untitled 29</t>
+  </si>
+  <si>
+    <t>Untitled 30</t>
+  </si>
+  <si>
+    <t>Untitled 31</t>
+  </si>
+  <si>
+    <t>Untitled 32</t>
+  </si>
+  <si>
+    <t>Untitled 33</t>
+  </si>
+  <si>
+    <t>Untitled 34</t>
+  </si>
+  <si>
+    <t>Untitled 35</t>
+  </si>
+  <si>
+    <t>Untitled 36</t>
+  </si>
+  <si>
+    <t>Untitled 37</t>
+  </si>
+  <si>
+    <t>Untitled 38</t>
+  </si>
+  <si>
+    <t>Untitled 39</t>
+  </si>
+  <si>
+    <t>Untitled 40</t>
+  </si>
+  <si>
+    <t>Untitled 41</t>
+  </si>
+  <si>
+    <t>Untitled 42</t>
+  </si>
+  <si>
+    <t>Untitled 43</t>
+  </si>
+  <si>
+    <t>Untitled 44</t>
+  </si>
+  <si>
+    <t>Untitled 45</t>
+  </si>
+  <si>
+    <t>Untitled 46</t>
+  </si>
+  <si>
+    <t>Untitled 47</t>
+  </si>
+  <si>
+    <t>Untitled 48</t>
+  </si>
+  <si>
+    <t>Untitled 49</t>
+  </si>
+  <si>
+    <t>Untitled 50</t>
+  </si>
+  <si>
+    <t>Untitled 51</t>
+  </si>
+  <si>
+    <t>Untitled 52</t>
+  </si>
+  <si>
+    <t>Untitled 53</t>
+  </si>
+  <si>
+    <t>Untitled 54</t>
+  </si>
+  <si>
+    <t>Untitled 55</t>
+  </si>
+  <si>
+    <t>Untitled 56</t>
+  </si>
+  <si>
+    <t>Untitled 57</t>
+  </si>
+  <si>
+    <t>Untitled 58</t>
+  </si>
+  <si>
+    <t>Untitled 59</t>
+  </si>
+  <si>
+    <t>Untitled 60</t>
+  </si>
+  <si>
+    <t>Untitled 61</t>
+  </si>
+  <si>
+    <t>Untitled 62</t>
+  </si>
+  <si>
+    <t>Untitled 63</t>
+  </si>
+  <si>
+    <t>Untitled 64</t>
+  </si>
+  <si>
+    <t>Untitled 65</t>
+  </si>
+  <si>
+    <t>Untitled 66</t>
+  </si>
+  <si>
+    <t>Untitled 67</t>
+  </si>
+  <si>
+    <t>Untitled 68</t>
+  </si>
+  <si>
+    <t>Untitled 69</t>
+  </si>
+  <si>
+    <t>Untitled 70</t>
+  </si>
+  <si>
+    <t>Untitled 71</t>
+  </si>
+  <si>
+    <t>Untitled 72</t>
+  </si>
+  <si>
+    <t>Untitled 73</t>
+  </si>
+  <si>
+    <t>Untitled 74</t>
+  </si>
+  <si>
+    <t>Untitled 75</t>
+  </si>
+  <si>
+    <t>Untitled 76</t>
+  </si>
+  <si>
+    <t>Untitled 77</t>
+  </si>
+  <si>
+    <t>Untitled 78</t>
+  </si>
+  <si>
+    <t>Untitled 79</t>
+  </si>
+  <si>
+    <t>Untitled 80</t>
+  </si>
+  <si>
+    <t>Untitled 81</t>
+  </si>
+  <si>
+    <t>Untitled 82</t>
+  </si>
+  <si>
+    <t>Untitled 83</t>
+  </si>
+  <si>
+    <t>Untitled 84</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"> </numFmts>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1">
-    <font/>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="1">
-    <fill/>
+  <fills count="2">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0"/>
-    <xf numFmtId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:CG26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Untitled</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Untitled 1</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Untitled 2</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Untitled 3</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Untitled 4</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Untitled 5</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Untitled 6</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Untitled 7</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Untitled 8</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Untitled 9</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Untitled 10</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>Untitled 11</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>Untitled 12</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>Untitled 13</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>Untitled 14</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>Untitled 15</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>Untitled 16</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>Untitled 17</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>Untitled 18</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>Untitled 19</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>Untitled 20</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
-        <is>
-          <t>Untitled 21</t>
-        </is>
-      </c>
-      <c r="W1" t="inlineStr">
-        <is>
-          <t>Untitled 22</t>
-        </is>
-      </c>
-      <c r="X1" t="inlineStr">
-        <is>
-          <t>Untitled 23</t>
-        </is>
-      </c>
-      <c r="Y1" t="inlineStr">
-        <is>
-          <t>Untitled 24</t>
-        </is>
-      </c>
-      <c r="Z1" t="inlineStr">
-        <is>
-          <t>Untitled 25</t>
-        </is>
-      </c>
-      <c r="AA1" t="inlineStr">
-        <is>
-          <t>Untitled 26</t>
-        </is>
-      </c>
-      <c r="AB1" t="inlineStr">
-        <is>
-          <t>Untitled 27</t>
-        </is>
-      </c>
-      <c r="AC1" t="inlineStr">
-        <is>
-          <t>Untitled 28</t>
-        </is>
-      </c>
-      <c r="AD1" t="inlineStr">
-        <is>
-          <t>Untitled 29</t>
-        </is>
-      </c>
-      <c r="AE1" t="inlineStr">
-        <is>
-          <t>Untitled 30</t>
-        </is>
-      </c>
-      <c r="AF1" t="inlineStr">
-        <is>
-          <t>Untitled 31</t>
-        </is>
-      </c>
-      <c r="AG1" t="inlineStr">
-        <is>
-          <t>Untitled 32</t>
-        </is>
-      </c>
-      <c r="AH1" t="inlineStr">
-        <is>
-          <t>Untitled 33</t>
-        </is>
-      </c>
-      <c r="AI1" t="inlineStr">
-        <is>
-          <t>Untitled 34</t>
-        </is>
-      </c>
-      <c r="AJ1" t="inlineStr">
-        <is>
-          <t>Untitled 35</t>
-        </is>
-      </c>
-      <c r="AK1" t="inlineStr">
-        <is>
-          <t>Untitled 36</t>
-        </is>
-      </c>
-      <c r="AL1" t="inlineStr">
-        <is>
-          <t>Untitled 37</t>
-        </is>
-      </c>
-      <c r="AM1" t="inlineStr">
-        <is>
-          <t>Untitled 38</t>
-        </is>
-      </c>
-      <c r="AN1" t="inlineStr">
-        <is>
-          <t>Untitled 39</t>
-        </is>
-      </c>
-      <c r="AO1" t="inlineStr">
-        <is>
-          <t>Untitled 40</t>
-        </is>
-      </c>
-      <c r="AP1" t="inlineStr">
-        <is>
-          <t>Untitled 41</t>
-        </is>
-      </c>
-      <c r="AQ1" t="inlineStr">
-        <is>
-          <t>Untitled 42</t>
-        </is>
-      </c>
-      <c r="AR1" t="inlineStr">
-        <is>
-          <t>Untitled 43</t>
-        </is>
-      </c>
-      <c r="AS1" t="inlineStr">
-        <is>
-          <t>Untitled 44</t>
-        </is>
-      </c>
-      <c r="AT1" t="inlineStr">
-        <is>
-          <t>Untitled 45</t>
-        </is>
-      </c>
-      <c r="AU1" t="inlineStr">
-        <is>
-          <t>Untitled 46</t>
-        </is>
-      </c>
-      <c r="AV1" t="inlineStr">
-        <is>
-          <t>Untitled 47</t>
-        </is>
-      </c>
-      <c r="AW1" t="inlineStr">
-        <is>
-          <t>Untitled 48</t>
-        </is>
-      </c>
-      <c r="AX1" t="inlineStr">
-        <is>
-          <t>Untitled 49</t>
-        </is>
-      </c>
-      <c r="AY1" t="inlineStr">
-        <is>
-          <t>Untitled 50</t>
-        </is>
-      </c>
-      <c r="AZ1" t="inlineStr">
-        <is>
-          <t>Untitled 51</t>
-        </is>
-      </c>
-      <c r="BA1" t="inlineStr">
-        <is>
-          <t>Untitled 52</t>
-        </is>
-      </c>
-      <c r="BB1" t="inlineStr">
-        <is>
-          <t>Untitled 53</t>
-        </is>
-      </c>
-      <c r="BC1" t="inlineStr">
-        <is>
-          <t>Untitled 54</t>
-        </is>
-      </c>
-      <c r="BD1" t="inlineStr">
-        <is>
-          <t>Untitled 55</t>
-        </is>
-      </c>
-      <c r="BE1" t="inlineStr">
-        <is>
-          <t>Untitled 56</t>
-        </is>
-      </c>
-      <c r="BF1" t="inlineStr">
-        <is>
-          <t>Untitled 57</t>
-        </is>
-      </c>
-      <c r="BG1" t="inlineStr">
-        <is>
-          <t>Untitled 58</t>
-        </is>
-      </c>
-      <c r="BH1" t="inlineStr">
-        <is>
-          <t>Untitled 59</t>
-        </is>
-      </c>
-      <c r="BI1" t="inlineStr">
-        <is>
-          <t>Untitled 60</t>
-        </is>
-      </c>
-      <c r="BJ1" t="inlineStr">
-        <is>
-          <t>Untitled 61</t>
-        </is>
-      </c>
-      <c r="BK1" t="inlineStr">
-        <is>
-          <t>Untitled 62</t>
-        </is>
-      </c>
-      <c r="BL1" t="inlineStr">
-        <is>
-          <t>Untitled 63</t>
-        </is>
-      </c>
-      <c r="BM1" t="inlineStr">
-        <is>
-          <t>Untitled 64</t>
-        </is>
-      </c>
-      <c r="BN1" t="inlineStr">
-        <is>
-          <t>Untitled 65</t>
-        </is>
-      </c>
-      <c r="BO1" t="inlineStr">
-        <is>
-          <t>Untitled 66</t>
-        </is>
-      </c>
-      <c r="BP1" t="inlineStr">
-        <is>
-          <t>Untitled 67</t>
-        </is>
-      </c>
-      <c r="BQ1" t="inlineStr">
-        <is>
-          <t>Untitled 68</t>
-        </is>
-      </c>
-      <c r="BR1" t="inlineStr">
-        <is>
-          <t>Untitled 69</t>
-        </is>
-      </c>
-      <c r="BS1" t="inlineStr">
-        <is>
-          <t>Untitled 70</t>
-        </is>
-      </c>
-      <c r="BT1" t="inlineStr">
-        <is>
-          <t>Untitled 71</t>
-        </is>
-      </c>
-      <c r="BU1" t="inlineStr">
-        <is>
-          <t>Untitled 72</t>
-        </is>
-      </c>
-      <c r="BV1" t="inlineStr">
-        <is>
-          <t>Untitled 73</t>
-        </is>
-      </c>
-      <c r="BW1" t="inlineStr">
-        <is>
-          <t>Untitled 74</t>
-        </is>
-      </c>
-      <c r="BX1" t="inlineStr">
-        <is>
-          <t>Untitled 75</t>
-        </is>
-      </c>
-      <c r="BY1" t="inlineStr">
-        <is>
-          <t>Untitled 76</t>
-        </is>
-      </c>
-      <c r="BZ1" t="inlineStr">
-        <is>
-          <t>Untitled 77</t>
-        </is>
-      </c>
-      <c r="CA1" t="inlineStr">
-        <is>
-          <t>Untitled 78</t>
-        </is>
-      </c>
-      <c r="CB1" t="inlineStr">
-        <is>
-          <t>Untitled 79</t>
-        </is>
-      </c>
-      <c r="CC1" t="inlineStr">
-        <is>
-          <t>Untitled 80</t>
-        </is>
-      </c>
-      <c r="CD1" t="inlineStr">
-        <is>
-          <t>Untitled 81</t>
-        </is>
-      </c>
-      <c r="CE1" t="inlineStr">
-        <is>
-          <t>Untitled 82</t>
-        </is>
-      </c>
-      <c r="CF1" t="inlineStr">
-        <is>
-          <t>Untitled 83</t>
-        </is>
-      </c>
-      <c r="CG1" t="inlineStr">
-        <is>
-          <t>Untitled 84</t>
-        </is>
+    <row r="1" spans="1:85">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BV1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BW1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BX1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BY1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CA1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CB1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CC1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CD1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CE1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CF1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CG1" t="s">
+        <v>84</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:85">
       <c r="A2" s="1">
         <v>6852.978615</v>
       </c>
@@ -481,148 +897,148 @@
         <v>1.903605</v>
       </c>
       <c r="C2" s="1">
-        <v>1144.940000</v>
+        <v>1144.94</v>
       </c>
       <c r="D2" s="1">
-        <v>-258.404000</v>
+        <v>-258.404</v>
       </c>
       <c r="E2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>6863.035498</v>
+        <v>6863.0354980000002</v>
       </c>
       <c r="G2" s="1">
         <v>1.906399</v>
       </c>
       <c r="H2" s="1">
-        <v>1166.490000</v>
+        <v>1166.49</v>
       </c>
       <c r="I2" s="1">
-        <v>-216.038000</v>
+        <v>-216.03800000000001</v>
       </c>
       <c r="J2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
-        <v>6873.113710</v>
+        <v>6873.1137099999996</v>
       </c>
       <c r="L2" s="1">
         <v>1.909198</v>
       </c>
       <c r="M2" s="1">
-        <v>1193.870000</v>
+        <v>1193.8699999999999</v>
       </c>
       <c r="N2" s="1">
-        <v>-150.049000</v>
+        <v>-150.04900000000001</v>
       </c>
       <c r="O2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P2" s="1">
-        <v>6883.320881</v>
+        <v>6883.3208809999996</v>
       </c>
       <c r="Q2" s="1">
         <v>1.912034</v>
       </c>
       <c r="R2" s="1">
-        <v>1201.560000</v>
+        <v>1201.56</v>
       </c>
       <c r="S2" s="1">
-        <v>-127.692000</v>
+        <v>-127.69199999999999</v>
       </c>
       <c r="T2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U2" s="1">
-        <v>6893.587341</v>
+        <v>6893.5873410000004</v>
       </c>
       <c r="V2" s="1">
-        <v>1.914885</v>
+        <v>1.9148849999999999</v>
       </c>
       <c r="W2" s="1">
-        <v>1208.530000</v>
+        <v>1208.53</v>
       </c>
       <c r="X2" s="1">
-        <v>-106.674000</v>
+        <v>-106.67400000000001</v>
       </c>
       <c r="Y2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z2" s="1">
-        <v>6904.003079</v>
+        <v>6904.0030790000001</v>
       </c>
       <c r="AA2" s="1">
-        <v>1.917779</v>
+        <v>1.9177789999999999</v>
       </c>
       <c r="AB2" s="1">
-        <v>1215.680000</v>
+        <v>1215.68</v>
       </c>
       <c r="AC2" s="1">
-        <v>-89.422800</v>
+        <v>-89.422799999999995</v>
       </c>
       <c r="AD2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE2" s="1">
-        <v>6914.640262</v>
+        <v>6914.6402619999999</v>
       </c>
       <c r="AF2" s="1">
         <v>1.920733</v>
       </c>
       <c r="AG2" s="1">
-        <v>1220.230000</v>
+        <v>1220.23</v>
       </c>
       <c r="AH2" s="1">
-        <v>-84.709000</v>
+        <v>-84.709000000000003</v>
       </c>
       <c r="AI2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ2" s="1">
-        <v>6925.080553</v>
+        <v>6925.0805529999998</v>
       </c>
       <c r="AK2" s="1">
-        <v>1.923633</v>
+        <v>1.9236329999999999</v>
       </c>
       <c r="AL2" s="1">
-        <v>1227.060000</v>
+        <v>1227.06</v>
       </c>
       <c r="AM2" s="1">
-        <v>-87.773500</v>
+        <v>-87.773499999999999</v>
       </c>
       <c r="AN2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO2" s="1">
-        <v>6935.621066</v>
+        <v>6935.6210659999997</v>
       </c>
       <c r="AP2" s="1">
         <v>1.926561</v>
       </c>
       <c r="AQ2" s="1">
-        <v>1234.710000</v>
+        <v>1234.71</v>
       </c>
       <c r="AR2" s="1">
-        <v>-99.291900</v>
+        <v>-99.291899999999998</v>
       </c>
       <c r="AS2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT2" s="1">
-        <v>6946.624780</v>
+        <v>6946.6247800000001</v>
       </c>
       <c r="AU2" s="1">
-        <v>1.929618</v>
+        <v>1.9296180000000001</v>
       </c>
       <c r="AV2" s="1">
-        <v>1244.360000</v>
+        <v>1244.3599999999999</v>
       </c>
       <c r="AW2" s="1">
-        <v>-118.154000</v>
+        <v>-118.154</v>
       </c>
       <c r="AX2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY2" s="1">
         <v>6957.420701</v>
@@ -631,73 +1047,73 @@
         <v>1.932617</v>
       </c>
       <c r="BA2" s="1">
-        <v>1252.460000</v>
+        <v>1252.46</v>
       </c>
       <c r="BB2" s="1">
-        <v>-135.184000</v>
+        <v>-135.184</v>
       </c>
       <c r="BC2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD2" s="1">
-        <v>6968.706174</v>
+        <v>6968.7061739999999</v>
       </c>
       <c r="BE2" s="1">
-        <v>1.935752</v>
+        <v>1.9357519999999999</v>
       </c>
       <c r="BF2" s="1">
-        <v>1290.980000</v>
+        <v>1290.98</v>
       </c>
       <c r="BG2" s="1">
-        <v>-215.566000</v>
+        <v>-215.566</v>
       </c>
       <c r="BH2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI2" s="1">
-        <v>6979.721328</v>
+        <v>6979.7213279999996</v>
       </c>
       <c r="BJ2" s="1">
-        <v>1.938811</v>
+        <v>1.9388110000000001</v>
       </c>
       <c r="BK2" s="1">
-        <v>1357.770000</v>
+        <v>1357.77</v>
       </c>
       <c r="BL2" s="1">
-        <v>-350.534000</v>
+        <v>-350.53399999999999</v>
       </c>
       <c r="BM2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN2" s="1">
-        <v>6991.191345</v>
+        <v>6991.1913450000002</v>
       </c>
       <c r="BO2" s="1">
-        <v>1.941998</v>
+        <v>1.9419979999999999</v>
       </c>
       <c r="BP2" s="1">
-        <v>1467.820000</v>
+        <v>1467.82</v>
       </c>
       <c r="BQ2" s="1">
-        <v>-572.015000</v>
+        <v>-572.01499999999999</v>
       </c>
       <c r="BR2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS2" s="1">
         <v>7001.804212</v>
       </c>
       <c r="BT2" s="1">
-        <v>1.944946</v>
+        <v>1.9449460000000001</v>
       </c>
       <c r="BU2" s="1">
-        <v>1595.820000</v>
+        <v>1595.82</v>
       </c>
       <c r="BV2" s="1">
-        <v>-824.188000</v>
+        <v>-824.18799999999999</v>
       </c>
       <c r="BW2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX2" s="1">
         <v>7012.488069</v>
@@ -706,619 +1122,619 @@
         <v>1.947913</v>
       </c>
       <c r="BZ2" s="1">
-        <v>1743.860000</v>
+        <v>1743.86</v>
       </c>
       <c r="CA2" s="1">
-        <v>-1098.790000</v>
+        <v>-1098.79</v>
       </c>
       <c r="CB2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC2" s="1">
-        <v>7024.172325</v>
+        <v>7024.1723249999995</v>
       </c>
       <c r="CD2" s="1">
-        <v>1.951159</v>
+        <v>1.9511590000000001</v>
       </c>
       <c r="CE2" s="1">
-        <v>2156.600000</v>
+        <v>2156.6</v>
       </c>
       <c r="CF2" s="1">
-        <v>-1768.530000</v>
+        <v>-1768.53</v>
       </c>
       <c r="CG2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:85">
       <c r="A3" s="1">
-        <v>6853.359047</v>
+        <v>6853.3590469999999</v>
       </c>
       <c r="B3" s="1">
-        <v>1.903711</v>
+        <v>1.9037109999999999</v>
       </c>
       <c r="C3" s="1">
-        <v>1145.100000</v>
+        <v>1145.0999999999999</v>
       </c>
       <c r="D3" s="1">
-        <v>-258.349000</v>
+        <v>-258.34899999999999</v>
       </c>
       <c r="E3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F3" s="1">
-        <v>6863.377242</v>
+        <v>6863.3772419999996</v>
       </c>
       <c r="G3" s="1">
-        <v>1.906494</v>
+        <v>1.9064939999999999</v>
       </c>
       <c r="H3" s="1">
-        <v>1165.510000</v>
+        <v>1165.51</v>
       </c>
       <c r="I3" s="1">
-        <v>-216.363000</v>
+        <v>-216.363</v>
       </c>
       <c r="J3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K3" s="1">
-        <v>6873.492156</v>
+        <v>6873.4921560000003</v>
       </c>
       <c r="L3" s="1">
         <v>1.909303</v>
       </c>
       <c r="M3" s="1">
-        <v>1193.790000</v>
+        <v>1193.79</v>
       </c>
       <c r="N3" s="1">
-        <v>-149.637000</v>
+        <v>-149.637</v>
       </c>
       <c r="O3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P3" s="1">
-        <v>6883.735570</v>
+        <v>6883.7355699999998</v>
       </c>
       <c r="Q3" s="1">
-        <v>1.912149</v>
+        <v>1.9121490000000001</v>
       </c>
       <c r="R3" s="1">
-        <v>1201.500000</v>
+        <v>1201.5</v>
       </c>
       <c r="S3" s="1">
-        <v>-127.682000</v>
+        <v>-127.682</v>
       </c>
       <c r="T3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U3" s="1">
-        <v>6894.016610</v>
+        <v>6894.0166099999997</v>
       </c>
       <c r="V3" s="1">
-        <v>1.915005</v>
+        <v>1.9150050000000001</v>
       </c>
       <c r="W3" s="1">
-        <v>1208.590000</v>
+        <v>1208.5899999999999</v>
       </c>
       <c r="X3" s="1">
-        <v>-106.687000</v>
+        <v>-106.687</v>
       </c>
       <c r="Y3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z3" s="1">
-        <v>6904.110693</v>
+        <v>6904.1106929999996</v>
       </c>
       <c r="AA3" s="1">
-        <v>1.917809</v>
+        <v>1.9178090000000001</v>
       </c>
       <c r="AB3" s="1">
-        <v>1215.740000</v>
+        <v>1215.74</v>
       </c>
       <c r="AC3" s="1">
-        <v>-89.346100</v>
+        <v>-89.346100000000007</v>
       </c>
       <c r="AD3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE3" s="1">
-        <v>6915.015264</v>
+        <v>6915.0152639999997</v>
       </c>
       <c r="AF3" s="1">
         <v>1.920838</v>
       </c>
       <c r="AG3" s="1">
-        <v>1220.250000</v>
+        <v>1220.25</v>
       </c>
       <c r="AH3" s="1">
-        <v>-84.757400</v>
+        <v>-84.757400000000004</v>
       </c>
       <c r="AI3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ3" s="1">
-        <v>6925.442633</v>
+        <v>6925.4426329999997</v>
       </c>
       <c r="AK3" s="1">
-        <v>1.923734</v>
+        <v>1.9237340000000001</v>
       </c>
       <c r="AL3" s="1">
-        <v>1227.040000</v>
+        <v>1227.04</v>
       </c>
       <c r="AM3" s="1">
-        <v>-87.758600</v>
+        <v>-87.758600000000001</v>
       </c>
       <c r="AN3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO3" s="1">
-        <v>6936.008410</v>
+        <v>6936.0084100000004</v>
       </c>
       <c r="AP3" s="1">
         <v>1.926669</v>
       </c>
       <c r="AQ3" s="1">
-        <v>1234.740000</v>
+        <v>1234.74</v>
       </c>
       <c r="AR3" s="1">
-        <v>-99.314200</v>
+        <v>-99.3142</v>
       </c>
       <c r="AS3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT3" s="1">
-        <v>6947.237339</v>
+        <v>6947.2373390000002</v>
       </c>
       <c r="AU3" s="1">
-        <v>1.929788</v>
+        <v>1.9297880000000001</v>
       </c>
       <c r="AV3" s="1">
-        <v>1244.350000</v>
+        <v>1244.3499999999999</v>
       </c>
       <c r="AW3" s="1">
-        <v>-118.134000</v>
+        <v>-118.134</v>
       </c>
       <c r="AX3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY3" s="1">
-        <v>6958.160732</v>
+        <v>6958.1607320000003</v>
       </c>
       <c r="AZ3" s="1">
         <v>1.932822</v>
       </c>
       <c r="BA3" s="1">
-        <v>1252.500000</v>
+        <v>1252.5</v>
       </c>
       <c r="BB3" s="1">
-        <v>-135.218000</v>
+        <v>-135.21799999999999</v>
       </c>
       <c r="BC3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD3" s="1">
-        <v>6969.106942</v>
+        <v>6969.1069420000003</v>
       </c>
       <c r="BE3" s="1">
-        <v>1.935863</v>
+        <v>1.9358629999999999</v>
       </c>
       <c r="BF3" s="1">
-        <v>1290.990000</v>
+        <v>1290.99</v>
       </c>
       <c r="BG3" s="1">
-        <v>-215.582000</v>
+        <v>-215.58199999999999</v>
       </c>
       <c r="BH3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI3" s="1">
-        <v>6980.131520</v>
+        <v>6980.1315199999999</v>
       </c>
       <c r="BJ3" s="1">
         <v>1.938925</v>
       </c>
       <c r="BK3" s="1">
-        <v>1357.730000</v>
+        <v>1357.73</v>
       </c>
       <c r="BL3" s="1">
-        <v>-350.540000</v>
+        <v>-350.54</v>
       </c>
       <c r="BM3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN3" s="1">
-        <v>6991.614401</v>
+        <v>6991.6144009999998</v>
       </c>
       <c r="BO3" s="1">
         <v>1.942115</v>
       </c>
       <c r="BP3" s="1">
-        <v>1467.790000</v>
+        <v>1467.79</v>
       </c>
       <c r="BQ3" s="1">
-        <v>-572.041000</v>
+        <v>-572.04100000000005</v>
       </c>
       <c r="BR3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS3" s="1">
-        <v>7002.549201</v>
+        <v>7002.5492009999998</v>
       </c>
       <c r="BT3" s="1">
-        <v>1.945153</v>
+        <v>1.9451529999999999</v>
       </c>
       <c r="BU3" s="1">
-        <v>1595.730000</v>
+        <v>1595.73</v>
       </c>
       <c r="BV3" s="1">
-        <v>-824.174000</v>
+        <v>-824.17399999999998</v>
       </c>
       <c r="BW3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX3" s="1">
-        <v>7013.273203</v>
+        <v>7013.2732029999997</v>
       </c>
       <c r="BY3" s="1">
-        <v>1.948131</v>
+        <v>1.9481310000000001</v>
       </c>
       <c r="BZ3" s="1">
-        <v>1743.890000</v>
+        <v>1743.89</v>
       </c>
       <c r="CA3" s="1">
-        <v>-1098.750000</v>
+        <v>-1098.75</v>
       </c>
       <c r="CB3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC3" s="1">
-        <v>7024.476341</v>
+        <v>7024.4763409999996</v>
       </c>
       <c r="CD3" s="1">
-        <v>1.951243</v>
+        <v>1.9512430000000001</v>
       </c>
       <c r="CE3" s="1">
-        <v>2154.440000</v>
+        <v>2154.44</v>
       </c>
       <c r="CF3" s="1">
-        <v>-1768.990000</v>
+        <v>-1768.99</v>
       </c>
       <c r="CG3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:85">
       <c r="A4" s="1">
-        <v>6853.700326</v>
+        <v>6853.7003260000001</v>
       </c>
       <c r="B4" s="1">
-        <v>1.903806</v>
+        <v>1.9038060000000001</v>
       </c>
       <c r="C4" s="1">
-        <v>1145.030000</v>
+        <v>1145.03</v>
       </c>
       <c r="D4" s="1">
-        <v>-258.480000</v>
+        <v>-258.48</v>
       </c>
       <c r="E4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F4" s="1">
-        <v>6863.797385</v>
+        <v>6863.7973849999998</v>
       </c>
       <c r="G4" s="1">
-        <v>1.906610</v>
+        <v>1.9066099999999999</v>
       </c>
       <c r="H4" s="1">
-        <v>1166.640000</v>
+        <v>1166.6400000000001</v>
       </c>
       <c r="I4" s="1">
-        <v>-216.415000</v>
+        <v>-216.41499999999999</v>
       </c>
       <c r="J4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K4" s="1">
-        <v>6873.904847</v>
+        <v>6873.9048469999998</v>
       </c>
       <c r="L4" s="1">
-        <v>1.909418</v>
+        <v>1.9094180000000001</v>
       </c>
       <c r="M4" s="1">
-        <v>1193.790000</v>
+        <v>1193.79</v>
       </c>
       <c r="N4" s="1">
-        <v>-150.028000</v>
+        <v>-150.02799999999999</v>
       </c>
       <c r="O4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P4" s="1">
-        <v>6884.086206</v>
+        <v>6884.0862059999999</v>
       </c>
       <c r="Q4" s="1">
-        <v>1.912246</v>
+        <v>1.9122459999999999</v>
       </c>
       <c r="R4" s="1">
-        <v>1201.510000</v>
+        <v>1201.51</v>
       </c>
       <c r="S4" s="1">
-        <v>-127.700000</v>
+        <v>-127.7</v>
       </c>
       <c r="T4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U4" s="1">
-        <v>6894.318711</v>
+        <v>6894.3187109999999</v>
       </c>
       <c r="V4" s="1">
         <v>1.915089</v>
       </c>
       <c r="W4" s="1">
-        <v>1208.580000</v>
+        <v>1208.58</v>
       </c>
       <c r="X4" s="1">
-        <v>-106.568000</v>
+        <v>-106.568</v>
       </c>
       <c r="Y4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z4" s="1">
-        <v>6904.456436</v>
+        <v>6904.4564360000004</v>
       </c>
       <c r="AA4" s="1">
         <v>1.917905</v>
       </c>
       <c r="AB4" s="1">
-        <v>1215.840000</v>
+        <v>1215.8399999999999</v>
       </c>
       <c r="AC4" s="1">
-        <v>-89.316400</v>
+        <v>-89.316400000000002</v>
       </c>
       <c r="AD4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE4" s="1">
-        <v>6915.356981</v>
+        <v>6915.3569809999999</v>
       </c>
       <c r="AF4" s="1">
-        <v>1.920932</v>
+        <v>1.9209320000000001</v>
       </c>
       <c r="AG4" s="1">
-        <v>1220.220000</v>
+        <v>1220.22</v>
       </c>
       <c r="AH4" s="1">
-        <v>-84.701400</v>
+        <v>-84.701400000000007</v>
       </c>
       <c r="AI4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ4" s="1">
-        <v>6925.788867</v>
+        <v>6925.7888670000002</v>
       </c>
       <c r="AK4" s="1">
-        <v>1.923830</v>
+        <v>1.9238299999999999</v>
       </c>
       <c r="AL4" s="1">
-        <v>1227.010000</v>
+        <v>1227.01</v>
       </c>
       <c r="AM4" s="1">
-        <v>-87.783800</v>
+        <v>-87.783799999999999</v>
       </c>
       <c r="AN4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO4" s="1">
-        <v>6936.736568</v>
+        <v>6936.7365680000003</v>
       </c>
       <c r="AP4" s="1">
         <v>1.926871</v>
       </c>
       <c r="AQ4" s="1">
-        <v>1234.700000</v>
+        <v>1234.7</v>
       </c>
       <c r="AR4" s="1">
-        <v>-99.326800</v>
+        <v>-99.326800000000006</v>
       </c>
       <c r="AS4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT4" s="1">
-        <v>6947.356876</v>
+        <v>6947.3568759999998</v>
       </c>
       <c r="AU4" s="1">
         <v>1.929821</v>
       </c>
       <c r="AV4" s="1">
-        <v>1244.320000</v>
+        <v>1244.32</v>
       </c>
       <c r="AW4" s="1">
-        <v>-118.127000</v>
+        <v>-118.127</v>
       </c>
       <c r="AX4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY4" s="1">
-        <v>6958.522813</v>
+        <v>6958.5228129999996</v>
       </c>
       <c r="AZ4" s="1">
-        <v>1.932923</v>
+        <v>1.9329229999999999</v>
       </c>
       <c r="BA4" s="1">
-        <v>1252.480000</v>
+        <v>1252.48</v>
       </c>
       <c r="BB4" s="1">
-        <v>-135.213000</v>
+        <v>-135.21299999999999</v>
       </c>
       <c r="BC4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD4" s="1">
-        <v>6969.487869</v>
+        <v>6969.4878689999996</v>
       </c>
       <c r="BE4" s="1">
-        <v>1.935969</v>
+        <v>1.9359690000000001</v>
       </c>
       <c r="BF4" s="1">
-        <v>1290.980000</v>
+        <v>1290.98</v>
       </c>
       <c r="BG4" s="1">
-        <v>-215.591000</v>
+        <v>-215.59100000000001</v>
       </c>
       <c r="BH4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI4" s="1">
-        <v>6980.508975</v>
+        <v>6980.5089749999997</v>
       </c>
       <c r="BJ4" s="1">
-        <v>1.939030</v>
+        <v>1.93903</v>
       </c>
       <c r="BK4" s="1">
-        <v>1357.770000</v>
+        <v>1357.77</v>
       </c>
       <c r="BL4" s="1">
-        <v>-350.526000</v>
+        <v>-350.52600000000001</v>
       </c>
       <c r="BM4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN4" s="1">
-        <v>6992.344015</v>
+        <v>6992.3440149999997</v>
       </c>
       <c r="BO4" s="1">
         <v>1.942318</v>
       </c>
       <c r="BP4" s="1">
-        <v>1467.840000</v>
+        <v>1467.84</v>
       </c>
       <c r="BQ4" s="1">
-        <v>-572.116000</v>
+        <v>-572.11599999999999</v>
       </c>
       <c r="BR4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS4" s="1">
-        <v>7002.672211</v>
+        <v>7002.6722110000001</v>
       </c>
       <c r="BT4" s="1">
         <v>1.945187</v>
       </c>
       <c r="BU4" s="1">
-        <v>1595.640000</v>
+        <v>1595.64</v>
       </c>
       <c r="BV4" s="1">
-        <v>-824.317000</v>
+        <v>-824.31700000000001</v>
       </c>
       <c r="BW4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX4" s="1">
-        <v>7013.422499</v>
+        <v>7013.4224990000002</v>
       </c>
       <c r="BY4" s="1">
-        <v>1.948173</v>
+        <v>1.9481729999999999</v>
       </c>
       <c r="BZ4" s="1">
-        <v>1743.940000</v>
+        <v>1743.94</v>
       </c>
       <c r="CA4" s="1">
-        <v>-1098.830000</v>
+        <v>-1098.83</v>
       </c>
       <c r="CB4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC4" s="1">
-        <v>7025.007061</v>
+        <v>7025.0070610000002</v>
       </c>
       <c r="CD4" s="1">
-        <v>1.951391</v>
+        <v>1.9513910000000001</v>
       </c>
       <c r="CE4" s="1">
-        <v>2155.190000</v>
+        <v>2155.19</v>
       </c>
       <c r="CF4" s="1">
-        <v>-1768.480000</v>
+        <v>-1768.48</v>
       </c>
       <c r="CG4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:85">
       <c r="A5" s="1">
-        <v>6854.114454</v>
+        <v>6854.1144539999996</v>
       </c>
       <c r="B5" s="1">
         <v>1.903921</v>
       </c>
       <c r="C5" s="1">
-        <v>1144.860000</v>
+        <v>1144.8599999999999</v>
       </c>
       <c r="D5" s="1">
-        <v>-258.632000</v>
+        <v>-258.63200000000001</v>
       </c>
       <c r="E5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F5" s="1">
-        <v>6864.066680</v>
+        <v>6864.0666799999999</v>
       </c>
       <c r="G5" s="1">
         <v>1.906685</v>
       </c>
       <c r="H5" s="1">
-        <v>1166.570000</v>
+        <v>1166.57</v>
       </c>
       <c r="I5" s="1">
-        <v>-216.362000</v>
+        <v>-216.36199999999999</v>
       </c>
       <c r="J5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K5" s="1">
-        <v>6874.217308</v>
+        <v>6874.2173080000002</v>
       </c>
       <c r="L5" s="1">
         <v>1.909505</v>
       </c>
       <c r="M5" s="1">
-        <v>1193.700000</v>
+        <v>1193.7</v>
       </c>
       <c r="N5" s="1">
-        <v>-149.815000</v>
+        <v>-149.815</v>
       </c>
       <c r="O5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P5" s="1">
-        <v>6884.436413</v>
+        <v>6884.4364130000004</v>
       </c>
       <c r="Q5" s="1">
-        <v>1.912343</v>
+        <v>1.9123429999999999</v>
       </c>
       <c r="R5" s="1">
-        <v>1201.500000</v>
+        <v>1201.5</v>
       </c>
       <c r="S5" s="1">
-        <v>-127.698000</v>
+        <v>-127.69799999999999</v>
       </c>
       <c r="T5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U5" s="1">
-        <v>6894.657938</v>
+        <v>6894.6579380000003</v>
       </c>
       <c r="V5" s="1">
-        <v>1.915183</v>
+        <v>1.9151830000000001</v>
       </c>
       <c r="W5" s="1">
-        <v>1208.520000</v>
+        <v>1208.52</v>
       </c>
       <c r="X5" s="1">
-        <v>-106.607000</v>
+        <v>-106.607</v>
       </c>
       <c r="Y5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z5" s="1">
         <v>6904.808599</v>
@@ -1327,255 +1743,255 @@
         <v>1.918002</v>
       </c>
       <c r="AB5" s="1">
-        <v>1215.780000</v>
+        <v>1215.78</v>
       </c>
       <c r="AC5" s="1">
-        <v>-89.469500</v>
+        <v>-89.469499999999996</v>
       </c>
       <c r="AD5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE5" s="1">
-        <v>6916.045461</v>
+        <v>6916.0454609999997</v>
       </c>
       <c r="AF5" s="1">
-        <v>1.921124</v>
+        <v>1.9211240000000001</v>
       </c>
       <c r="AG5" s="1">
-        <v>1220.240000</v>
+        <v>1220.24</v>
       </c>
       <c r="AH5" s="1">
-        <v>-84.765700</v>
+        <v>-84.765699999999995</v>
       </c>
       <c r="AI5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ5" s="1">
-        <v>6926.488200</v>
+        <v>6926.4881999999998</v>
       </c>
       <c r="AK5" s="1">
-        <v>1.924025</v>
+        <v>1.9240250000000001</v>
       </c>
       <c r="AL5" s="1">
-        <v>1227.050000</v>
+        <v>1227.05</v>
       </c>
       <c r="AM5" s="1">
-        <v>-87.756600</v>
+        <v>-87.756600000000006</v>
       </c>
       <c r="AN5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO5" s="1">
-        <v>6937.113496</v>
+        <v>6937.1134959999999</v>
       </c>
       <c r="AP5" s="1">
         <v>1.926976</v>
       </c>
       <c r="AQ5" s="1">
-        <v>1234.730000</v>
+        <v>1234.73</v>
       </c>
       <c r="AR5" s="1">
-        <v>-99.294400</v>
+        <v>-99.294399999999996</v>
       </c>
       <c r="AS5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT5" s="1">
-        <v>6947.749090</v>
+        <v>6947.7490900000003</v>
       </c>
       <c r="AU5" s="1">
-        <v>1.929930</v>
+        <v>1.9299299999999999</v>
       </c>
       <c r="AV5" s="1">
-        <v>1244.340000</v>
+        <v>1244.3399999999999</v>
       </c>
       <c r="AW5" s="1">
-        <v>-118.107000</v>
+        <v>-118.107</v>
       </c>
       <c r="AX5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY5" s="1">
-        <v>6958.879964</v>
+        <v>6958.8799639999997</v>
       </c>
       <c r="AZ5" s="1">
         <v>1.933022</v>
       </c>
       <c r="BA5" s="1">
-        <v>1252.500000</v>
+        <v>1252.5</v>
       </c>
       <c r="BB5" s="1">
-        <v>-135.208000</v>
+        <v>-135.208</v>
       </c>
       <c r="BC5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD5" s="1">
-        <v>6970.175820</v>
+        <v>6970.1758200000004</v>
       </c>
       <c r="BE5" s="1">
-        <v>1.936160</v>
+        <v>1.9361600000000001</v>
       </c>
       <c r="BF5" s="1">
-        <v>1291.000000</v>
+        <v>1291</v>
       </c>
       <c r="BG5" s="1">
-        <v>-215.580000</v>
+        <v>-215.58</v>
       </c>
       <c r="BH5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI5" s="1">
         <v>6981.192959</v>
       </c>
       <c r="BJ5" s="1">
-        <v>1.939220</v>
+        <v>1.9392199999999999</v>
       </c>
       <c r="BK5" s="1">
-        <v>1357.770000</v>
+        <v>1357.77</v>
       </c>
       <c r="BL5" s="1">
-        <v>-350.528000</v>
+        <v>-350.52800000000002</v>
       </c>
       <c r="BM5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN5" s="1">
-        <v>6992.443215</v>
+        <v>6992.4432150000002</v>
       </c>
       <c r="BO5" s="1">
         <v>1.942345</v>
       </c>
       <c r="BP5" s="1">
-        <v>1467.850000</v>
+        <v>1467.85</v>
       </c>
       <c r="BQ5" s="1">
-        <v>-572.057000</v>
+        <v>-572.05700000000002</v>
       </c>
       <c r="BR5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS5" s="1">
-        <v>7003.086401</v>
+        <v>7003.0864009999996</v>
       </c>
       <c r="BT5" s="1">
-        <v>1.945302</v>
+        <v>1.9453020000000001</v>
       </c>
       <c r="BU5" s="1">
-        <v>1595.530000</v>
+        <v>1595.53</v>
       </c>
       <c r="BV5" s="1">
-        <v>-824.227000</v>
+        <v>-824.22699999999998</v>
       </c>
       <c r="BW5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX5" s="1">
-        <v>7013.842115</v>
+        <v>7013.8421150000004</v>
       </c>
       <c r="BY5" s="1">
-        <v>1.948289</v>
+        <v>1.9482889999999999</v>
       </c>
       <c r="BZ5" s="1">
-        <v>1743.940000</v>
+        <v>1743.94</v>
       </c>
       <c r="CA5" s="1">
-        <v>-1098.700000</v>
+        <v>-1098.7</v>
       </c>
       <c r="CB5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC5" s="1">
-        <v>7025.523891</v>
+        <v>7025.5238909999998</v>
       </c>
       <c r="CD5" s="1">
-        <v>1.951534</v>
+        <v>1.9515340000000001</v>
       </c>
       <c r="CE5" s="1">
-        <v>2154.340000</v>
+        <v>2154.34</v>
       </c>
       <c r="CF5" s="1">
-        <v>-1770.290000</v>
+        <v>-1770.29</v>
       </c>
       <c r="CG5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:85">
       <c r="A6" s="1">
-        <v>6854.388278</v>
+        <v>6854.3882780000004</v>
       </c>
       <c r="B6" s="1">
-        <v>1.903997</v>
+        <v>1.9039969999999999</v>
       </c>
       <c r="C6" s="1">
-        <v>1145.020000</v>
+        <v>1145.02</v>
       </c>
       <c r="D6" s="1">
-        <v>-258.251000</v>
+        <v>-258.25099999999998</v>
       </c>
       <c r="E6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F6" s="1">
-        <v>6864.413914</v>
+        <v>6864.4139139999997</v>
       </c>
       <c r="G6" s="1">
         <v>1.906782</v>
       </c>
       <c r="H6" s="1">
-        <v>1166.780000</v>
+        <v>1166.78</v>
       </c>
       <c r="I6" s="1">
-        <v>-216.820000</v>
+        <v>-216.82</v>
       </c>
       <c r="J6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K6" s="1">
-        <v>6874.563019</v>
+        <v>6874.5630190000002</v>
       </c>
       <c r="L6" s="1">
-        <v>1.909601</v>
+        <v>1.9096010000000001</v>
       </c>
       <c r="M6" s="1">
-        <v>1193.900000</v>
+        <v>1193.9000000000001</v>
       </c>
       <c r="N6" s="1">
-        <v>-150.397000</v>
+        <v>-150.39699999999999</v>
       </c>
       <c r="O6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P6" s="1">
-        <v>6884.785069</v>
+        <v>6884.7850689999996</v>
       </c>
       <c r="Q6" s="1">
-        <v>1.912440</v>
+        <v>1.9124399999999999</v>
       </c>
       <c r="R6" s="1">
-        <v>1201.510000</v>
+        <v>1201.51</v>
       </c>
       <c r="S6" s="1">
-        <v>-127.657000</v>
+        <v>-127.657</v>
       </c>
       <c r="T6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U6" s="1">
-        <v>6895.003152</v>
+        <v>6895.0031520000002</v>
       </c>
       <c r="V6" s="1">
         <v>1.915279</v>
       </c>
       <c r="W6" s="1">
-        <v>1208.660000</v>
+        <v>1208.6600000000001</v>
       </c>
       <c r="X6" s="1">
-        <v>-106.728000</v>
+        <v>-106.72799999999999</v>
       </c>
       <c r="Y6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z6" s="1">
         <v>6905.504946</v>
@@ -1584,103 +2000,103 @@
         <v>1.918196</v>
       </c>
       <c r="AB6" s="1">
-        <v>1215.890000</v>
+        <v>1215.8900000000001</v>
       </c>
       <c r="AC6" s="1">
-        <v>-89.272100</v>
+        <v>-89.272099999999995</v>
       </c>
       <c r="AD6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE6" s="1">
-        <v>6916.392660</v>
+        <v>6916.3926600000004</v>
       </c>
       <c r="AF6" s="1">
-        <v>1.921220</v>
+        <v>1.9212199999999999</v>
       </c>
       <c r="AG6" s="1">
-        <v>1220.200000</v>
+        <v>1220.2</v>
       </c>
       <c r="AH6" s="1">
-        <v>-84.732000</v>
+        <v>-84.731999999999999</v>
       </c>
       <c r="AI6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ6" s="1">
-        <v>6926.835894</v>
+        <v>6926.8358939999998</v>
       </c>
       <c r="AK6" s="1">
         <v>1.924121</v>
       </c>
       <c r="AL6" s="1">
-        <v>1227.050000</v>
+        <v>1227.05</v>
       </c>
       <c r="AM6" s="1">
-        <v>-87.739300</v>
+        <v>-87.7393</v>
       </c>
       <c r="AN6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO6" s="1">
-        <v>6937.472601</v>
+        <v>6937.4726010000004</v>
       </c>
       <c r="AP6" s="1">
         <v>1.927076</v>
       </c>
       <c r="AQ6" s="1">
-        <v>1234.710000</v>
+        <v>1234.71</v>
       </c>
       <c r="AR6" s="1">
-        <v>-99.326500</v>
+        <v>-99.326499999999996</v>
       </c>
       <c r="AS6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT6" s="1">
-        <v>6948.412393</v>
+        <v>6948.4123929999996</v>
       </c>
       <c r="AU6" s="1">
         <v>1.930115</v>
       </c>
       <c r="AV6" s="1">
-        <v>1244.330000</v>
+        <v>1244.33</v>
       </c>
       <c r="AW6" s="1">
-        <v>-118.144000</v>
+        <v>-118.14400000000001</v>
       </c>
       <c r="AX6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY6" s="1">
         <v>6959.555018</v>
       </c>
       <c r="AZ6" s="1">
-        <v>1.933210</v>
+        <v>1.9332100000000001</v>
       </c>
       <c r="BA6" s="1">
-        <v>1252.470000</v>
+        <v>1252.47</v>
       </c>
       <c r="BB6" s="1">
-        <v>-135.183000</v>
+        <v>-135.18299999999999</v>
       </c>
       <c r="BC6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD6" s="1">
-        <v>6970.617793</v>
+        <v>6970.6177930000003</v>
       </c>
       <c r="BE6" s="1">
         <v>1.936283</v>
       </c>
       <c r="BF6" s="1">
-        <v>1290.960000</v>
+        <v>1290.96</v>
       </c>
       <c r="BG6" s="1">
-        <v>-215.594000</v>
+        <v>-215.59399999999999</v>
       </c>
       <c r="BH6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI6" s="1">
         <v>6981.656258</v>
@@ -1689,240 +2105,240 @@
         <v>1.939349</v>
       </c>
       <c r="BK6" s="1">
-        <v>1357.770000</v>
+        <v>1357.77</v>
       </c>
       <c r="BL6" s="1">
-        <v>-350.578000</v>
+        <v>-350.57799999999997</v>
       </c>
       <c r="BM6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN6" s="1">
-        <v>6992.852911</v>
+        <v>6992.8529109999999</v>
       </c>
       <c r="BO6" s="1">
-        <v>1.942459</v>
+        <v>1.9424589999999999</v>
       </c>
       <c r="BP6" s="1">
-        <v>1467.830000</v>
+        <v>1467.83</v>
       </c>
       <c r="BQ6" s="1">
-        <v>-572.013000</v>
+        <v>-572.01300000000003</v>
       </c>
       <c r="BR6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS6" s="1">
-        <v>7003.498049</v>
+        <v>7003.4980489999998</v>
       </c>
       <c r="BT6" s="1">
         <v>1.945416</v>
       </c>
       <c r="BU6" s="1">
-        <v>1595.450000</v>
+        <v>1595.45</v>
       </c>
       <c r="BV6" s="1">
-        <v>-824.210000</v>
+        <v>-824.21</v>
       </c>
       <c r="BW6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX6" s="1">
-        <v>7014.263714</v>
+        <v>7014.2637139999997</v>
       </c>
       <c r="BY6" s="1">
         <v>1.948407</v>
       </c>
       <c r="BZ6" s="1">
-        <v>1743.900000</v>
+        <v>1743.9</v>
       </c>
       <c r="CA6" s="1">
-        <v>-1098.840000</v>
+        <v>-1098.8399999999999</v>
       </c>
       <c r="CB6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC6" s="1">
-        <v>7026.039269</v>
+        <v>7026.0392689999999</v>
       </c>
       <c r="CD6" s="1">
         <v>1.951678</v>
       </c>
       <c r="CE6" s="1">
-        <v>2153.950000</v>
+        <v>2153.9499999999998</v>
       </c>
       <c r="CF6" s="1">
-        <v>-1769.230000</v>
+        <v>-1769.23</v>
       </c>
       <c r="CG6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:85">
       <c r="A7" s="1">
-        <v>6854.719114</v>
+        <v>6854.7191140000004</v>
       </c>
       <c r="B7" s="1">
-        <v>1.904089</v>
+        <v>1.9040889999999999</v>
       </c>
       <c r="C7" s="1">
-        <v>1145.040000</v>
+        <v>1145.04</v>
       </c>
       <c r="D7" s="1">
-        <v>-258.238000</v>
+        <v>-258.238</v>
       </c>
       <c r="E7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F7" s="1">
-        <v>6864.756626</v>
+        <v>6864.7566260000003</v>
       </c>
       <c r="G7" s="1">
-        <v>1.906877</v>
+        <v>1.9068769999999999</v>
       </c>
       <c r="H7" s="1">
-        <v>1166.350000</v>
+        <v>1166.3499999999999</v>
       </c>
       <c r="I7" s="1">
-        <v>-216.585000</v>
+        <v>-216.58500000000001</v>
       </c>
       <c r="J7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K7" s="1">
-        <v>6874.908234</v>
+        <v>6874.9082340000004</v>
       </c>
       <c r="L7" s="1">
         <v>1.909697</v>
       </c>
       <c r="M7" s="1">
-        <v>1194.010000</v>
+        <v>1194.01</v>
       </c>
       <c r="N7" s="1">
-        <v>-149.919000</v>
+        <v>-149.91900000000001</v>
       </c>
       <c r="O7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P7" s="1">
-        <v>6885.483932</v>
+        <v>6885.4839320000001</v>
       </c>
       <c r="Q7" s="1">
-        <v>1.912634</v>
+        <v>1.9126339999999999</v>
       </c>
       <c r="R7" s="1">
-        <v>1201.550000</v>
+        <v>1201.55</v>
       </c>
       <c r="S7" s="1">
-        <v>-127.661000</v>
+        <v>-127.661</v>
       </c>
       <c r="T7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U7" s="1">
-        <v>6895.691134</v>
+        <v>6895.6911339999997</v>
       </c>
       <c r="V7" s="1">
-        <v>1.915470</v>
+        <v>1.91547</v>
       </c>
       <c r="W7" s="1">
-        <v>1208.650000</v>
+        <v>1208.6500000000001</v>
       </c>
       <c r="X7" s="1">
-        <v>-106.601000</v>
+        <v>-106.601</v>
       </c>
       <c r="Y7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z7" s="1">
-        <v>6905.848177</v>
+        <v>6905.8481769999999</v>
       </c>
       <c r="AA7" s="1">
         <v>1.918291</v>
       </c>
       <c r="AB7" s="1">
-        <v>1215.830000</v>
+        <v>1215.83</v>
       </c>
       <c r="AC7" s="1">
-        <v>-89.337000</v>
+        <v>-89.337000000000003</v>
       </c>
       <c r="AD7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE7" s="1">
-        <v>6916.735892</v>
+        <v>6916.7358919999997</v>
       </c>
       <c r="AF7" s="1">
         <v>1.921316</v>
       </c>
       <c r="AG7" s="1">
-        <v>1220.230000</v>
+        <v>1220.23</v>
       </c>
       <c r="AH7" s="1">
-        <v>-84.727000</v>
+        <v>-84.727000000000004</v>
       </c>
       <c r="AI7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ7" s="1">
-        <v>6927.188053</v>
+        <v>6927.1880529999999</v>
       </c>
       <c r="AK7" s="1">
-        <v>1.924219</v>
+        <v>1.9242189999999999</v>
       </c>
       <c r="AL7" s="1">
-        <v>1227.010000</v>
+        <v>1227.01</v>
       </c>
       <c r="AM7" s="1">
-        <v>-87.791700</v>
+        <v>-87.791700000000006</v>
       </c>
       <c r="AN7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO7" s="1">
-        <v>6938.137239</v>
+        <v>6938.1372389999997</v>
       </c>
       <c r="AP7" s="1">
-        <v>1.927260</v>
+        <v>1.92726</v>
       </c>
       <c r="AQ7" s="1">
-        <v>1234.700000</v>
+        <v>1234.7</v>
       </c>
       <c r="AR7" s="1">
-        <v>-99.298600</v>
+        <v>-99.298599999999993</v>
       </c>
       <c r="AS7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT7" s="1">
-        <v>6948.875624</v>
+        <v>6948.8756240000002</v>
       </c>
       <c r="AU7" s="1">
-        <v>1.930243</v>
+        <v>1.9302429999999999</v>
       </c>
       <c r="AV7" s="1">
-        <v>1244.360000</v>
+        <v>1244.3599999999999</v>
       </c>
       <c r="AW7" s="1">
-        <v>-118.140000</v>
+        <v>-118.14</v>
       </c>
       <c r="AX7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY7" s="1">
-        <v>6959.960218</v>
+        <v>6959.9602180000002</v>
       </c>
       <c r="AZ7" s="1">
         <v>1.933322</v>
       </c>
       <c r="BA7" s="1">
-        <v>1252.500000</v>
+        <v>1252.5</v>
       </c>
       <c r="BB7" s="1">
-        <v>-135.210000</v>
+        <v>-135.21</v>
       </c>
       <c r="BC7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD7" s="1">
         <v>6970.977355</v>
@@ -1931,120 +2347,120 @@
         <v>1.936383</v>
       </c>
       <c r="BF7" s="1">
-        <v>1290.980000</v>
+        <v>1290.98</v>
       </c>
       <c r="BG7" s="1">
-        <v>-215.612000</v>
+        <v>-215.61199999999999</v>
       </c>
       <c r="BH7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI7" s="1">
-        <v>6982.011358</v>
+        <v>6982.0113579999997</v>
       </c>
       <c r="BJ7" s="1">
-        <v>1.939448</v>
+        <v>1.9394480000000001</v>
       </c>
       <c r="BK7" s="1">
-        <v>1357.740000</v>
+        <v>1357.74</v>
       </c>
       <c r="BL7" s="1">
-        <v>-350.555000</v>
+        <v>-350.55500000000001</v>
       </c>
       <c r="BM7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN7" s="1">
-        <v>6993.250702</v>
+        <v>6993.2507020000003</v>
       </c>
       <c r="BO7" s="1">
-        <v>1.942570</v>
+        <v>1.9425699999999999</v>
       </c>
       <c r="BP7" s="1">
-        <v>1467.780000</v>
+        <v>1467.78</v>
       </c>
       <c r="BQ7" s="1">
-        <v>-572.041000</v>
+        <v>-572.04100000000005</v>
       </c>
       <c r="BR7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS7" s="1">
-        <v>7003.915680</v>
+        <v>7003.9156800000001</v>
       </c>
       <c r="BT7" s="1">
         <v>1.945532</v>
       </c>
       <c r="BU7" s="1">
-        <v>1595.330000</v>
+        <v>1595.33</v>
       </c>
       <c r="BV7" s="1">
-        <v>-824.132000</v>
+        <v>-824.13199999999995</v>
       </c>
       <c r="BW7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX7" s="1">
-        <v>7014.720530</v>
+        <v>7014.7205299999996</v>
       </c>
       <c r="BY7" s="1">
-        <v>1.948533</v>
+        <v>1.9485330000000001</v>
       </c>
       <c r="BZ7" s="1">
-        <v>1743.930000</v>
+        <v>1743.93</v>
       </c>
       <c r="CA7" s="1">
-        <v>-1098.600000</v>
+        <v>-1098.5999999999999</v>
       </c>
       <c r="CB7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC7" s="1">
-        <v>7026.597234</v>
+        <v>7026.5972339999998</v>
       </c>
       <c r="CD7" s="1">
-        <v>1.951833</v>
+        <v>1.9518329999999999</v>
       </c>
       <c r="CE7" s="1">
-        <v>2156.100000</v>
+        <v>2156.1</v>
       </c>
       <c r="CF7" s="1">
-        <v>-1768.610000</v>
+        <v>-1768.61</v>
       </c>
       <c r="CG7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:85">
       <c r="A8" s="1">
-        <v>6855.058341</v>
+        <v>6855.0583409999999</v>
       </c>
       <c r="B8" s="1">
         <v>1.904183</v>
       </c>
       <c r="C8" s="1">
-        <v>1144.850000</v>
+        <v>1144.8499999999999</v>
       </c>
       <c r="D8" s="1">
-        <v>-258.586000</v>
+        <v>-258.58600000000001</v>
       </c>
       <c r="E8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F8" s="1">
-        <v>6865.446056</v>
+        <v>6865.4460559999998</v>
       </c>
       <c r="G8" s="1">
         <v>1.907068</v>
       </c>
       <c r="H8" s="1">
-        <v>1166.380000</v>
+        <v>1166.3800000000001</v>
       </c>
       <c r="I8" s="1">
-        <v>-216.762000</v>
+        <v>-216.762</v>
       </c>
       <c r="J8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K8" s="1">
         <v>6875.597675</v>
@@ -2053,315 +2469,315 @@
         <v>1.909888</v>
       </c>
       <c r="M8" s="1">
-        <v>1194.130000</v>
+        <v>1194.1300000000001</v>
       </c>
       <c r="N8" s="1">
-        <v>-149.962000</v>
+        <v>-149.96199999999999</v>
       </c>
       <c r="O8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P8" s="1">
-        <v>6885.830141</v>
+        <v>6885.8301410000004</v>
       </c>
       <c r="Q8" s="1">
         <v>1.912731</v>
       </c>
       <c r="R8" s="1">
-        <v>1201.560000</v>
+        <v>1201.56</v>
       </c>
       <c r="S8" s="1">
-        <v>-127.743000</v>
+        <v>-127.74299999999999</v>
       </c>
       <c r="T8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U8" s="1">
-        <v>6896.039792</v>
+        <v>6896.0397919999996</v>
       </c>
       <c r="V8" s="1">
         <v>1.915567</v>
       </c>
       <c r="W8" s="1">
-        <v>1208.610000</v>
+        <v>1208.6099999999999</v>
       </c>
       <c r="X8" s="1">
-        <v>-106.660000</v>
+        <v>-106.66</v>
       </c>
       <c r="Y8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z8" s="1">
-        <v>6906.201361</v>
+        <v>6906.2013610000004</v>
       </c>
       <c r="AA8" s="1">
-        <v>1.918389</v>
+        <v>1.9183889999999999</v>
       </c>
       <c r="AB8" s="1">
-        <v>1215.770000</v>
+        <v>1215.77</v>
       </c>
       <c r="AC8" s="1">
-        <v>-89.483200</v>
+        <v>-89.483199999999997</v>
       </c>
       <c r="AD8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE8" s="1">
-        <v>6917.391602</v>
+        <v>6917.3916019999997</v>
       </c>
       <c r="AF8" s="1">
-        <v>1.921498</v>
+        <v>1.9214979999999999</v>
       </c>
       <c r="AG8" s="1">
-        <v>1220.220000</v>
+        <v>1220.22</v>
       </c>
       <c r="AH8" s="1">
-        <v>-84.760600</v>
+        <v>-84.760599999999997</v>
       </c>
       <c r="AI8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ8" s="1">
-        <v>6927.846773</v>
+        <v>6927.8467730000002</v>
       </c>
       <c r="AK8" s="1">
-        <v>1.924402</v>
+        <v>1.9244019999999999</v>
       </c>
       <c r="AL8" s="1">
-        <v>1227.040000</v>
+        <v>1227.04</v>
       </c>
       <c r="AM8" s="1">
-        <v>-87.755800</v>
+        <v>-87.755799999999994</v>
       </c>
       <c r="AN8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO8" s="1">
-        <v>6938.554870</v>
+        <v>6938.5548699999999</v>
       </c>
       <c r="AP8" s="1">
         <v>1.927376</v>
       </c>
       <c r="AQ8" s="1">
-        <v>1234.690000</v>
+        <v>1234.69</v>
       </c>
       <c r="AR8" s="1">
-        <v>-99.332300</v>
+        <v>-99.332300000000004</v>
       </c>
       <c r="AS8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT8" s="1">
-        <v>6949.243160</v>
+        <v>6949.24316</v>
       </c>
       <c r="AU8" s="1">
         <v>1.930345</v>
       </c>
       <c r="AV8" s="1">
-        <v>1244.360000</v>
+        <v>1244.3599999999999</v>
       </c>
       <c r="AW8" s="1">
-        <v>-118.143000</v>
+        <v>-118.143</v>
       </c>
       <c r="AX8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY8" s="1">
-        <v>6960.345610</v>
+        <v>6960.3456100000003</v>
       </c>
       <c r="AZ8" s="1">
-        <v>1.933429</v>
+        <v>1.9334290000000001</v>
       </c>
       <c r="BA8" s="1">
-        <v>1252.470000</v>
+        <v>1252.47</v>
       </c>
       <c r="BB8" s="1">
-        <v>-135.175000</v>
+        <v>-135.17500000000001</v>
       </c>
       <c r="BC8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD8" s="1">
-        <v>6971.335963</v>
+        <v>6971.3359630000004</v>
       </c>
       <c r="BE8" s="1">
         <v>1.936482</v>
       </c>
       <c r="BF8" s="1">
-        <v>1290.990000</v>
+        <v>1290.99</v>
       </c>
       <c r="BG8" s="1">
-        <v>-215.585000</v>
+        <v>-215.58500000000001</v>
       </c>
       <c r="BH8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI8" s="1">
-        <v>6982.429278</v>
+        <v>6982.4292779999996</v>
       </c>
       <c r="BJ8" s="1">
-        <v>1.939564</v>
+        <v>1.9395640000000001</v>
       </c>
       <c r="BK8" s="1">
-        <v>1357.760000</v>
+        <v>1357.76</v>
       </c>
       <c r="BL8" s="1">
-        <v>-350.541000</v>
+        <v>-350.541</v>
       </c>
       <c r="BM8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN8" s="1">
         <v>6993.670846</v>
       </c>
       <c r="BO8" s="1">
-        <v>1.942686</v>
+        <v>1.9426859999999999</v>
       </c>
       <c r="BP8" s="1">
-        <v>1467.840000</v>
+        <v>1467.84</v>
       </c>
       <c r="BQ8" s="1">
-        <v>-572.102000</v>
+        <v>-572.10199999999998</v>
       </c>
       <c r="BR8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS8" s="1">
-        <v>7004.350703</v>
+        <v>7004.3507030000001</v>
       </c>
       <c r="BT8" s="1">
-        <v>1.945653</v>
+        <v>1.9456530000000001</v>
       </c>
       <c r="BU8" s="1">
-        <v>1595.220000</v>
+        <v>1595.22</v>
       </c>
       <c r="BV8" s="1">
-        <v>-824.143000</v>
+        <v>-824.14300000000003</v>
       </c>
       <c r="BW8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX8" s="1">
-        <v>7015.137169</v>
+        <v>7015.1371689999996</v>
       </c>
       <c r="BY8" s="1">
-        <v>1.948649</v>
+        <v>1.9486490000000001</v>
       </c>
       <c r="BZ8" s="1">
-        <v>1743.980000</v>
+        <v>1743.98</v>
       </c>
       <c r="CA8" s="1">
-        <v>-1098.760000</v>
+        <v>-1098.76</v>
       </c>
       <c r="CB8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC8" s="1">
-        <v>7027.123986</v>
+        <v>7027.1239859999996</v>
       </c>
       <c r="CD8" s="1">
-        <v>1.951979</v>
+        <v>1.9519789999999999</v>
       </c>
       <c r="CE8" s="1">
-        <v>2154.450000</v>
+        <v>2154.4499999999998</v>
       </c>
       <c r="CF8" s="1">
-        <v>-1769.850000</v>
+        <v>-1769.85</v>
       </c>
       <c r="CG8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:85">
       <c r="A9" s="1">
         <v>6855.751749</v>
       </c>
       <c r="B9" s="1">
-        <v>1.904375</v>
+        <v>1.9043749999999999</v>
       </c>
       <c r="C9" s="1">
-        <v>1144.910000</v>
+        <v>1144.9100000000001</v>
       </c>
       <c r="D9" s="1">
-        <v>-258.495000</v>
+        <v>-258.495</v>
       </c>
       <c r="E9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F9" s="1">
-        <v>6865.789854</v>
+        <v>6865.7898539999997</v>
       </c>
       <c r="G9" s="1">
-        <v>1.907164</v>
+        <v>1.9071640000000001</v>
       </c>
       <c r="H9" s="1">
-        <v>1166.230000</v>
+        <v>1166.23</v>
       </c>
       <c r="I9" s="1">
-        <v>-216.856000</v>
+        <v>-216.85599999999999</v>
       </c>
       <c r="J9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K9" s="1">
-        <v>6875.943417</v>
+        <v>6875.9434170000004</v>
       </c>
       <c r="L9" s="1">
-        <v>1.909984</v>
+        <v>1.9099839999999999</v>
       </c>
       <c r="M9" s="1">
-        <v>1194.110000</v>
+        <v>1194.1099999999999</v>
       </c>
       <c r="N9" s="1">
-        <v>-149.848000</v>
+        <v>-149.84800000000001</v>
       </c>
       <c r="O9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P9" s="1">
-        <v>6886.178332</v>
+        <v>6886.1783320000004</v>
       </c>
       <c r="Q9" s="1">
-        <v>1.912827</v>
+        <v>1.9128270000000001</v>
       </c>
       <c r="R9" s="1">
-        <v>1201.490000</v>
+        <v>1201.49</v>
       </c>
       <c r="S9" s="1">
-        <v>-127.764000</v>
+        <v>-127.764</v>
       </c>
       <c r="T9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U9" s="1">
-        <v>6896.695501</v>
+        <v>6896.6955010000001</v>
       </c>
       <c r="V9" s="1">
-        <v>1.915749</v>
+        <v>1.9157489999999999</v>
       </c>
       <c r="W9" s="1">
-        <v>1208.560000</v>
+        <v>1208.56</v>
       </c>
       <c r="X9" s="1">
-        <v>-106.534000</v>
+        <v>-106.53400000000001</v>
       </c>
       <c r="Y9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z9" s="1">
-        <v>6906.859057</v>
+        <v>6906.8590569999997</v>
       </c>
       <c r="AA9" s="1">
-        <v>1.918572</v>
+        <v>1.9185719999999999</v>
       </c>
       <c r="AB9" s="1">
-        <v>1215.800000</v>
+        <v>1215.8</v>
       </c>
       <c r="AC9" s="1">
-        <v>-89.496100</v>
+        <v>-89.496099999999998</v>
       </c>
       <c r="AD9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE9" s="1">
         <v>6917.768599</v>
@@ -2370,240 +2786,240 @@
         <v>1.921602</v>
       </c>
       <c r="AG9" s="1">
-        <v>1220.240000</v>
+        <v>1220.24</v>
       </c>
       <c r="AH9" s="1">
-        <v>-84.700800</v>
+        <v>-84.700800000000001</v>
       </c>
       <c r="AI9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ9" s="1">
-        <v>6928.232665</v>
+        <v>6928.2326650000005</v>
       </c>
       <c r="AK9" s="1">
         <v>1.924509</v>
       </c>
       <c r="AL9" s="1">
-        <v>1227.060000</v>
+        <v>1227.06</v>
       </c>
       <c r="AM9" s="1">
-        <v>-87.756200</v>
+        <v>-87.756200000000007</v>
       </c>
       <c r="AN9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO9" s="1">
-        <v>6938.937813</v>
+        <v>6938.9378129999996</v>
       </c>
       <c r="AP9" s="1">
-        <v>1.927483</v>
+        <v>1.9274830000000001</v>
       </c>
       <c r="AQ9" s="1">
-        <v>1234.720000</v>
+        <v>1234.72</v>
       </c>
       <c r="AR9" s="1">
-        <v>-99.280700</v>
+        <v>-99.280699999999996</v>
       </c>
       <c r="AS9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT9" s="1">
-        <v>6949.608711</v>
+        <v>6949.6087109999999</v>
       </c>
       <c r="AU9" s="1">
         <v>1.930447</v>
       </c>
       <c r="AV9" s="1">
-        <v>1244.360000</v>
+        <v>1244.3599999999999</v>
       </c>
       <c r="AW9" s="1">
-        <v>-118.144000</v>
+        <v>-118.14400000000001</v>
       </c>
       <c r="AX9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY9" s="1">
-        <v>6960.705705</v>
+        <v>6960.7057050000003</v>
       </c>
       <c r="AZ9" s="1">
-        <v>1.933529</v>
+        <v>1.9335290000000001</v>
       </c>
       <c r="BA9" s="1">
-        <v>1252.500000</v>
+        <v>1252.5</v>
       </c>
       <c r="BB9" s="1">
-        <v>-135.186000</v>
+        <v>-135.18600000000001</v>
       </c>
       <c r="BC9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD9" s="1">
-        <v>6971.758586</v>
+        <v>6971.7585859999999</v>
       </c>
       <c r="BE9" s="1">
-        <v>1.936600</v>
+        <v>1.9366000000000001</v>
       </c>
       <c r="BF9" s="1">
-        <v>1290.990000</v>
+        <v>1290.99</v>
       </c>
       <c r="BG9" s="1">
-        <v>-215.578000</v>
+        <v>-215.578</v>
       </c>
       <c r="BH9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI9" s="1">
-        <v>6982.751916</v>
+        <v>6982.7519160000002</v>
       </c>
       <c r="BJ9" s="1">
-        <v>1.939653</v>
+        <v>1.9396530000000001</v>
       </c>
       <c r="BK9" s="1">
-        <v>1357.790000</v>
+        <v>1357.79</v>
       </c>
       <c r="BL9" s="1">
-        <v>-350.542000</v>
+        <v>-350.54199999999997</v>
       </c>
       <c r="BM9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN9" s="1">
-        <v>6994.066622</v>
+        <v>6994.0666220000003</v>
       </c>
       <c r="BO9" s="1">
         <v>1.942796</v>
       </c>
       <c r="BP9" s="1">
-        <v>1467.840000</v>
+        <v>1467.84</v>
       </c>
       <c r="BQ9" s="1">
-        <v>-572.053000</v>
+        <v>-572.053</v>
       </c>
       <c r="BR9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS9" s="1">
-        <v>7004.780208</v>
+        <v>7004.7802080000001</v>
       </c>
       <c r="BT9" s="1">
-        <v>1.945772</v>
+        <v>1.9457720000000001</v>
       </c>
       <c r="BU9" s="1">
-        <v>1595.240000</v>
+        <v>1595.24</v>
       </c>
       <c r="BV9" s="1">
-        <v>-823.944000</v>
+        <v>-823.94399999999996</v>
       </c>
       <c r="BW9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX9" s="1">
         <v>7015.584562</v>
       </c>
       <c r="BY9" s="1">
-        <v>1.948773</v>
+        <v>1.9487730000000001</v>
       </c>
       <c r="BZ9" s="1">
-        <v>1743.930000</v>
+        <v>1743.93</v>
       </c>
       <c r="CA9" s="1">
-        <v>-1098.820000</v>
+        <v>-1098.82</v>
       </c>
       <c r="CB9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC9" s="1">
-        <v>7027.642309</v>
+        <v>7027.6423089999998</v>
       </c>
       <c r="CD9" s="1">
-        <v>1.952123</v>
+        <v>1.9521230000000001</v>
       </c>
       <c r="CE9" s="1">
-        <v>2156.630000</v>
+        <v>2156.63</v>
       </c>
       <c r="CF9" s="1">
-        <v>-1770.540000</v>
+        <v>-1770.54</v>
       </c>
       <c r="CG9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:85">
       <c r="A10" s="1">
         <v>6856.093492</v>
       </c>
       <c r="B10" s="1">
-        <v>1.904470</v>
+        <v>1.9044700000000001</v>
       </c>
       <c r="C10" s="1">
-        <v>1145.140000</v>
+        <v>1145.1400000000001</v>
       </c>
       <c r="D10" s="1">
-        <v>-258.217000</v>
+        <v>-258.21699999999998</v>
       </c>
       <c r="E10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F10" s="1">
-        <v>6866.133510</v>
+        <v>6866.1335099999997</v>
       </c>
       <c r="G10" s="1">
         <v>1.907259</v>
       </c>
       <c r="H10" s="1">
-        <v>1166.090000</v>
+        <v>1166.0899999999999</v>
       </c>
       <c r="I10" s="1">
-        <v>-216.483000</v>
+        <v>-216.483</v>
       </c>
       <c r="J10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K10" s="1">
-        <v>6876.290584</v>
+        <v>6876.2905840000003</v>
       </c>
       <c r="L10" s="1">
-        <v>1.910081</v>
+        <v>1.9100809999999999</v>
       </c>
       <c r="M10" s="1">
-        <v>1193.680000</v>
+        <v>1193.68</v>
       </c>
       <c r="N10" s="1">
-        <v>-149.966000</v>
+        <v>-149.96600000000001</v>
       </c>
       <c r="O10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P10" s="1">
-        <v>6886.834571</v>
+        <v>6886.8345710000003</v>
       </c>
       <c r="Q10" s="1">
-        <v>1.913010</v>
+        <v>1.9130100000000001</v>
       </c>
       <c r="R10" s="1">
-        <v>1201.470000</v>
+        <v>1201.47</v>
       </c>
       <c r="S10" s="1">
-        <v>-127.646000</v>
+        <v>-127.646</v>
       </c>
       <c r="T10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U10" s="1">
-        <v>6897.072957</v>
+        <v>6897.0729570000003</v>
       </c>
       <c r="V10" s="1">
-        <v>1.915854</v>
+        <v>1.9158539999999999</v>
       </c>
       <c r="W10" s="1">
-        <v>1208.520000</v>
+        <v>1208.52</v>
       </c>
       <c r="X10" s="1">
-        <v>-106.662000</v>
+        <v>-106.66200000000001</v>
       </c>
       <c r="Y10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z10" s="1">
         <v>6907.245441</v>
@@ -2612,557 +3028,557 @@
         <v>1.918679</v>
       </c>
       <c r="AB10" s="1">
-        <v>1215.660000</v>
+        <v>1215.6600000000001</v>
       </c>
       <c r="AC10" s="1">
-        <v>-89.539800</v>
+        <v>-89.5398</v>
       </c>
       <c r="AD10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE10" s="1">
-        <v>6918.110273</v>
+        <v>6918.1102730000002</v>
       </c>
       <c r="AF10" s="1">
         <v>1.921697</v>
       </c>
       <c r="AG10" s="1">
-        <v>1220.240000</v>
+        <v>1220.24</v>
       </c>
       <c r="AH10" s="1">
-        <v>-84.773400</v>
+        <v>-84.773399999999995</v>
       </c>
       <c r="AI10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ10" s="1">
-        <v>6928.580324</v>
+        <v>6928.5803239999996</v>
       </c>
       <c r="AK10" s="1">
         <v>1.924606</v>
       </c>
       <c r="AL10" s="1">
-        <v>1227.040000</v>
+        <v>1227.04</v>
       </c>
       <c r="AM10" s="1">
-        <v>-87.787900</v>
+        <v>-87.787899999999993</v>
       </c>
       <c r="AN10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO10" s="1">
-        <v>6939.299861</v>
+        <v>6939.2998610000004</v>
       </c>
       <c r="AP10" s="1">
         <v>1.927583</v>
       </c>
       <c r="AQ10" s="1">
-        <v>1234.710000</v>
+        <v>1234.71</v>
       </c>
       <c r="AR10" s="1">
-        <v>-99.309200</v>
+        <v>-99.309200000000004</v>
       </c>
       <c r="AS10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT10" s="1">
-        <v>6950.038279</v>
+        <v>6950.0382790000003</v>
       </c>
       <c r="AU10" s="1">
         <v>1.930566</v>
       </c>
       <c r="AV10" s="1">
-        <v>1244.360000</v>
+        <v>1244.3599999999999</v>
       </c>
       <c r="AW10" s="1">
-        <v>-118.137000</v>
+        <v>-118.137</v>
       </c>
       <c r="AX10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY10" s="1">
-        <v>6961.133258</v>
+        <v>6961.1332579999998</v>
       </c>
       <c r="AZ10" s="1">
         <v>1.933648</v>
       </c>
       <c r="BA10" s="1">
-        <v>1252.500000</v>
+        <v>1252.5</v>
       </c>
       <c r="BB10" s="1">
-        <v>-135.189000</v>
+        <v>-135.18899999999999</v>
       </c>
       <c r="BC10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD10" s="1">
-        <v>6972.060618</v>
+        <v>6972.0606180000004</v>
       </c>
       <c r="BE10" s="1">
-        <v>1.936684</v>
+        <v>1.9366840000000001</v>
       </c>
       <c r="BF10" s="1">
-        <v>1290.990000</v>
+        <v>1290.99</v>
       </c>
       <c r="BG10" s="1">
-        <v>-215.558000</v>
+        <v>-215.55799999999999</v>
       </c>
       <c r="BH10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI10" s="1">
-        <v>6983.162689</v>
+        <v>6983.1626889999998</v>
       </c>
       <c r="BJ10" s="1">
         <v>1.939767</v>
       </c>
       <c r="BK10" s="1">
-        <v>1357.750000</v>
+        <v>1357.75</v>
       </c>
       <c r="BL10" s="1">
-        <v>-350.546000</v>
+        <v>-350.54599999999999</v>
       </c>
       <c r="BM10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN10" s="1">
-        <v>6994.490702</v>
+        <v>6994.4907020000001</v>
       </c>
       <c r="BO10" s="1">
         <v>1.942914</v>
       </c>
       <c r="BP10" s="1">
-        <v>1467.810000</v>
+        <v>1467.81</v>
       </c>
       <c r="BQ10" s="1">
-        <v>-572.040000</v>
+        <v>-572.04</v>
       </c>
       <c r="BR10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS10" s="1">
-        <v>7005.190430</v>
+        <v>7005.1904299999997</v>
       </c>
       <c r="BT10" s="1">
         <v>1.945886</v>
       </c>
       <c r="BU10" s="1">
-        <v>1595.150000</v>
+        <v>1595.15</v>
       </c>
       <c r="BV10" s="1">
-        <v>-823.854000</v>
+        <v>-823.85400000000004</v>
       </c>
       <c r="BW10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX10" s="1">
         <v>7016.395023</v>
       </c>
       <c r="BY10" s="1">
-        <v>1.948999</v>
+        <v>1.9489989999999999</v>
       </c>
       <c r="BZ10" s="1">
-        <v>1743.980000</v>
+        <v>1743.98</v>
       </c>
       <c r="CA10" s="1">
-        <v>-1098.710000</v>
+        <v>-1098.71</v>
       </c>
       <c r="CB10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC10" s="1">
-        <v>7028.180960</v>
+        <v>7028.1809599999997</v>
       </c>
       <c r="CD10" s="1">
         <v>1.952272</v>
       </c>
       <c r="CE10" s="1">
-        <v>2154.890000</v>
+        <v>2154.89</v>
       </c>
       <c r="CF10" s="1">
-        <v>-1768.960000</v>
+        <v>-1768.96</v>
       </c>
       <c r="CG10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:85">
       <c r="A11" s="1">
-        <v>6856.430802</v>
+        <v>6856.4308019999999</v>
       </c>
       <c r="B11" s="1">
-        <v>1.904564</v>
+        <v>1.9045639999999999</v>
       </c>
       <c r="C11" s="1">
-        <v>1144.960000</v>
+        <v>1144.96</v>
       </c>
       <c r="D11" s="1">
-        <v>-258.197000</v>
+        <v>-258.197</v>
       </c>
       <c r="E11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F11" s="1">
         <v>6866.789788</v>
       </c>
       <c r="G11" s="1">
-        <v>1.907442</v>
+        <v>1.9074420000000001</v>
       </c>
       <c r="H11" s="1">
-        <v>1166.930000</v>
+        <v>1166.93</v>
       </c>
       <c r="I11" s="1">
-        <v>-216.488000</v>
+        <v>-216.488</v>
       </c>
       <c r="J11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K11" s="1">
-        <v>6876.938856</v>
+        <v>6876.9388559999998</v>
       </c>
       <c r="L11" s="1">
         <v>1.910261</v>
       </c>
       <c r="M11" s="1">
-        <v>1193.910000</v>
+        <v>1193.9100000000001</v>
       </c>
       <c r="N11" s="1">
-        <v>-149.973000</v>
+        <v>-149.97300000000001</v>
       </c>
       <c r="O11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P11" s="1">
-        <v>6887.222908</v>
+        <v>6887.2229079999997</v>
       </c>
       <c r="Q11" s="1">
         <v>1.913117</v>
       </c>
       <c r="R11" s="1">
-        <v>1201.530000</v>
+        <v>1201.53</v>
       </c>
       <c r="S11" s="1">
-        <v>-127.632000</v>
+        <v>-127.63200000000001</v>
       </c>
       <c r="T11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U11" s="1">
-        <v>6897.415196</v>
+        <v>6897.4151959999999</v>
       </c>
       <c r="V11" s="1">
-        <v>1.915949</v>
+        <v>1.9159489999999999</v>
       </c>
       <c r="W11" s="1">
-        <v>1208.660000</v>
+        <v>1208.6600000000001</v>
       </c>
       <c r="X11" s="1">
-        <v>-106.579000</v>
+        <v>-106.57899999999999</v>
       </c>
       <c r="Y11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z11" s="1">
-        <v>6907.596608</v>
+        <v>6907.5966079999998</v>
       </c>
       <c r="AA11" s="1">
         <v>1.918777</v>
       </c>
       <c r="AB11" s="1">
-        <v>1215.700000</v>
+        <v>1215.7</v>
       </c>
       <c r="AC11" s="1">
-        <v>-89.407300</v>
+        <v>-89.407300000000006</v>
       </c>
       <c r="AD11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE11" s="1">
-        <v>6918.452546</v>
+        <v>6918.4525460000004</v>
       </c>
       <c r="AF11" s="1">
-        <v>1.921792</v>
+        <v>1.9217919999999999</v>
       </c>
       <c r="AG11" s="1">
-        <v>1220.260000</v>
+        <v>1220.26</v>
       </c>
       <c r="AH11" s="1">
-        <v>-84.721400</v>
+        <v>-84.721400000000003</v>
       </c>
       <c r="AI11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ11" s="1">
-        <v>6928.928547</v>
+        <v>6928.9285470000004</v>
       </c>
       <c r="AK11" s="1">
-        <v>1.924702</v>
+        <v>1.9247019999999999</v>
       </c>
       <c r="AL11" s="1">
-        <v>1227.050000</v>
+        <v>1227.05</v>
       </c>
       <c r="AM11" s="1">
-        <v>-87.796900</v>
+        <v>-87.796899999999994</v>
       </c>
       <c r="AN11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO11" s="1">
-        <v>6939.715509</v>
+        <v>6939.7155089999997</v>
       </c>
       <c r="AP11" s="1">
-        <v>1.927699</v>
+        <v>1.9276990000000001</v>
       </c>
       <c r="AQ11" s="1">
-        <v>1234.730000</v>
+        <v>1234.73</v>
       </c>
       <c r="AR11" s="1">
-        <v>-99.302700</v>
+        <v>-99.302700000000002</v>
       </c>
       <c r="AS11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT11" s="1">
-        <v>6950.336839</v>
+        <v>6950.3368389999996</v>
       </c>
       <c r="AU11" s="1">
-        <v>1.930649</v>
+        <v>1.9306490000000001</v>
       </c>
       <c r="AV11" s="1">
-        <v>1244.360000</v>
+        <v>1244.3599999999999</v>
       </c>
       <c r="AW11" s="1">
-        <v>-118.128000</v>
+        <v>-118.128</v>
       </c>
       <c r="AX11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY11" s="1">
-        <v>6961.420938</v>
+        <v>6961.4209380000002</v>
       </c>
       <c r="AZ11" s="1">
-        <v>1.933728</v>
+        <v>1.9337279999999999</v>
       </c>
       <c r="BA11" s="1">
-        <v>1252.500000</v>
+        <v>1252.5</v>
       </c>
       <c r="BB11" s="1">
-        <v>-135.219000</v>
+        <v>-135.21899999999999</v>
       </c>
       <c r="BC11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD11" s="1">
-        <v>6972.421742</v>
+        <v>6972.4217420000004</v>
       </c>
       <c r="BE11" s="1">
-        <v>1.936784</v>
+        <v>1.9367840000000001</v>
       </c>
       <c r="BF11" s="1">
-        <v>1290.980000</v>
+        <v>1290.98</v>
       </c>
       <c r="BG11" s="1">
-        <v>-215.603000</v>
+        <v>-215.60300000000001</v>
       </c>
       <c r="BH11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI11" s="1">
-        <v>6983.539034</v>
+        <v>6983.5390340000004</v>
       </c>
       <c r="BJ11" s="1">
         <v>1.939872</v>
       </c>
       <c r="BK11" s="1">
-        <v>1357.790000</v>
+        <v>1357.79</v>
       </c>
       <c r="BL11" s="1">
-        <v>-350.576000</v>
+        <v>-350.57600000000002</v>
       </c>
       <c r="BM11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN11" s="1">
-        <v>6994.884029</v>
+        <v>6994.8840289999998</v>
       </c>
       <c r="BO11" s="1">
-        <v>1.943023</v>
+        <v>1.9430229999999999</v>
       </c>
       <c r="BP11" s="1">
-        <v>1467.840000</v>
+        <v>1467.84</v>
       </c>
       <c r="BQ11" s="1">
-        <v>-572.076000</v>
+        <v>-572.07600000000002</v>
       </c>
       <c r="BR11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS11" s="1">
-        <v>7005.621454</v>
+        <v>7005.6214540000001</v>
       </c>
       <c r="BT11" s="1">
-        <v>1.946006</v>
+        <v>1.9460059999999999</v>
       </c>
       <c r="BU11" s="1">
-        <v>1595.180000</v>
+        <v>1595.18</v>
       </c>
       <c r="BV11" s="1">
-        <v>-823.693000</v>
+        <v>-823.69299999999998</v>
       </c>
       <c r="BW11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX11" s="1">
-        <v>7016.868703</v>
+        <v>7016.8687030000001</v>
       </c>
       <c r="BY11" s="1">
-        <v>1.949130</v>
+        <v>1.94913</v>
       </c>
       <c r="BZ11" s="1">
-        <v>1744.010000</v>
+        <v>1744.01</v>
       </c>
       <c r="CA11" s="1">
-        <v>-1098.730000</v>
+        <v>-1098.73</v>
       </c>
       <c r="CB11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC11" s="1">
-        <v>7028.722095</v>
+        <v>7028.7220950000001</v>
       </c>
       <c r="CD11" s="1">
         <v>1.952423</v>
       </c>
       <c r="CE11" s="1">
-        <v>2155.980000</v>
+        <v>2155.98</v>
       </c>
       <c r="CF11" s="1">
-        <v>-1771.290000</v>
+        <v>-1771.29</v>
       </c>
       <c r="CG11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:85">
       <c r="A12" s="1">
-        <v>6857.076562</v>
+        <v>6857.0765620000002</v>
       </c>
       <c r="B12" s="1">
-        <v>1.904743</v>
+        <v>1.9047430000000001</v>
       </c>
       <c r="C12" s="1">
-        <v>1144.730000</v>
+        <v>1144.73</v>
       </c>
       <c r="D12" s="1">
-        <v>-258.132000</v>
+        <v>-258.13200000000001</v>
       </c>
       <c r="E12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F12" s="1">
-        <v>6867.169157</v>
+        <v>6867.1691570000003</v>
       </c>
       <c r="G12" s="1">
-        <v>1.907547</v>
+        <v>1.9075470000000001</v>
       </c>
       <c r="H12" s="1">
-        <v>1166.840000</v>
+        <v>1166.8399999999999</v>
       </c>
       <c r="I12" s="1">
-        <v>-216.147000</v>
+        <v>-216.14699999999999</v>
       </c>
       <c r="J12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K12" s="1">
-        <v>6877.329208</v>
+        <v>6877.3292080000001</v>
       </c>
       <c r="L12" s="1">
         <v>1.910369</v>
       </c>
       <c r="M12" s="1">
-        <v>1194.070000</v>
+        <v>1194.07</v>
       </c>
       <c r="N12" s="1">
-        <v>-149.686000</v>
+        <v>-149.68600000000001</v>
       </c>
       <c r="O12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P12" s="1">
-        <v>6887.571192</v>
+        <v>6887.5711920000003</v>
       </c>
       <c r="Q12" s="1">
         <v>1.913214</v>
       </c>
       <c r="R12" s="1">
-        <v>1201.510000</v>
+        <v>1201.51</v>
       </c>
       <c r="S12" s="1">
-        <v>-127.664000</v>
+        <v>-127.664</v>
       </c>
       <c r="T12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U12" s="1">
-        <v>6897.761438</v>
+        <v>6897.7614380000005</v>
       </c>
       <c r="V12" s="1">
         <v>1.916045</v>
       </c>
       <c r="W12" s="1">
-        <v>1208.550000</v>
+        <v>1208.55</v>
       </c>
       <c r="X12" s="1">
-        <v>-106.625000</v>
+        <v>-106.625</v>
       </c>
       <c r="Y12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z12" s="1">
-        <v>6907.945759</v>
+        <v>6907.9457590000002</v>
       </c>
       <c r="AA12" s="1">
         <v>1.918874</v>
       </c>
       <c r="AB12" s="1">
-        <v>1215.840000</v>
+        <v>1215.8399999999999</v>
       </c>
       <c r="AC12" s="1">
-        <v>-89.416000</v>
+        <v>-89.415999999999997</v>
       </c>
       <c r="AD12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE12" s="1">
-        <v>6918.866672</v>
+        <v>6918.8666720000001</v>
       </c>
       <c r="AF12" s="1">
         <v>1.921907</v>
       </c>
       <c r="AG12" s="1">
-        <v>1220.240000</v>
+        <v>1220.24</v>
       </c>
       <c r="AH12" s="1">
-        <v>-84.765900</v>
+        <v>-84.765900000000002</v>
       </c>
       <c r="AI12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ12" s="1">
-        <v>6929.344659</v>
+        <v>6929.3446590000003</v>
       </c>
       <c r="AK12" s="1">
-        <v>1.924818</v>
+        <v>1.9248179999999999</v>
       </c>
       <c r="AL12" s="1">
-        <v>1227.010000</v>
+        <v>1227.01</v>
       </c>
       <c r="AM12" s="1">
-        <v>-87.805400</v>
+        <v>-87.805400000000006</v>
       </c>
       <c r="AN12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO12" s="1">
         <v>6940.018564</v>
@@ -3171,255 +3587,255 @@
         <v>1.927783</v>
       </c>
       <c r="AQ12" s="1">
-        <v>1234.730000</v>
+        <v>1234.73</v>
       </c>
       <c r="AR12" s="1">
-        <v>-99.303700</v>
+        <v>-99.303700000000006</v>
       </c>
       <c r="AS12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT12" s="1">
-        <v>6950.701431</v>
+        <v>6950.7014310000004</v>
       </c>
       <c r="AU12" s="1">
-        <v>1.930750</v>
+        <v>1.93075</v>
       </c>
       <c r="AV12" s="1">
-        <v>1244.350000</v>
+        <v>1244.3499999999999</v>
       </c>
       <c r="AW12" s="1">
-        <v>-118.127000</v>
+        <v>-118.127</v>
       </c>
       <c r="AX12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY12" s="1">
-        <v>6961.781377</v>
+        <v>6961.7813770000002</v>
       </c>
       <c r="AZ12" s="1">
-        <v>1.933828</v>
+        <v>1.9338280000000001</v>
       </c>
       <c r="BA12" s="1">
-        <v>1252.490000</v>
+        <v>1252.49</v>
       </c>
       <c r="BB12" s="1">
-        <v>-135.183000</v>
+        <v>-135.18299999999999</v>
       </c>
       <c r="BC12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD12" s="1">
-        <v>6972.782330</v>
+        <v>6972.78233</v>
       </c>
       <c r="BE12" s="1">
-        <v>1.936884</v>
+        <v>1.9368840000000001</v>
       </c>
       <c r="BF12" s="1">
-        <v>1290.990000</v>
+        <v>1290.99</v>
       </c>
       <c r="BG12" s="1">
-        <v>-215.618000</v>
+        <v>-215.61799999999999</v>
       </c>
       <c r="BH12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI12" s="1">
-        <v>6984.287993</v>
+        <v>6984.2879929999999</v>
       </c>
       <c r="BJ12" s="1">
-        <v>1.940080</v>
+        <v>1.94008</v>
       </c>
       <c r="BK12" s="1">
-        <v>1357.810000</v>
+        <v>1357.81</v>
       </c>
       <c r="BL12" s="1">
-        <v>-350.557000</v>
+        <v>-350.55700000000002</v>
       </c>
       <c r="BM12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN12" s="1">
-        <v>6995.310587</v>
+        <v>6995.3105869999999</v>
       </c>
       <c r="BO12" s="1">
-        <v>1.943142</v>
+        <v>1.9431419999999999</v>
       </c>
       <c r="BP12" s="1">
-        <v>1467.830000</v>
+        <v>1467.83</v>
       </c>
       <c r="BQ12" s="1">
-        <v>-572.086000</v>
+        <v>-572.08600000000001</v>
       </c>
       <c r="BR12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS12" s="1">
-        <v>7006.050991</v>
+        <v>7006.0509910000001</v>
       </c>
       <c r="BT12" s="1">
-        <v>1.946125</v>
+        <v>1.9461250000000001</v>
       </c>
       <c r="BU12" s="1">
-        <v>1595.170000</v>
+        <v>1595.17</v>
       </c>
       <c r="BV12" s="1">
-        <v>-823.672000</v>
+        <v>-823.67200000000003</v>
       </c>
       <c r="BW12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX12" s="1">
         <v>7017.302702</v>
       </c>
       <c r="BY12" s="1">
-        <v>1.949251</v>
+        <v>1.9492510000000001</v>
       </c>
       <c r="BZ12" s="1">
-        <v>1743.900000</v>
+        <v>1743.9</v>
       </c>
       <c r="CA12" s="1">
-        <v>-1098.670000</v>
+        <v>-1098.67</v>
       </c>
       <c r="CB12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC12" s="1">
-        <v>7029.259263</v>
+        <v>7029.2592629999999</v>
       </c>
       <c r="CD12" s="1">
         <v>1.952572</v>
       </c>
       <c r="CE12" s="1">
-        <v>2156.280000</v>
+        <v>2156.2800000000002</v>
       </c>
       <c r="CF12" s="1">
-        <v>-1769.110000</v>
+        <v>-1769.11</v>
       </c>
       <c r="CG12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:85">
       <c r="A13" s="1">
-        <v>6857.457123</v>
+        <v>6857.4571230000001</v>
       </c>
       <c r="B13" s="1">
         <v>1.904849</v>
       </c>
       <c r="C13" s="1">
-        <v>1145.090000</v>
+        <v>1145.0899999999999</v>
       </c>
       <c r="D13" s="1">
-        <v>-258.102000</v>
+        <v>-258.10199999999998</v>
       </c>
       <c r="E13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F13" s="1">
-        <v>6867.511396</v>
+        <v>6867.5113959999999</v>
       </c>
       <c r="G13" s="1">
-        <v>1.907642</v>
+        <v>1.9076420000000001</v>
       </c>
       <c r="H13" s="1">
-        <v>1166.430000</v>
+        <v>1166.43</v>
       </c>
       <c r="I13" s="1">
-        <v>-216.450000</v>
+        <v>-216.45</v>
       </c>
       <c r="J13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K13" s="1">
         <v>6877.674919</v>
       </c>
       <c r="L13" s="1">
-        <v>1.910465</v>
+        <v>1.9104650000000001</v>
       </c>
       <c r="M13" s="1">
-        <v>1194.330000</v>
+        <v>1194.33</v>
       </c>
       <c r="N13" s="1">
-        <v>-149.942000</v>
+        <v>-149.94200000000001</v>
       </c>
       <c r="O13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P13" s="1">
-        <v>6887.922265</v>
+        <v>6887.9222650000002</v>
       </c>
       <c r="Q13" s="1">
-        <v>1.913312</v>
+        <v>1.9133119999999999</v>
       </c>
       <c r="R13" s="1">
-        <v>1201.490000</v>
+        <v>1201.49</v>
       </c>
       <c r="S13" s="1">
-        <v>-127.708000</v>
+        <v>-127.708</v>
       </c>
       <c r="T13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U13" s="1">
-        <v>6898.175069</v>
+        <v>6898.1750689999999</v>
       </c>
       <c r="V13" s="1">
-        <v>1.916160</v>
+        <v>1.9161600000000001</v>
       </c>
       <c r="W13" s="1">
-        <v>1208.570000</v>
+        <v>1208.57</v>
       </c>
       <c r="X13" s="1">
-        <v>-106.640000</v>
+        <v>-106.64</v>
       </c>
       <c r="Y13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z13" s="1">
-        <v>6908.355951</v>
+        <v>6908.3559509999995</v>
       </c>
       <c r="AA13" s="1">
-        <v>1.918988</v>
+        <v>1.9189879999999999</v>
       </c>
       <c r="AB13" s="1">
-        <v>1215.870000</v>
+        <v>1215.8699999999999</v>
       </c>
       <c r="AC13" s="1">
-        <v>-89.288500</v>
+        <v>-89.288499999999999</v>
       </c>
       <c r="AD13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE13" s="1">
-        <v>6919.141457</v>
+        <v>6919.1414569999997</v>
       </c>
       <c r="AF13" s="1">
-        <v>1.921984</v>
+        <v>1.9219839999999999</v>
       </c>
       <c r="AG13" s="1">
-        <v>1220.210000</v>
+        <v>1220.21</v>
       </c>
       <c r="AH13" s="1">
-        <v>-84.736400</v>
+        <v>-84.736400000000003</v>
       </c>
       <c r="AI13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ13" s="1">
         <v>6929.624898</v>
       </c>
       <c r="AK13" s="1">
-        <v>1.924896</v>
+        <v>1.9248959999999999</v>
       </c>
       <c r="AL13" s="1">
-        <v>1227.030000</v>
+        <v>1227.03</v>
       </c>
       <c r="AM13" s="1">
-        <v>-87.787200</v>
+        <v>-87.787199999999999</v>
       </c>
       <c r="AN13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO13" s="1">
         <v>6940.379156</v>
@@ -3428,210 +3844,210 @@
         <v>1.927883</v>
       </c>
       <c r="AQ13" s="1">
-        <v>1234.730000</v>
+        <v>1234.73</v>
       </c>
       <c r="AR13" s="1">
-        <v>-99.294200</v>
+        <v>-99.294200000000004</v>
       </c>
       <c r="AS13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT13" s="1">
-        <v>6951.067445</v>
+        <v>6951.0674449999997</v>
       </c>
       <c r="AU13" s="1">
         <v>1.930852</v>
       </c>
       <c r="AV13" s="1">
-        <v>1244.360000</v>
+        <v>1244.3599999999999</v>
       </c>
       <c r="AW13" s="1">
-        <v>-118.136000</v>
+        <v>-118.136</v>
       </c>
       <c r="AX13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY13" s="1">
-        <v>6962.139143</v>
+        <v>6962.1391430000003</v>
       </c>
       <c r="AZ13" s="1">
-        <v>1.933928</v>
+        <v>1.9339280000000001</v>
       </c>
       <c r="BA13" s="1">
-        <v>1252.490000</v>
+        <v>1252.49</v>
       </c>
       <c r="BB13" s="1">
-        <v>-135.203000</v>
+        <v>-135.203</v>
       </c>
       <c r="BC13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD13" s="1">
-        <v>6973.505969</v>
+        <v>6973.5059689999998</v>
       </c>
       <c r="BE13" s="1">
-        <v>1.937085</v>
+        <v>1.9370849999999999</v>
       </c>
       <c r="BF13" s="1">
-        <v>1290.990000</v>
+        <v>1290.99</v>
       </c>
       <c r="BG13" s="1">
-        <v>-215.587000</v>
+        <v>-215.58699999999999</v>
       </c>
       <c r="BH13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI13" s="1">
-        <v>6984.662522</v>
+        <v>6984.6625219999996</v>
       </c>
       <c r="BJ13" s="1">
-        <v>1.940184</v>
+        <v>1.9401839999999999</v>
       </c>
       <c r="BK13" s="1">
-        <v>1357.750000</v>
+        <v>1357.75</v>
       </c>
       <c r="BL13" s="1">
-        <v>-350.552000</v>
+        <v>-350.55200000000002</v>
       </c>
       <c r="BM13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN13" s="1">
         <v>6995.703426</v>
       </c>
       <c r="BO13" s="1">
-        <v>1.943251</v>
+        <v>1.9432510000000001</v>
       </c>
       <c r="BP13" s="1">
-        <v>1467.820000</v>
+        <v>1467.82</v>
       </c>
       <c r="BQ13" s="1">
-        <v>-572.087000</v>
+        <v>-572.08699999999999</v>
       </c>
       <c r="BR13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS13" s="1">
-        <v>7006.460486</v>
+        <v>7006.4604859999999</v>
       </c>
       <c r="BT13" s="1">
-        <v>1.946239</v>
+        <v>1.9462390000000001</v>
       </c>
       <c r="BU13" s="1">
-        <v>1595.170000</v>
+        <v>1595.17</v>
       </c>
       <c r="BV13" s="1">
-        <v>-823.619000</v>
+        <v>-823.61900000000003</v>
       </c>
       <c r="BW13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX13" s="1">
-        <v>7018.023912</v>
+        <v>7018.0239119999997</v>
       </c>
       <c r="BY13" s="1">
         <v>1.949451</v>
       </c>
       <c r="BZ13" s="1">
-        <v>1743.910000</v>
+        <v>1743.91</v>
       </c>
       <c r="CA13" s="1">
-        <v>-1098.630000</v>
+        <v>-1098.6300000000001</v>
       </c>
       <c r="CB13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC13" s="1">
-        <v>7030.096051</v>
+        <v>7030.0960510000004</v>
       </c>
       <c r="CD13" s="1">
         <v>1.952804</v>
       </c>
       <c r="CE13" s="1">
-        <v>2155.910000</v>
+        <v>2155.91</v>
       </c>
       <c r="CF13" s="1">
-        <v>-1771.050000</v>
+        <v>-1771.05</v>
       </c>
       <c r="CG13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:85">
       <c r="A14" s="1">
-        <v>6857.797249</v>
+        <v>6857.7972490000002</v>
       </c>
       <c r="B14" s="1">
         <v>1.904944</v>
       </c>
       <c r="C14" s="1">
-        <v>1144.780000</v>
+        <v>1144.78</v>
       </c>
       <c r="D14" s="1">
-        <v>-258.167000</v>
+        <v>-258.16699999999997</v>
       </c>
       <c r="E14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F14" s="1">
-        <v>6867.858110</v>
+        <v>6867.8581100000001</v>
       </c>
       <c r="G14" s="1">
-        <v>1.907738</v>
+        <v>1.9077379999999999</v>
       </c>
       <c r="H14" s="1">
-        <v>1166.960000</v>
+        <v>1166.96</v>
       </c>
       <c r="I14" s="1">
-        <v>-217.027000</v>
+        <v>-217.02699999999999</v>
       </c>
       <c r="J14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K14" s="1">
-        <v>6878.017654</v>
+        <v>6878.0176540000002</v>
       </c>
       <c r="L14" s="1">
-        <v>1.910560</v>
+        <v>1.91056</v>
       </c>
       <c r="M14" s="1">
-        <v>1193.820000</v>
+        <v>1193.82</v>
       </c>
       <c r="N14" s="1">
-        <v>-149.988000</v>
+        <v>-149.988</v>
       </c>
       <c r="O14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>6888.329513</v>
+        <v>6888.3295129999997</v>
       </c>
       <c r="Q14" s="1">
-        <v>1.913425</v>
+        <v>1.9134249999999999</v>
       </c>
       <c r="R14" s="1">
-        <v>1201.490000</v>
+        <v>1201.49</v>
       </c>
       <c r="S14" s="1">
-        <v>-127.726000</v>
+        <v>-127.726</v>
       </c>
       <c r="T14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U14" s="1">
-        <v>6898.455307</v>
+        <v>6898.4553070000002</v>
       </c>
       <c r="V14" s="1">
-        <v>1.916238</v>
+        <v>1.9162380000000001</v>
       </c>
       <c r="W14" s="1">
-        <v>1208.580000</v>
+        <v>1208.58</v>
       </c>
       <c r="X14" s="1">
-        <v>-106.594000</v>
+        <v>-106.59399999999999</v>
       </c>
       <c r="Y14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z14" s="1">
         <v>6908.646111</v>
@@ -3640,405 +4056,405 @@
         <v>1.919068</v>
       </c>
       <c r="AB14" s="1">
-        <v>1215.560000</v>
+        <v>1215.56</v>
       </c>
       <c r="AC14" s="1">
-        <v>-89.479800</v>
+        <v>-89.479799999999997</v>
       </c>
       <c r="AD14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE14" s="1">
-        <v>6919.488193</v>
+        <v>6919.4881930000001</v>
       </c>
       <c r="AF14" s="1">
-        <v>1.922080</v>
+        <v>1.92208</v>
       </c>
       <c r="AG14" s="1">
-        <v>1220.220000</v>
+        <v>1220.22</v>
       </c>
       <c r="AH14" s="1">
-        <v>-84.732800</v>
+        <v>-84.732799999999997</v>
       </c>
       <c r="AI14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ14" s="1">
-        <v>6929.975073</v>
+        <v>6929.9750729999996</v>
       </c>
       <c r="AK14" s="1">
         <v>1.924993</v>
       </c>
       <c r="AL14" s="1">
-        <v>1227.050000</v>
+        <v>1227.05</v>
       </c>
       <c r="AM14" s="1">
-        <v>-87.776500</v>
+        <v>-87.776499999999999</v>
       </c>
       <c r="AN14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO14" s="1">
-        <v>6940.737801</v>
+        <v>6940.7378010000002</v>
       </c>
       <c r="AP14" s="1">
         <v>1.927983</v>
       </c>
       <c r="AQ14" s="1">
-        <v>1234.740000</v>
+        <v>1234.74</v>
       </c>
       <c r="AR14" s="1">
-        <v>-99.319600</v>
+        <v>-99.319599999999994</v>
       </c>
       <c r="AS14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT14" s="1">
-        <v>6951.794582</v>
+        <v>6951.7945820000004</v>
       </c>
       <c r="AU14" s="1">
         <v>1.931054</v>
       </c>
       <c r="AV14" s="1">
-        <v>1244.360000</v>
+        <v>1244.3599999999999</v>
       </c>
       <c r="AW14" s="1">
-        <v>-118.124000</v>
+        <v>-118.124</v>
       </c>
       <c r="AX14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY14" s="1">
-        <v>6962.864790</v>
+        <v>6962.8647899999996</v>
       </c>
       <c r="AZ14" s="1">
         <v>1.934129</v>
       </c>
       <c r="BA14" s="1">
-        <v>1252.500000</v>
+        <v>1252.5</v>
       </c>
       <c r="BB14" s="1">
-        <v>-135.181000</v>
+        <v>-135.18100000000001</v>
       </c>
       <c r="BC14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD14" s="1">
-        <v>6973.891847</v>
+        <v>6973.8918469999999</v>
       </c>
       <c r="BE14" s="1">
         <v>1.937192</v>
       </c>
       <c r="BF14" s="1">
-        <v>1290.950000</v>
+        <v>1290.95</v>
       </c>
       <c r="BG14" s="1">
-        <v>-215.624000</v>
+        <v>-215.624</v>
       </c>
       <c r="BH14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI14" s="1">
-        <v>6985.038477</v>
+        <v>6985.0384770000001</v>
       </c>
       <c r="BJ14" s="1">
         <v>1.940288</v>
       </c>
       <c r="BK14" s="1">
-        <v>1357.720000</v>
+        <v>1357.72</v>
       </c>
       <c r="BL14" s="1">
-        <v>-350.545000</v>
+        <v>-350.54500000000002</v>
       </c>
       <c r="BM14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN14" s="1">
-        <v>6996.127004</v>
+        <v>6996.1270039999999</v>
       </c>
       <c r="BO14" s="1">
-        <v>1.943369</v>
+        <v>1.9433689999999999</v>
       </c>
       <c r="BP14" s="1">
-        <v>1467.820000</v>
+        <v>1467.82</v>
       </c>
       <c r="BQ14" s="1">
-        <v>-572.101000</v>
+        <v>-572.101</v>
       </c>
       <c r="BR14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS14" s="1">
         <v>7007.193252</v>
       </c>
       <c r="BT14" s="1">
-        <v>1.946443</v>
+        <v>1.9464429999999999</v>
       </c>
       <c r="BU14" s="1">
-        <v>1595.310000</v>
+        <v>1595.31</v>
       </c>
       <c r="BV14" s="1">
-        <v>-823.531000</v>
+        <v>-823.53099999999995</v>
       </c>
       <c r="BW14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX14" s="1">
-        <v>7018.173705</v>
+        <v>7018.1737050000002</v>
       </c>
       <c r="BY14" s="1">
-        <v>1.949493</v>
+        <v>1.9494929999999999</v>
       </c>
       <c r="BZ14" s="1">
-        <v>1743.980000</v>
+        <v>1743.98</v>
       </c>
       <c r="CA14" s="1">
-        <v>-1098.680000</v>
+        <v>-1098.68</v>
       </c>
       <c r="CB14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC14" s="1">
-        <v>7030.340082</v>
+        <v>7030.3400819999997</v>
       </c>
       <c r="CD14" s="1">
-        <v>1.952872</v>
+        <v>1.9528719999999999</v>
       </c>
       <c r="CE14" s="1">
-        <v>2155.510000</v>
+        <v>2155.5100000000002</v>
       </c>
       <c r="CF14" s="1">
-        <v>-1771.440000</v>
+        <v>-1771.44</v>
       </c>
       <c r="CG14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:85">
       <c r="A15" s="1">
-        <v>6858.141968</v>
+        <v>6858.1419679999999</v>
       </c>
       <c r="B15" s="1">
-        <v>1.905039</v>
+        <v>1.9050389999999999</v>
       </c>
       <c r="C15" s="1">
-        <v>1144.890000</v>
+        <v>1144.8900000000001</v>
       </c>
       <c r="D15" s="1">
-        <v>-258.740000</v>
+        <v>-258.74</v>
       </c>
       <c r="E15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F15" s="1">
-        <v>6868.257875</v>
+        <v>6868.2578750000002</v>
       </c>
       <c r="G15" s="1">
-        <v>1.907849</v>
+        <v>1.9078489999999999</v>
       </c>
       <c r="H15" s="1">
-        <v>1165.820000</v>
+        <v>1165.82</v>
       </c>
       <c r="I15" s="1">
-        <v>-216.757000</v>
+        <v>-216.75700000000001</v>
       </c>
       <c r="J15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K15" s="1">
-        <v>6878.486871</v>
+        <v>6878.4868710000001</v>
       </c>
       <c r="L15" s="1">
-        <v>1.910691</v>
+        <v>1.9106909999999999</v>
       </c>
       <c r="M15" s="1">
-        <v>1193.750000</v>
+        <v>1193.75</v>
       </c>
       <c r="N15" s="1">
-        <v>-150.197000</v>
+        <v>-150.197</v>
       </c>
       <c r="O15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P15" s="1">
-        <v>6888.629064</v>
+        <v>6888.6290639999997</v>
       </c>
       <c r="Q15" s="1">
         <v>1.913508</v>
       </c>
       <c r="R15" s="1">
-        <v>1201.470000</v>
+        <v>1201.47</v>
       </c>
       <c r="S15" s="1">
-        <v>-127.689000</v>
+        <v>-127.68899999999999</v>
       </c>
       <c r="T15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U15" s="1">
-        <v>6898.798043</v>
+        <v>6898.7980429999998</v>
       </c>
       <c r="V15" s="1">
-        <v>1.916333</v>
+        <v>1.9163330000000001</v>
       </c>
       <c r="W15" s="1">
-        <v>1208.560000</v>
+        <v>1208.56</v>
       </c>
       <c r="X15" s="1">
-        <v>-106.597000</v>
+        <v>-106.59699999999999</v>
       </c>
       <c r="Y15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z15" s="1">
         <v>6908.997308</v>
       </c>
       <c r="AA15" s="1">
-        <v>1.919166</v>
+        <v>1.9191659999999999</v>
       </c>
       <c r="AB15" s="1">
-        <v>1215.780000</v>
+        <v>1215.78</v>
       </c>
       <c r="AC15" s="1">
-        <v>-89.305100</v>
+        <v>-89.305099999999996</v>
       </c>
       <c r="AD15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE15" s="1">
-        <v>6919.831423</v>
+        <v>6919.8314229999996</v>
       </c>
       <c r="AF15" s="1">
         <v>1.922175</v>
       </c>
       <c r="AG15" s="1">
-        <v>1220.220000</v>
+        <v>1220.22</v>
       </c>
       <c r="AH15" s="1">
-        <v>-84.729200</v>
+        <v>-84.729200000000006</v>
       </c>
       <c r="AI15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ15" s="1">
-        <v>6930.670994</v>
+        <v>6930.6709940000001</v>
       </c>
       <c r="AK15" s="1">
-        <v>1.925186</v>
+        <v>1.9251860000000001</v>
       </c>
       <c r="AL15" s="1">
-        <v>1227.050000</v>
+        <v>1227.05</v>
       </c>
       <c r="AM15" s="1">
-        <v>-87.785300</v>
+        <v>-87.785300000000007</v>
       </c>
       <c r="AN15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO15" s="1">
-        <v>6941.458978</v>
+        <v>6941.4589779999997</v>
       </c>
       <c r="AP15" s="1">
         <v>1.928183</v>
       </c>
       <c r="AQ15" s="1">
-        <v>1234.710000</v>
+        <v>1234.71</v>
       </c>
       <c r="AR15" s="1">
-        <v>-99.293600</v>
+        <v>-99.293599999999998</v>
       </c>
       <c r="AS15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT15" s="1">
-        <v>6952.187412</v>
+        <v>6952.1874120000002</v>
       </c>
       <c r="AU15" s="1">
         <v>1.931163</v>
       </c>
       <c r="AV15" s="1">
-        <v>1244.350000</v>
+        <v>1244.3499999999999</v>
       </c>
       <c r="AW15" s="1">
-        <v>-118.115000</v>
+        <v>-118.11499999999999</v>
       </c>
       <c r="AX15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY15" s="1">
-        <v>6963.239765</v>
+        <v>6963.2397650000003</v>
       </c>
       <c r="AZ15" s="1">
-        <v>1.934233</v>
+        <v>1.9342330000000001</v>
       </c>
       <c r="BA15" s="1">
-        <v>1252.490000</v>
+        <v>1252.49</v>
       </c>
       <c r="BB15" s="1">
-        <v>-135.190000</v>
+        <v>-135.19</v>
       </c>
       <c r="BC15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD15" s="1">
-        <v>6974.253965</v>
+        <v>6974.2539649999999</v>
       </c>
       <c r="BE15" s="1">
-        <v>1.937293</v>
+        <v>1.9372929999999999</v>
       </c>
       <c r="BF15" s="1">
-        <v>1291.000000</v>
+        <v>1291</v>
       </c>
       <c r="BG15" s="1">
-        <v>-215.618000</v>
+        <v>-215.61799999999999</v>
       </c>
       <c r="BH15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI15" s="1">
-        <v>6985.756152</v>
+        <v>6985.7561519999999</v>
       </c>
       <c r="BJ15" s="1">
         <v>1.940488</v>
       </c>
       <c r="BK15" s="1">
-        <v>1357.770000</v>
+        <v>1357.77</v>
       </c>
       <c r="BL15" s="1">
-        <v>-350.506000</v>
+        <v>-350.50599999999997</v>
       </c>
       <c r="BM15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN15" s="1">
-        <v>6996.821897</v>
+        <v>6996.8218969999998</v>
       </c>
       <c r="BO15" s="1">
         <v>1.943562</v>
       </c>
       <c r="BP15" s="1">
-        <v>1467.820000</v>
+        <v>1467.82</v>
       </c>
       <c r="BQ15" s="1">
-        <v>-572.073000</v>
+        <v>-572.07299999999998</v>
       </c>
       <c r="BR15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS15" s="1">
-        <v>7007.319756</v>
+        <v>7007.3197559999999</v>
       </c>
       <c r="BT15" s="1">
-        <v>1.946478</v>
+        <v>1.9464779999999999</v>
       </c>
       <c r="BU15" s="1">
-        <v>1595.290000</v>
+        <v>1595.29</v>
       </c>
       <c r="BV15" s="1">
-        <v>-823.411000</v>
+        <v>-823.41099999999994</v>
       </c>
       <c r="BW15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX15" s="1">
         <v>7018.599741</v>
@@ -4047,195 +4463,195 @@
         <v>1.949611</v>
       </c>
       <c r="BZ15" s="1">
-        <v>1743.900000</v>
+        <v>1743.9</v>
       </c>
       <c r="CA15" s="1">
-        <v>-1098.750000</v>
+        <v>-1098.75</v>
       </c>
       <c r="CB15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC15" s="1">
-        <v>7030.862332</v>
+        <v>7030.8623319999997</v>
       </c>
       <c r="CD15" s="1">
         <v>1.953017</v>
       </c>
       <c r="CE15" s="1">
-        <v>2156.900000</v>
+        <v>2156.9</v>
       </c>
       <c r="CF15" s="1">
-        <v>-1769.640000</v>
+        <v>-1769.64</v>
       </c>
       <c r="CG15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:85">
       <c r="A16" s="1">
-        <v>6858.559132</v>
+        <v>6858.5591320000003</v>
       </c>
       <c r="B16" s="1">
-        <v>1.905155</v>
+        <v>1.9051549999999999</v>
       </c>
       <c r="C16" s="1">
-        <v>1144.980000</v>
+        <v>1144.98</v>
       </c>
       <c r="D16" s="1">
-        <v>-258.243000</v>
+        <v>-258.24299999999999</v>
       </c>
       <c r="E16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F16" s="1">
-        <v>6868.555475</v>
+        <v>6868.5554750000001</v>
       </c>
       <c r="G16" s="1">
         <v>1.907932</v>
       </c>
       <c r="H16" s="1">
-        <v>1166.410000</v>
+        <v>1166.4100000000001</v>
       </c>
       <c r="I16" s="1">
-        <v>-216.251000</v>
+        <v>-216.251</v>
       </c>
       <c r="J16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K16" s="1">
-        <v>6878.763141</v>
+        <v>6878.7631410000004</v>
       </c>
       <c r="L16" s="1">
         <v>1.910768</v>
       </c>
       <c r="M16" s="1">
-        <v>1193.850000</v>
+        <v>1193.8499999999999</v>
       </c>
       <c r="N16" s="1">
-        <v>-150.065000</v>
+        <v>-150.065</v>
       </c>
       <c r="O16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P16" s="1">
-        <v>6888.976759</v>
+        <v>6888.9767590000001</v>
       </c>
       <c r="Q16" s="1">
         <v>1.913605</v>
       </c>
       <c r="R16" s="1">
-        <v>1201.460000</v>
+        <v>1201.46</v>
       </c>
       <c r="S16" s="1">
-        <v>-127.661000</v>
+        <v>-127.661</v>
       </c>
       <c r="T16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U16" s="1">
-        <v>6899.142762</v>
+        <v>6899.1427620000004</v>
       </c>
       <c r="V16" s="1">
-        <v>1.916429</v>
+        <v>1.9164289999999999</v>
       </c>
       <c r="W16" s="1">
-        <v>1208.590000</v>
+        <v>1208.5899999999999</v>
       </c>
       <c r="X16" s="1">
-        <v>-106.672000</v>
+        <v>-106.672</v>
       </c>
       <c r="Y16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z16" s="1">
-        <v>6909.344973</v>
+        <v>6909.3449730000002</v>
       </c>
       <c r="AA16" s="1">
         <v>1.919262</v>
       </c>
       <c r="AB16" s="1">
-        <v>1215.770000</v>
+        <v>1215.77</v>
       </c>
       <c r="AC16" s="1">
-        <v>-89.418700</v>
+        <v>-89.418700000000001</v>
       </c>
       <c r="AD16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE16" s="1">
-        <v>6920.516397</v>
+        <v>6920.5163970000003</v>
       </c>
       <c r="AF16" s="1">
         <v>1.922366</v>
       </c>
       <c r="AG16" s="1">
-        <v>1220.250000</v>
+        <v>1220.25</v>
       </c>
       <c r="AH16" s="1">
-        <v>-84.753500</v>
+        <v>-84.753500000000003</v>
       </c>
       <c r="AI16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ16" s="1">
-        <v>6931.021167</v>
+        <v>6931.0211669999999</v>
       </c>
       <c r="AK16" s="1">
         <v>1.925284</v>
       </c>
       <c r="AL16" s="1">
-        <v>1227.050000</v>
+        <v>1227.05</v>
       </c>
       <c r="AM16" s="1">
-        <v>-87.760200</v>
+        <v>-87.760199999999998</v>
       </c>
       <c r="AN16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO16" s="1">
-        <v>6941.819073</v>
+        <v>6941.8190729999997</v>
       </c>
       <c r="AP16" s="1">
         <v>1.928283</v>
       </c>
       <c r="AQ16" s="1">
-        <v>1234.730000</v>
+        <v>1234.73</v>
       </c>
       <c r="AR16" s="1">
-        <v>-99.260400</v>
+        <v>-99.260400000000004</v>
       </c>
       <c r="AS16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT16" s="1">
-        <v>6952.552965</v>
+        <v>6952.5529649999999</v>
       </c>
       <c r="AU16" s="1">
         <v>1.931265</v>
       </c>
       <c r="AV16" s="1">
-        <v>1244.340000</v>
+        <v>1244.3399999999999</v>
       </c>
       <c r="AW16" s="1">
-        <v>-118.123000</v>
+        <v>-118.123</v>
       </c>
       <c r="AX16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY16" s="1">
-        <v>6963.629622</v>
+        <v>6963.6296220000004</v>
       </c>
       <c r="AZ16" s="1">
         <v>1.934342</v>
       </c>
       <c r="BA16" s="1">
-        <v>1252.490000</v>
+        <v>1252.49</v>
       </c>
       <c r="BB16" s="1">
-        <v>-135.193000</v>
+        <v>-135.19300000000001</v>
       </c>
       <c r="BC16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD16" s="1">
         <v>6974.915094</v>
@@ -4244,1119 +4660,1119 @@
         <v>1.937476</v>
       </c>
       <c r="BF16" s="1">
-        <v>1290.950000</v>
+        <v>1290.95</v>
       </c>
       <c r="BG16" s="1">
-        <v>-215.588000</v>
+        <v>-215.58799999999999</v>
       </c>
       <c r="BH16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI16" s="1">
-        <v>6986.189161</v>
+        <v>6986.1891610000002</v>
       </c>
       <c r="BJ16" s="1">
-        <v>1.940608</v>
+        <v>1.9406080000000001</v>
       </c>
       <c r="BK16" s="1">
-        <v>1357.760000</v>
+        <v>1357.76</v>
       </c>
       <c r="BL16" s="1">
-        <v>-350.530000</v>
+        <v>-350.53</v>
       </c>
       <c r="BM16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN16" s="1">
-        <v>6996.944905</v>
+        <v>6996.9449050000003</v>
       </c>
       <c r="BO16" s="1">
-        <v>1.943596</v>
+        <v>1.9435960000000001</v>
       </c>
       <c r="BP16" s="1">
-        <v>1467.810000</v>
+        <v>1467.81</v>
       </c>
       <c r="BQ16" s="1">
-        <v>-572.062000</v>
+        <v>-572.06200000000001</v>
       </c>
       <c r="BR16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS16" s="1">
-        <v>7007.729947</v>
+        <v>7007.7299469999998</v>
       </c>
       <c r="BT16" s="1">
-        <v>1.946592</v>
+        <v>1.9465920000000001</v>
       </c>
       <c r="BU16" s="1">
-        <v>1595.400000</v>
+        <v>1595.4</v>
       </c>
       <c r="BV16" s="1">
-        <v>-823.285000</v>
+        <v>-823.28499999999997</v>
       </c>
       <c r="BW16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX16" s="1">
-        <v>7019.047659</v>
+        <v>7019.0476589999998</v>
       </c>
       <c r="BY16" s="1">
         <v>1.949735</v>
       </c>
       <c r="BZ16" s="1">
-        <v>1743.860000</v>
+        <v>1743.86</v>
       </c>
       <c r="CA16" s="1">
-        <v>-1098.870000</v>
+        <v>-1098.8699999999999</v>
       </c>
       <c r="CB16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC16" s="1">
-        <v>7031.377180</v>
+        <v>7031.3771800000004</v>
       </c>
       <c r="CD16" s="1">
-        <v>1.953160</v>
+        <v>1.95316</v>
       </c>
       <c r="CE16" s="1">
-        <v>2156.910000</v>
+        <v>2156.91</v>
       </c>
       <c r="CF16" s="1">
-        <v>-1770.360000</v>
+        <v>-1770.36</v>
       </c>
       <c r="CG16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:85">
       <c r="A17" s="1">
-        <v>6858.840335</v>
+        <v>6858.8403349999999</v>
       </c>
       <c r="B17" s="1">
         <v>1.905233</v>
       </c>
       <c r="C17" s="1">
-        <v>1144.830000</v>
+        <v>1144.83</v>
       </c>
       <c r="D17" s="1">
-        <v>-258.550000</v>
+        <v>-258.55</v>
       </c>
       <c r="E17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F17" s="1">
-        <v>6868.897750</v>
+        <v>6868.8977500000001</v>
       </c>
       <c r="G17" s="1">
-        <v>1.908027</v>
+        <v>1.9080269999999999</v>
       </c>
       <c r="H17" s="1">
-        <v>1166.400000</v>
+        <v>1166.4000000000001</v>
       </c>
       <c r="I17" s="1">
-        <v>-216.919000</v>
+        <v>-216.91900000000001</v>
       </c>
       <c r="J17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K17" s="1">
-        <v>6879.097445</v>
+        <v>6879.0974450000003</v>
       </c>
       <c r="L17" s="1">
-        <v>1.910860</v>
+        <v>1.91086</v>
       </c>
       <c r="M17" s="1">
-        <v>1193.720000</v>
+        <v>1193.72</v>
       </c>
       <c r="N17" s="1">
-        <v>-149.885000</v>
+        <v>-149.88499999999999</v>
       </c>
       <c r="O17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P17" s="1">
-        <v>6889.326936</v>
+        <v>6889.3269360000004</v>
       </c>
       <c r="Q17" s="1">
         <v>1.913702</v>
       </c>
       <c r="R17" s="1">
-        <v>1201.470000</v>
+        <v>1201.47</v>
       </c>
       <c r="S17" s="1">
-        <v>-127.645000</v>
+        <v>-127.645</v>
       </c>
       <c r="T17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U17" s="1">
-        <v>6899.830250</v>
+        <v>6899.83025</v>
       </c>
       <c r="V17" s="1">
-        <v>1.916620</v>
+        <v>1.91662</v>
       </c>
       <c r="W17" s="1">
-        <v>1208.540000</v>
+        <v>1208.54</v>
       </c>
       <c r="X17" s="1">
-        <v>-106.689000</v>
+        <v>-106.68899999999999</v>
       </c>
       <c r="Y17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z17" s="1">
-        <v>6910.039868</v>
+        <v>6910.0398679999998</v>
       </c>
       <c r="AA17" s="1">
-        <v>1.919456</v>
+        <v>1.9194560000000001</v>
       </c>
       <c r="AB17" s="1">
-        <v>1215.750000</v>
+        <v>1215.75</v>
       </c>
       <c r="AC17" s="1">
-        <v>-89.596000</v>
+        <v>-89.596000000000004</v>
       </c>
       <c r="AD17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE17" s="1">
-        <v>6920.861581</v>
+        <v>6920.8615810000001</v>
       </c>
       <c r="AF17" s="1">
-        <v>1.922462</v>
+        <v>1.9224619999999999</v>
       </c>
       <c r="AG17" s="1">
-        <v>1220.230000</v>
+        <v>1220.23</v>
       </c>
       <c r="AH17" s="1">
-        <v>-84.739800</v>
+        <v>-84.739800000000002</v>
       </c>
       <c r="AI17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ17" s="1">
-        <v>6931.371840</v>
+        <v>6931.3718399999998</v>
       </c>
       <c r="AK17" s="1">
         <v>1.925381</v>
       </c>
       <c r="AL17" s="1">
-        <v>1227.070000</v>
+        <v>1227.07</v>
       </c>
       <c r="AM17" s="1">
-        <v>-87.776500</v>
+        <v>-87.776499999999999</v>
       </c>
       <c r="AN17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO17" s="1">
-        <v>6942.180130</v>
+        <v>6942.1801299999997</v>
       </c>
       <c r="AP17" s="1">
         <v>1.928383</v>
       </c>
       <c r="AQ17" s="1">
-        <v>1234.720000</v>
+        <v>1234.72</v>
       </c>
       <c r="AR17" s="1">
-        <v>-99.312900</v>
+        <v>-99.312899999999999</v>
       </c>
       <c r="AS17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT17" s="1">
-        <v>6953.223059</v>
+        <v>6953.2230589999999</v>
       </c>
       <c r="AU17" s="1">
         <v>1.931451</v>
       </c>
       <c r="AV17" s="1">
-        <v>1244.350000</v>
+        <v>1244.3499999999999</v>
       </c>
       <c r="AW17" s="1">
-        <v>-118.142000</v>
+        <v>-118.142</v>
       </c>
       <c r="AX17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY17" s="1">
-        <v>6964.342905</v>
+        <v>6964.3429050000004</v>
       </c>
       <c r="AZ17" s="1">
-        <v>1.934540</v>
+        <v>1.9345399999999999</v>
       </c>
       <c r="BA17" s="1">
-        <v>1252.500000</v>
+        <v>1252.5</v>
       </c>
       <c r="BB17" s="1">
-        <v>-135.212000</v>
+        <v>-135.21199999999999</v>
       </c>
       <c r="BC17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD17" s="1">
-        <v>6975.372915</v>
+        <v>6975.3729149999999</v>
       </c>
       <c r="BE17" s="1">
-        <v>1.937604</v>
+        <v>1.9376040000000001</v>
       </c>
       <c r="BF17" s="1">
-        <v>1290.950000</v>
+        <v>1290.95</v>
       </c>
       <c r="BG17" s="1">
-        <v>-215.607000</v>
+        <v>-215.607</v>
       </c>
       <c r="BH17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI17" s="1">
-        <v>6986.594428</v>
+        <v>6986.5944280000003</v>
       </c>
       <c r="BJ17" s="1">
-        <v>1.940721</v>
+        <v>1.9407209999999999</v>
       </c>
       <c r="BK17" s="1">
-        <v>1357.770000</v>
+        <v>1357.77</v>
       </c>
       <c r="BL17" s="1">
-        <v>-350.564000</v>
+        <v>-350.56400000000002</v>
       </c>
       <c r="BM17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN17" s="1">
-        <v>6997.366009</v>
+        <v>6997.3660090000003</v>
       </c>
       <c r="BO17" s="1">
         <v>1.943713</v>
       </c>
       <c r="BP17" s="1">
-        <v>1467.780000</v>
+        <v>1467.78</v>
       </c>
       <c r="BQ17" s="1">
-        <v>-572.095000</v>
+        <v>-572.09500000000003</v>
       </c>
       <c r="BR17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS17" s="1">
-        <v>7008.162427</v>
+        <v>7008.1624270000002</v>
       </c>
       <c r="BT17" s="1">
         <v>1.946712</v>
       </c>
       <c r="BU17" s="1">
-        <v>1595.550000</v>
+        <v>1595.55</v>
       </c>
       <c r="BV17" s="1">
-        <v>-823.287000</v>
+        <v>-823.28700000000003</v>
       </c>
       <c r="BW17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX17" s="1">
-        <v>7019.476047</v>
+        <v>7019.4760470000001</v>
       </c>
       <c r="BY17" s="1">
         <v>1.949854</v>
       </c>
       <c r="BZ17" s="1">
-        <v>1743.910000</v>
+        <v>1743.91</v>
       </c>
       <c r="CA17" s="1">
-        <v>-1098.850000</v>
+        <v>-1098.8499999999999</v>
       </c>
       <c r="CB17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC17" s="1">
-        <v>7031.929259</v>
+        <v>7031.9292589999995</v>
       </c>
       <c r="CD17" s="1">
         <v>1.953314</v>
       </c>
       <c r="CE17" s="1">
-        <v>2155.070000</v>
+        <v>2155.0700000000002</v>
       </c>
       <c r="CF17" s="1">
-        <v>-1770.960000</v>
+        <v>-1770.96</v>
       </c>
       <c r="CG17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:85">
       <c r="A18" s="1">
-        <v>6859.178634</v>
+        <v>6859.1786339999999</v>
       </c>
       <c r="B18" s="1">
         <v>1.905327</v>
       </c>
       <c r="C18" s="1">
-        <v>1144.930000</v>
+        <v>1144.93</v>
       </c>
       <c r="D18" s="1">
-        <v>-258.462000</v>
+        <v>-258.46199999999999</v>
       </c>
       <c r="E18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F18" s="1">
-        <v>6869.242434</v>
+        <v>6869.2424339999998</v>
       </c>
       <c r="G18" s="1">
         <v>1.908123</v>
       </c>
       <c r="H18" s="1">
-        <v>1166.640000</v>
+        <v>1166.6400000000001</v>
       </c>
       <c r="I18" s="1">
-        <v>-216.311000</v>
+        <v>-216.31100000000001</v>
       </c>
       <c r="J18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K18" s="1">
         <v>6879.790387</v>
       </c>
       <c r="L18" s="1">
-        <v>1.911053</v>
+        <v>1.9110529999999999</v>
       </c>
       <c r="M18" s="1">
-        <v>1193.810000</v>
+        <v>1193.81</v>
       </c>
       <c r="N18" s="1">
-        <v>-150.001000</v>
+        <v>-150.001</v>
       </c>
       <c r="O18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P18" s="1">
-        <v>6890.022822</v>
+        <v>6890.0228219999999</v>
       </c>
       <c r="Q18" s="1">
-        <v>1.913895</v>
+        <v>1.9138949999999999</v>
       </c>
       <c r="R18" s="1">
-        <v>1201.540000</v>
+        <v>1201.54</v>
       </c>
       <c r="S18" s="1">
-        <v>-127.681000</v>
+        <v>-127.681</v>
       </c>
       <c r="T18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U18" s="1">
-        <v>6900.174937</v>
+        <v>6900.1749369999998</v>
       </c>
       <c r="V18" s="1">
-        <v>1.916715</v>
+        <v>1.9167149999999999</v>
       </c>
       <c r="W18" s="1">
-        <v>1208.490000</v>
+        <v>1208.49</v>
       </c>
       <c r="X18" s="1">
-        <v>-106.615000</v>
+        <v>-106.61499999999999</v>
       </c>
       <c r="Y18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z18" s="1">
-        <v>6910.391067</v>
+        <v>6910.3910669999996</v>
       </c>
       <c r="AA18" s="1">
-        <v>1.919553</v>
+        <v>1.9195530000000001</v>
       </c>
       <c r="AB18" s="1">
-        <v>1215.770000</v>
+        <v>1215.77</v>
       </c>
       <c r="AC18" s="1">
-        <v>-89.261300</v>
+        <v>-89.261300000000006</v>
       </c>
       <c r="AD18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE18" s="1">
-        <v>6921.205310</v>
+        <v>6921.2053100000003</v>
       </c>
       <c r="AF18" s="1">
-        <v>1.922557</v>
+        <v>1.9225570000000001</v>
       </c>
       <c r="AG18" s="1">
-        <v>1220.230000</v>
+        <v>1220.23</v>
       </c>
       <c r="AH18" s="1">
-        <v>-84.752400</v>
+        <v>-84.752399999999994</v>
       </c>
       <c r="AI18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ18" s="1">
-        <v>6932.021071</v>
+        <v>6932.0210710000001</v>
       </c>
       <c r="AK18" s="1">
-        <v>1.925561</v>
+        <v>1.9255610000000001</v>
       </c>
       <c r="AL18" s="1">
-        <v>1227.050000</v>
+        <v>1227.05</v>
       </c>
       <c r="AM18" s="1">
-        <v>-87.767100</v>
+        <v>-87.767099999999999</v>
       </c>
       <c r="AN18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO18" s="1">
-        <v>6942.840801</v>
+        <v>6942.8408010000003</v>
       </c>
       <c r="AP18" s="1">
-        <v>1.928567</v>
+        <v>1.9285669999999999</v>
       </c>
       <c r="AQ18" s="1">
-        <v>1234.720000</v>
+        <v>1234.72</v>
       </c>
       <c r="AR18" s="1">
-        <v>-99.309300</v>
+        <v>-99.309299999999993</v>
       </c>
       <c r="AS18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT18" s="1">
-        <v>6953.679378</v>
+        <v>6953.6793779999998</v>
       </c>
       <c r="AU18" s="1">
         <v>1.931578</v>
       </c>
       <c r="AV18" s="1">
-        <v>1244.370000</v>
+        <v>1244.3699999999999</v>
       </c>
       <c r="AW18" s="1">
-        <v>-118.117000</v>
+        <v>-118.117</v>
       </c>
       <c r="AX18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY18" s="1">
-        <v>6964.705445</v>
+        <v>6964.7054449999996</v>
       </c>
       <c r="AZ18" s="1">
-        <v>1.934640</v>
+        <v>1.9346399999999999</v>
       </c>
       <c r="BA18" s="1">
-        <v>1252.500000</v>
+        <v>1252.5</v>
       </c>
       <c r="BB18" s="1">
-        <v>-135.208000</v>
+        <v>-135.208</v>
       </c>
       <c r="BC18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD18" s="1">
-        <v>6975.732501</v>
+        <v>6975.7325010000004</v>
       </c>
       <c r="BE18" s="1">
         <v>1.937703</v>
       </c>
       <c r="BF18" s="1">
-        <v>1290.960000</v>
+        <v>1290.96</v>
       </c>
       <c r="BG18" s="1">
-        <v>-215.567000</v>
+        <v>-215.56700000000001</v>
       </c>
       <c r="BH18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI18" s="1">
-        <v>6986.967878</v>
+        <v>6986.9678780000004</v>
       </c>
       <c r="BJ18" s="1">
-        <v>1.940824</v>
+        <v>1.9408240000000001</v>
       </c>
       <c r="BK18" s="1">
-        <v>1357.740000</v>
+        <v>1357.74</v>
       </c>
       <c r="BL18" s="1">
-        <v>-350.534000</v>
+        <v>-350.53399999999999</v>
       </c>
       <c r="BM18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN18" s="1">
-        <v>6997.763304</v>
+        <v>6997.7633040000001</v>
       </c>
       <c r="BO18" s="1">
-        <v>1.943823</v>
+        <v>1.9438230000000001</v>
       </c>
       <c r="BP18" s="1">
-        <v>1467.800000</v>
+        <v>1467.8</v>
       </c>
       <c r="BQ18" s="1">
-        <v>-572.059000</v>
+        <v>-572.05899999999997</v>
       </c>
       <c r="BR18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS18" s="1">
-        <v>7008.590010</v>
+        <v>7008.5900099999999</v>
       </c>
       <c r="BT18" s="1">
         <v>1.946831</v>
       </c>
       <c r="BU18" s="1">
-        <v>1595.650000</v>
+        <v>1595.65</v>
       </c>
       <c r="BV18" s="1">
-        <v>-823.290000</v>
+        <v>-823.29</v>
       </c>
       <c r="BW18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX18" s="1">
-        <v>7019.898294</v>
+        <v>7019.8982939999996</v>
       </c>
       <c r="BY18" s="1">
         <v>1.949972</v>
       </c>
       <c r="BZ18" s="1">
-        <v>1743.850000</v>
+        <v>1743.85</v>
       </c>
       <c r="CA18" s="1">
-        <v>-1098.680000</v>
+        <v>-1098.68</v>
       </c>
       <c r="CB18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC18" s="1">
-        <v>7032.458954</v>
+        <v>7032.4589539999997</v>
       </c>
       <c r="CD18" s="1">
-        <v>1.953461</v>
+        <v>1.9534609999999999</v>
       </c>
       <c r="CE18" s="1">
-        <v>2156.680000</v>
+        <v>2156.6799999999998</v>
       </c>
       <c r="CF18" s="1">
-        <v>-1769.860000</v>
+        <v>-1769.86</v>
       </c>
       <c r="CG18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:85">
       <c r="A19" s="1">
         <v>6859.521839</v>
       </c>
       <c r="B19" s="1">
-        <v>1.905423</v>
+        <v>1.9054230000000001</v>
       </c>
       <c r="C19" s="1">
-        <v>1144.950000</v>
+        <v>1144.95</v>
       </c>
       <c r="D19" s="1">
-        <v>-258.211000</v>
+        <v>-258.21100000000001</v>
       </c>
       <c r="E19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F19" s="1">
-        <v>6869.929424</v>
+        <v>6869.9294239999999</v>
       </c>
       <c r="G19" s="1">
-        <v>1.908314</v>
+        <v>1.9083140000000001</v>
       </c>
       <c r="H19" s="1">
-        <v>1166.590000</v>
+        <v>1166.5899999999999</v>
       </c>
       <c r="I19" s="1">
-        <v>-216.160000</v>
+        <v>-216.16</v>
       </c>
       <c r="J19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K19" s="1">
-        <v>6880.134083</v>
+        <v>6880.1340829999999</v>
       </c>
       <c r="L19" s="1">
-        <v>1.911148</v>
+        <v>1.9111480000000001</v>
       </c>
       <c r="M19" s="1">
-        <v>1194.000000</v>
+        <v>1194</v>
       </c>
       <c r="N19" s="1">
-        <v>-149.625000</v>
+        <v>-149.625</v>
       </c>
       <c r="O19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P19" s="1">
-        <v>6890.374485</v>
+        <v>6890.3744850000003</v>
       </c>
       <c r="Q19" s="1">
-        <v>1.913993</v>
+        <v>1.9139930000000001</v>
       </c>
       <c r="R19" s="1">
-        <v>1201.520000</v>
+        <v>1201.52</v>
       </c>
       <c r="S19" s="1">
-        <v>-127.721000</v>
+        <v>-127.721</v>
       </c>
       <c r="T19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U19" s="1">
-        <v>6900.517176</v>
+        <v>6900.5171760000003</v>
       </c>
       <c r="V19" s="1">
-        <v>1.916810</v>
+        <v>1.9168099999999999</v>
       </c>
       <c r="W19" s="1">
-        <v>1208.650000</v>
+        <v>1208.6500000000001</v>
       </c>
       <c r="X19" s="1">
-        <v>-106.660000</v>
+        <v>-106.66</v>
       </c>
       <c r="Y19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z19" s="1">
-        <v>6910.738731</v>
+        <v>6910.7387310000004</v>
       </c>
       <c r="AA19" s="1">
-        <v>1.919650</v>
+        <v>1.9196500000000001</v>
       </c>
       <c r="AB19" s="1">
-        <v>1215.690000</v>
+        <v>1215.69</v>
       </c>
       <c r="AC19" s="1">
-        <v>-89.411800</v>
+        <v>-89.411799999999999</v>
       </c>
       <c r="AD19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE19" s="1">
-        <v>6921.852093</v>
+        <v>6921.8520930000004</v>
       </c>
       <c r="AF19" s="1">
-        <v>1.922737</v>
+        <v>1.9227369999999999</v>
       </c>
       <c r="AG19" s="1">
-        <v>1220.200000</v>
+        <v>1220.2</v>
       </c>
       <c r="AH19" s="1">
-        <v>-84.707400</v>
+        <v>-84.707400000000007</v>
       </c>
       <c r="AI19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ19" s="1">
-        <v>6932.412910</v>
+        <v>6932.41291</v>
       </c>
       <c r="AK19" s="1">
-        <v>1.925670</v>
+        <v>1.92567</v>
       </c>
       <c r="AL19" s="1">
-        <v>1227.040000</v>
+        <v>1227.04</v>
       </c>
       <c r="AM19" s="1">
-        <v>-87.774500</v>
+        <v>-87.774500000000003</v>
       </c>
       <c r="AN19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO19" s="1">
-        <v>6943.289680</v>
+        <v>6943.2896799999999</v>
       </c>
       <c r="AP19" s="1">
-        <v>1.928692</v>
+        <v>1.9286920000000001</v>
       </c>
       <c r="AQ19" s="1">
-        <v>1234.720000</v>
+        <v>1234.72</v>
       </c>
       <c r="AR19" s="1">
-        <v>-99.310400</v>
+        <v>-99.310400000000001</v>
       </c>
       <c r="AS19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT19" s="1">
-        <v>6954.040004</v>
+        <v>6954.0400040000004</v>
       </c>
       <c r="AU19" s="1">
         <v>1.931678</v>
       </c>
       <c r="AV19" s="1">
-        <v>1244.360000</v>
+        <v>1244.3599999999999</v>
       </c>
       <c r="AW19" s="1">
-        <v>-118.157000</v>
+        <v>-118.157</v>
       </c>
       <c r="AX19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY19" s="1">
-        <v>6965.064547</v>
+        <v>6965.0645469999999</v>
       </c>
       <c r="AZ19" s="1">
-        <v>1.934740</v>
+        <v>1.9347399999999999</v>
       </c>
       <c r="BA19" s="1">
-        <v>1252.490000</v>
+        <v>1252.49</v>
       </c>
       <c r="BB19" s="1">
-        <v>-135.213000</v>
+        <v>-135.21299999999999</v>
       </c>
       <c r="BC19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD19" s="1">
-        <v>6976.096069</v>
+        <v>6976.0960690000002</v>
       </c>
       <c r="BE19" s="1">
-        <v>1.937804</v>
+        <v>1.9378040000000001</v>
       </c>
       <c r="BF19" s="1">
-        <v>1290.960000</v>
+        <v>1290.96</v>
       </c>
       <c r="BG19" s="1">
-        <v>-215.580000</v>
+        <v>-215.58</v>
       </c>
       <c r="BH19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI19" s="1">
         <v>6987.375591</v>
       </c>
       <c r="BJ19" s="1">
-        <v>1.940938</v>
+        <v>1.9409380000000001</v>
       </c>
       <c r="BK19" s="1">
-        <v>1357.770000</v>
+        <v>1357.77</v>
       </c>
       <c r="BL19" s="1">
-        <v>-350.508000</v>
+        <v>-350.50799999999998</v>
       </c>
       <c r="BM19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN19" s="1">
-        <v>6998.184903</v>
+        <v>6998.1849030000003</v>
       </c>
       <c r="BO19" s="1">
-        <v>1.943940</v>
+        <v>1.94394</v>
       </c>
       <c r="BP19" s="1">
-        <v>1467.910000</v>
+        <v>1467.91</v>
       </c>
       <c r="BQ19" s="1">
-        <v>-572.096000</v>
+        <v>-572.096</v>
       </c>
       <c r="BR19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS19" s="1">
-        <v>7009.001688</v>
+        <v>7009.0016880000003</v>
       </c>
       <c r="BT19" s="1">
-        <v>1.946945</v>
+        <v>1.9469449999999999</v>
       </c>
       <c r="BU19" s="1">
-        <v>1595.730000</v>
+        <v>1595.73</v>
       </c>
       <c r="BV19" s="1">
-        <v>-823.306000</v>
+        <v>-823.30600000000004</v>
       </c>
       <c r="BW19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX19" s="1">
-        <v>7020.319402</v>
+        <v>7020.3194020000001</v>
       </c>
       <c r="BY19" s="1">
         <v>1.950089</v>
       </c>
       <c r="BZ19" s="1">
-        <v>1744.140000</v>
+        <v>1744.14</v>
       </c>
       <c r="CA19" s="1">
-        <v>-1098.730000</v>
+        <v>-1098.73</v>
       </c>
       <c r="CB19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC19" s="1">
-        <v>7032.976779</v>
+        <v>7032.9767789999996</v>
       </c>
       <c r="CD19" s="1">
         <v>1.953605</v>
       </c>
       <c r="CE19" s="1">
-        <v>2154.780000</v>
+        <v>2154.7800000000002</v>
       </c>
       <c r="CF19" s="1">
-        <v>-1769.330000</v>
+        <v>-1769.33</v>
       </c>
       <c r="CG19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:85">
       <c r="A20" s="1">
-        <v>6860.204870</v>
+        <v>6860.2048699999996</v>
       </c>
       <c r="B20" s="1">
-        <v>1.905612</v>
+        <v>1.9056120000000001</v>
       </c>
       <c r="C20" s="1">
-        <v>1145.110000</v>
+        <v>1145.1099999999999</v>
       </c>
       <c r="D20" s="1">
-        <v>-257.943000</v>
+        <v>-257.94299999999998</v>
       </c>
       <c r="E20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F20" s="1">
-        <v>6870.277585</v>
+        <v>6870.2775849999998</v>
       </c>
       <c r="G20" s="1">
-        <v>1.908410</v>
+        <v>1.9084099999999999</v>
       </c>
       <c r="H20" s="1">
-        <v>1166.370000</v>
+        <v>1166.3699999999999</v>
       </c>
       <c r="I20" s="1">
-        <v>-216.130000</v>
+        <v>-216.13</v>
       </c>
       <c r="J20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K20" s="1">
-        <v>6880.479796</v>
+        <v>6880.4797959999996</v>
       </c>
       <c r="L20" s="1">
-        <v>1.911244</v>
+        <v>1.9112439999999999</v>
       </c>
       <c r="M20" s="1">
-        <v>1193.950000</v>
+        <v>1193.95</v>
       </c>
       <c r="N20" s="1">
-        <v>-150.272000</v>
+        <v>-150.27199999999999</v>
       </c>
       <c r="O20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P20" s="1">
-        <v>6890.720965</v>
+        <v>6890.7209650000004</v>
       </c>
       <c r="Q20" s="1">
-        <v>1.914089</v>
+        <v>1.9140889999999999</v>
       </c>
       <c r="R20" s="1">
-        <v>1201.490000</v>
+        <v>1201.49</v>
       </c>
       <c r="S20" s="1">
-        <v>-127.757000</v>
+        <v>-127.75700000000001</v>
       </c>
       <c r="T20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U20" s="1">
-        <v>6901.159992</v>
+        <v>6901.1599919999999</v>
       </c>
       <c r="V20" s="1">
-        <v>1.916989</v>
+        <v>1.9169890000000001</v>
       </c>
       <c r="W20" s="1">
-        <v>1208.570000</v>
+        <v>1208.57</v>
       </c>
       <c r="X20" s="1">
-        <v>-106.664000</v>
+        <v>-106.664</v>
       </c>
       <c r="Y20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z20" s="1">
-        <v>6911.396426</v>
+        <v>6911.3964260000002</v>
       </c>
       <c r="AA20" s="1">
         <v>1.919832</v>
       </c>
       <c r="AB20" s="1">
-        <v>1215.760000</v>
+        <v>1215.76</v>
       </c>
       <c r="AC20" s="1">
-        <v>-89.495800</v>
+        <v>-89.495800000000003</v>
       </c>
       <c r="AD20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE20" s="1">
-        <v>6922.233516</v>
+        <v>6922.2335160000002</v>
       </c>
       <c r="AF20" s="1">
-        <v>1.922843</v>
+        <v>1.9228430000000001</v>
       </c>
       <c r="AG20" s="1">
-        <v>1220.200000</v>
+        <v>1220.2</v>
       </c>
       <c r="AH20" s="1">
-        <v>-84.739700</v>
+        <v>-84.739699999999999</v>
       </c>
       <c r="AI20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ20" s="1">
-        <v>6932.764078</v>
+        <v>6932.7640780000002</v>
       </c>
       <c r="AK20" s="1">
-        <v>1.925768</v>
+        <v>1.9257679999999999</v>
       </c>
       <c r="AL20" s="1">
-        <v>1227.040000</v>
+        <v>1227.04</v>
       </c>
       <c r="AM20" s="1">
-        <v>-87.747200</v>
+        <v>-87.747200000000007</v>
       </c>
       <c r="AN20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO20" s="1">
-        <v>6943.649466</v>
+        <v>6943.6494659999998</v>
       </c>
       <c r="AP20" s="1">
-        <v>1.928792</v>
+        <v>1.9287920000000001</v>
       </c>
       <c r="AQ20" s="1">
-        <v>1234.740000</v>
+        <v>1234.74</v>
       </c>
       <c r="AR20" s="1">
-        <v>-99.282000</v>
+        <v>-99.281999999999996</v>
       </c>
       <c r="AS20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT20" s="1">
-        <v>6954.407010</v>
+        <v>6954.4070099999999</v>
       </c>
       <c r="AU20" s="1">
-        <v>1.931780</v>
+        <v>1.9317800000000001</v>
       </c>
       <c r="AV20" s="1">
-        <v>1244.370000</v>
+        <v>1244.3699999999999</v>
       </c>
       <c r="AW20" s="1">
-        <v>-118.123000</v>
+        <v>-118.123</v>
       </c>
       <c r="AX20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY20" s="1">
-        <v>6965.486642</v>
+        <v>6965.4866419999998</v>
       </c>
       <c r="AZ20" s="1">
         <v>1.934857</v>
       </c>
       <c r="BA20" s="1">
-        <v>1252.470000</v>
+        <v>1252.47</v>
       </c>
       <c r="BB20" s="1">
-        <v>-135.190000</v>
+        <v>-135.19</v>
       </c>
       <c r="BC20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD20" s="1">
-        <v>6976.505784</v>
+        <v>6976.5057839999999</v>
       </c>
       <c r="BE20" s="1">
         <v>1.937918</v>
       </c>
       <c r="BF20" s="1">
-        <v>1290.980000</v>
+        <v>1290.98</v>
       </c>
       <c r="BG20" s="1">
-        <v>-215.615000</v>
+        <v>-215.61500000000001</v>
       </c>
       <c r="BH20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI20" s="1">
-        <v>6987.743621</v>
+        <v>6987.7436209999996</v>
       </c>
       <c r="BJ20" s="1">
-        <v>1.941040</v>
+        <v>1.9410400000000001</v>
       </c>
       <c r="BK20" s="1">
-        <v>1357.760000</v>
+        <v>1357.76</v>
       </c>
       <c r="BL20" s="1">
-        <v>-350.568000</v>
+        <v>-350.56799999999998</v>
       </c>
       <c r="BM20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN20" s="1">
         <v>6998.830199</v>
       </c>
       <c r="BO20" s="1">
-        <v>1.944119</v>
+        <v>1.9441189999999999</v>
       </c>
       <c r="BP20" s="1">
-        <v>1467.830000</v>
+        <v>1467.83</v>
       </c>
       <c r="BQ20" s="1">
-        <v>-572.029000</v>
+        <v>-572.029</v>
       </c>
       <c r="BR20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS20" s="1">
-        <v>7009.430728</v>
+        <v>7009.4307280000003</v>
       </c>
       <c r="BT20" s="1">
-        <v>1.947064</v>
+        <v>1.9470639999999999</v>
       </c>
       <c r="BU20" s="1">
-        <v>1595.810000</v>
+        <v>1595.81</v>
       </c>
       <c r="BV20" s="1">
-        <v>-823.271000</v>
+        <v>-823.27099999999996</v>
       </c>
       <c r="BW20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX20" s="1">
-        <v>7020.777708</v>
+        <v>7020.7777079999996</v>
       </c>
       <c r="BY20" s="1">
-        <v>1.950216</v>
+        <v>1.9502159999999999</v>
       </c>
       <c r="BZ20" s="1">
-        <v>1743.850000</v>
+        <v>1743.85</v>
       </c>
       <c r="CA20" s="1">
-        <v>-1098.620000</v>
+        <v>-1098.6199999999999</v>
       </c>
       <c r="CB20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC20" s="1">
-        <v>7033.839853</v>
+        <v>7033.8398530000004</v>
       </c>
       <c r="CD20" s="1">
-        <v>1.953844</v>
+        <v>1.9538439999999999</v>
       </c>
       <c r="CE20" s="1">
-        <v>2156.920000</v>
+        <v>2156.92</v>
       </c>
       <c r="CF20" s="1">
-        <v>-1769.340000</v>
+        <v>-1769.34</v>
       </c>
       <c r="CG20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:85">
       <c r="A21" s="1">
         <v>6860.550045</v>
       </c>
@@ -5364,13 +5780,13 @@
         <v>1.905708</v>
       </c>
       <c r="C21" s="1">
-        <v>1144.930000</v>
+        <v>1144.93</v>
       </c>
       <c r="D21" s="1">
-        <v>-258.153000</v>
+        <v>-258.15300000000002</v>
       </c>
       <c r="E21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F21" s="1">
         <v>6870.621819</v>
@@ -5379,692 +5795,692 @@
         <v>1.908506</v>
       </c>
       <c r="H21" s="1">
-        <v>1166.180000</v>
+        <v>1166.18</v>
       </c>
       <c r="I21" s="1">
-        <v>-216.536000</v>
+        <v>-216.536</v>
       </c>
       <c r="J21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K21" s="1">
-        <v>6881.136994</v>
+        <v>6881.1369940000004</v>
       </c>
       <c r="L21" s="1">
         <v>1.911427</v>
       </c>
       <c r="M21" s="1">
-        <v>1193.870000</v>
+        <v>1193.8699999999999</v>
       </c>
       <c r="N21" s="1">
-        <v>-149.670000</v>
+        <v>-149.66999999999999</v>
       </c>
       <c r="O21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P21" s="1">
-        <v>6891.378911</v>
+        <v>6891.3789109999998</v>
       </c>
       <c r="Q21" s="1">
         <v>1.914272</v>
       </c>
       <c r="R21" s="1">
-        <v>1201.490000</v>
+        <v>1201.49</v>
       </c>
       <c r="S21" s="1">
-        <v>-127.675000</v>
+        <v>-127.675</v>
       </c>
       <c r="T21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U21" s="1">
-        <v>6901.546871</v>
+        <v>6901.5468709999996</v>
       </c>
       <c r="V21" s="1">
-        <v>1.917096</v>
+        <v>1.9170959999999999</v>
       </c>
       <c r="W21" s="1">
-        <v>1208.560000</v>
+        <v>1208.56</v>
       </c>
       <c r="X21" s="1">
-        <v>-106.650000</v>
+        <v>-106.65</v>
       </c>
       <c r="Y21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z21" s="1">
-        <v>6911.784793</v>
+        <v>6911.7847929999998</v>
       </c>
       <c r="AA21" s="1">
-        <v>1.919940</v>
+        <v>1.91994</v>
       </c>
       <c r="AB21" s="1">
-        <v>1215.640000</v>
+        <v>1215.6400000000001</v>
       </c>
       <c r="AC21" s="1">
-        <v>-89.384200</v>
+        <v>-89.384200000000007</v>
       </c>
       <c r="AD21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE21" s="1">
-        <v>6922.577739</v>
+        <v>6922.5777390000003</v>
       </c>
       <c r="AF21" s="1">
         <v>1.922938</v>
       </c>
       <c r="AG21" s="1">
-        <v>1220.240000</v>
+        <v>1220.24</v>
       </c>
       <c r="AH21" s="1">
-        <v>-84.720200</v>
+        <v>-84.720200000000006</v>
       </c>
       <c r="AI21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ21" s="1">
-        <v>6933.110782</v>
+        <v>6933.1107819999997</v>
       </c>
       <c r="AK21" s="1">
         <v>1.925864</v>
       </c>
       <c r="AL21" s="1">
-        <v>1227.050000</v>
+        <v>1227.05</v>
       </c>
       <c r="AM21" s="1">
-        <v>-87.781400</v>
+        <v>-87.781400000000005</v>
       </c>
       <c r="AN21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO21" s="1">
-        <v>6944.011886</v>
+        <v>6944.0118860000002</v>
       </c>
       <c r="AP21" s="1">
-        <v>1.928892</v>
+        <v>1.9288920000000001</v>
       </c>
       <c r="AQ21" s="1">
-        <v>1234.700000</v>
+        <v>1234.7</v>
       </c>
       <c r="AR21" s="1">
-        <v>-99.303900</v>
+        <v>-99.303899999999999</v>
       </c>
       <c r="AS21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT21" s="1">
-        <v>6954.830129</v>
+        <v>6954.8301289999999</v>
       </c>
       <c r="AU21" s="1">
         <v>1.931897</v>
       </c>
       <c r="AV21" s="1">
-        <v>1244.360000</v>
+        <v>1244.3599999999999</v>
       </c>
       <c r="AW21" s="1">
-        <v>-118.153000</v>
+        <v>-118.15300000000001</v>
       </c>
       <c r="AX21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY21" s="1">
-        <v>6965.780274</v>
+        <v>6965.7802739999997</v>
       </c>
       <c r="AZ21" s="1">
         <v>1.934939</v>
       </c>
       <c r="BA21" s="1">
-        <v>1252.490000</v>
+        <v>1252.49</v>
       </c>
       <c r="BB21" s="1">
-        <v>-135.181000</v>
+        <v>-135.18100000000001</v>
       </c>
       <c r="BC21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD21" s="1">
-        <v>6976.816259</v>
+        <v>6976.8162590000002</v>
       </c>
       <c r="BE21" s="1">
         <v>1.938005</v>
       </c>
       <c r="BF21" s="1">
-        <v>1290.980000</v>
+        <v>1290.98</v>
       </c>
       <c r="BG21" s="1">
-        <v>-215.624000</v>
+        <v>-215.624</v>
       </c>
       <c r="BH21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI21" s="1">
-        <v>6988.119093</v>
+        <v>6988.1190930000002</v>
       </c>
       <c r="BJ21" s="1">
         <v>1.941144</v>
       </c>
       <c r="BK21" s="1">
-        <v>1357.770000</v>
+        <v>1357.77</v>
       </c>
       <c r="BL21" s="1">
-        <v>-350.543000</v>
+        <v>-350.54300000000001</v>
       </c>
       <c r="BM21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN21" s="1">
-        <v>6999.285559</v>
+        <v>6999.2855589999999</v>
       </c>
       <c r="BO21" s="1">
-        <v>1.944246</v>
+        <v>1.9442459999999999</v>
       </c>
       <c r="BP21" s="1">
-        <v>1467.800000</v>
+        <v>1467.8</v>
       </c>
       <c r="BQ21" s="1">
-        <v>-572.075000</v>
+        <v>-572.07500000000005</v>
       </c>
       <c r="BR21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS21" s="1">
-        <v>7009.861256</v>
+        <v>7009.8612560000001</v>
       </c>
       <c r="BT21" s="1">
         <v>1.947184</v>
       </c>
       <c r="BU21" s="1">
-        <v>1596.010000</v>
+        <v>1596.01</v>
       </c>
       <c r="BV21" s="1">
-        <v>-823.412000</v>
+        <v>-823.41200000000003</v>
       </c>
       <c r="BW21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX21" s="1">
-        <v>7021.191833</v>
+        <v>7021.1918329999999</v>
       </c>
       <c r="BY21" s="1">
         <v>1.950331</v>
       </c>
       <c r="BZ21" s="1">
-        <v>1743.910000</v>
+        <v>1743.91</v>
       </c>
       <c r="CA21" s="1">
-        <v>-1098.640000</v>
+        <v>-1098.6400000000001</v>
       </c>
       <c r="CB21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC21" s="1">
-        <v>7034.054616</v>
+        <v>7034.0546160000004</v>
       </c>
       <c r="CD21" s="1">
-        <v>1.953904</v>
+        <v>1.9539040000000001</v>
       </c>
       <c r="CE21" s="1">
-        <v>2157.300000</v>
+        <v>2157.3000000000002</v>
       </c>
       <c r="CF21" s="1">
-        <v>-1769.630000</v>
+        <v>-1769.63</v>
       </c>
       <c r="CG21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:85">
       <c r="A22" s="1">
-        <v>6860.890167</v>
+        <v>6860.8901669999996</v>
       </c>
       <c r="B22" s="1">
-        <v>1.905803</v>
+        <v>1.9058029999999999</v>
       </c>
       <c r="C22" s="1">
-        <v>1144.950000</v>
+        <v>1144.95</v>
       </c>
       <c r="D22" s="1">
-        <v>-258.469000</v>
+        <v>-258.46899999999999</v>
       </c>
       <c r="E22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F22" s="1">
-        <v>6871.272643</v>
+        <v>6871.2726430000002</v>
       </c>
       <c r="G22" s="1">
         <v>1.908687</v>
       </c>
       <c r="H22" s="1">
-        <v>1166.550000</v>
+        <v>1166.55</v>
       </c>
       <c r="I22" s="1">
-        <v>-216.166000</v>
+        <v>-216.166</v>
       </c>
       <c r="J22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K22" s="1">
-        <v>6881.517954</v>
+        <v>6881.5179539999999</v>
       </c>
       <c r="L22" s="1">
-        <v>1.911533</v>
+        <v>1.9115329999999999</v>
       </c>
       <c r="M22" s="1">
-        <v>1193.900000</v>
+        <v>1193.9000000000001</v>
       </c>
       <c r="N22" s="1">
-        <v>-150.064000</v>
+        <v>-150.06399999999999</v>
       </c>
       <c r="O22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P22" s="1">
-        <v>6891.767748</v>
+        <v>6891.7677480000002</v>
       </c>
       <c r="Q22" s="1">
-        <v>1.914380</v>
+        <v>1.91438</v>
       </c>
       <c r="R22" s="1">
-        <v>1201.540000</v>
+        <v>1201.54</v>
       </c>
       <c r="S22" s="1">
-        <v>-127.657000</v>
+        <v>-127.657</v>
       </c>
       <c r="T22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U22" s="1">
-        <v>6901.892088</v>
+        <v>6901.8920879999996</v>
       </c>
       <c r="V22" s="1">
         <v>1.917192</v>
       </c>
       <c r="W22" s="1">
-        <v>1208.530000</v>
+        <v>1208.53</v>
       </c>
       <c r="X22" s="1">
-        <v>-106.636000</v>
+        <v>-106.636</v>
       </c>
       <c r="Y22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z22" s="1">
-        <v>6912.281785</v>
+        <v>6912.2817850000001</v>
       </c>
       <c r="AA22" s="1">
         <v>1.920078</v>
       </c>
       <c r="AB22" s="1">
-        <v>1215.750000</v>
+        <v>1215.75</v>
       </c>
       <c r="AC22" s="1">
-        <v>-89.388500</v>
+        <v>-89.388499999999993</v>
       </c>
       <c r="AD22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE22" s="1">
-        <v>6922.919980</v>
+        <v>6922.9199799999997</v>
       </c>
       <c r="AF22" s="1">
         <v>1.923033</v>
       </c>
       <c r="AG22" s="1">
-        <v>1220.150000</v>
+        <v>1220.1500000000001</v>
       </c>
       <c r="AH22" s="1">
-        <v>-84.740000</v>
+        <v>-84.74</v>
       </c>
       <c r="AI22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ22" s="1">
-        <v>6933.528909</v>
+        <v>6933.5289089999997</v>
       </c>
       <c r="AK22" s="1">
-        <v>1.925980</v>
+        <v>1.92598</v>
       </c>
       <c r="AL22" s="1">
-        <v>1227.070000</v>
+        <v>1227.07</v>
       </c>
       <c r="AM22" s="1">
-        <v>-87.758500</v>
+        <v>-87.758499999999998</v>
       </c>
       <c r="AN22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO22" s="1">
-        <v>6944.416095</v>
+        <v>6944.4160949999996</v>
       </c>
       <c r="AP22" s="1">
-        <v>1.929004</v>
+        <v>1.9290039999999999</v>
       </c>
       <c r="AQ22" s="1">
-        <v>1234.710000</v>
+        <v>1234.71</v>
       </c>
       <c r="AR22" s="1">
-        <v>-99.300300</v>
+        <v>-99.300299999999993</v>
       </c>
       <c r="AS22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT22" s="1">
-        <v>6955.138609</v>
+        <v>6955.1386089999996</v>
       </c>
       <c r="AU22" s="1">
         <v>1.931983</v>
       </c>
       <c r="AV22" s="1">
-        <v>1244.330000</v>
+        <v>1244.33</v>
       </c>
       <c r="AW22" s="1">
-        <v>-118.138000</v>
+        <v>-118.13800000000001</v>
       </c>
       <c r="AX22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY22" s="1">
-        <v>6966.141394</v>
+        <v>6966.1413940000002</v>
       </c>
       <c r="AZ22" s="1">
         <v>1.935039</v>
       </c>
       <c r="BA22" s="1">
-        <v>1252.500000</v>
+        <v>1252.5</v>
       </c>
       <c r="BB22" s="1">
-        <v>-135.248000</v>
+        <v>-135.24799999999999</v>
       </c>
       <c r="BC22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD22" s="1">
-        <v>6977.177843</v>
+        <v>6977.1778430000004</v>
       </c>
       <c r="BE22" s="1">
         <v>1.938105</v>
       </c>
       <c r="BF22" s="1">
-        <v>1290.970000</v>
+        <v>1290.97</v>
       </c>
       <c r="BG22" s="1">
-        <v>-215.601000</v>
+        <v>-215.601</v>
       </c>
       <c r="BH22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI22" s="1">
-        <v>6988.494564</v>
+        <v>6988.4945639999996</v>
       </c>
       <c r="BJ22" s="1">
-        <v>1.941248</v>
+        <v>1.9412480000000001</v>
       </c>
       <c r="BK22" s="1">
-        <v>1357.760000</v>
+        <v>1357.76</v>
       </c>
       <c r="BL22" s="1">
-        <v>-350.541000</v>
+        <v>-350.541</v>
       </c>
       <c r="BM22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN22" s="1">
-        <v>6999.696251</v>
+        <v>6999.6962510000003</v>
       </c>
       <c r="BO22" s="1">
-        <v>1.944360</v>
+        <v>1.9443600000000001</v>
       </c>
       <c r="BP22" s="1">
-        <v>1467.820000</v>
+        <v>1467.82</v>
       </c>
       <c r="BQ22" s="1">
-        <v>-572.085000</v>
+        <v>-572.08500000000004</v>
       </c>
       <c r="BR22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS22" s="1">
-        <v>7010.273927</v>
+        <v>7010.2739270000002</v>
       </c>
       <c r="BT22" s="1">
         <v>1.947298</v>
       </c>
       <c r="BU22" s="1">
-        <v>1596.000000</v>
+        <v>1596</v>
       </c>
       <c r="BV22" s="1">
-        <v>-823.574000</v>
+        <v>-823.57399999999996</v>
       </c>
       <c r="BW22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX22" s="1">
-        <v>7021.647192</v>
+        <v>7021.6471920000004</v>
       </c>
       <c r="BY22" s="1">
         <v>1.950458</v>
       </c>
       <c r="BZ22" s="1">
-        <v>1744.030000</v>
+        <v>1744.03</v>
       </c>
       <c r="CA22" s="1">
-        <v>-1098.750000</v>
+        <v>-1098.75</v>
       </c>
       <c r="CB22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC22" s="1">
-        <v>7034.578359</v>
+        <v>7034.5783590000001</v>
       </c>
       <c r="CD22" s="1">
-        <v>1.954050</v>
+        <v>1.9540500000000001</v>
       </c>
       <c r="CE22" s="1">
-        <v>2155.530000</v>
+        <v>2155.5300000000002</v>
       </c>
       <c r="CF22" s="1">
-        <v>-1768.170000</v>
+        <v>-1768.17</v>
       </c>
       <c r="CG22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:85">
       <c r="A23" s="1">
         <v>6861.581228</v>
       </c>
       <c r="B23" s="1">
-        <v>1.905995</v>
+        <v>1.9059950000000001</v>
       </c>
       <c r="C23" s="1">
-        <v>1144.850000</v>
+        <v>1144.8499999999999</v>
       </c>
       <c r="D23" s="1">
-        <v>-258.381000</v>
+        <v>-258.38099999999997</v>
       </c>
       <c r="E23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F23" s="1">
-        <v>6871.655978</v>
+        <v>6871.6559779999998</v>
       </c>
       <c r="G23" s="1">
         <v>1.908793</v>
       </c>
       <c r="H23" s="1">
-        <v>1166.910000</v>
+        <v>1166.9100000000001</v>
       </c>
       <c r="I23" s="1">
-        <v>-216.770000</v>
+        <v>-216.77</v>
       </c>
       <c r="J23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K23" s="1">
-        <v>6881.861681</v>
+        <v>6881.8616810000003</v>
       </c>
       <c r="L23" s="1">
-        <v>1.911628</v>
+        <v>1.9116280000000001</v>
       </c>
       <c r="M23" s="1">
-        <v>1193.870000</v>
+        <v>1193.8699999999999</v>
       </c>
       <c r="N23" s="1">
-        <v>-149.722000</v>
+        <v>-149.72200000000001</v>
       </c>
       <c r="O23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P23" s="1">
-        <v>6892.116931</v>
+        <v>6892.1169309999996</v>
       </c>
       <c r="Q23" s="1">
         <v>1.914477</v>
       </c>
       <c r="R23" s="1">
-        <v>1201.530000</v>
+        <v>1201.53</v>
       </c>
       <c r="S23" s="1">
-        <v>-127.640000</v>
+        <v>-127.64</v>
       </c>
       <c r="T23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U23" s="1">
-        <v>6902.236459</v>
+        <v>6902.2364589999997</v>
       </c>
       <c r="V23" s="1">
-        <v>1.917288</v>
+        <v>1.9172880000000001</v>
       </c>
       <c r="W23" s="1">
-        <v>1208.600000</v>
+        <v>1208.5999999999999</v>
       </c>
       <c r="X23" s="1">
-        <v>-106.639000</v>
+        <v>-106.639</v>
       </c>
       <c r="Y23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z23" s="1">
-        <v>6912.482665</v>
+        <v>6912.4826650000005</v>
       </c>
       <c r="AA23" s="1">
         <v>1.920134</v>
       </c>
       <c r="AB23" s="1">
-        <v>1215.740000</v>
+        <v>1215.74</v>
       </c>
       <c r="AC23" s="1">
-        <v>-89.421600</v>
+        <v>-89.421599999999998</v>
       </c>
       <c r="AD23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE23" s="1">
-        <v>6923.334139</v>
+        <v>6923.3341389999996</v>
       </c>
       <c r="AF23" s="1">
-        <v>1.923148</v>
+        <v>1.9231480000000001</v>
       </c>
       <c r="AG23" s="1">
-        <v>1220.200000</v>
+        <v>1220.2</v>
       </c>
       <c r="AH23" s="1">
-        <v>-84.758000</v>
+        <v>-84.757999999999996</v>
       </c>
       <c r="AI23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ23" s="1">
-        <v>6933.810141</v>
+        <v>6933.8101409999999</v>
       </c>
       <c r="AK23" s="1">
         <v>1.926058</v>
       </c>
       <c r="AL23" s="1">
-        <v>1227.050000</v>
+        <v>1227.05</v>
       </c>
       <c r="AM23" s="1">
-        <v>-87.781000</v>
+        <v>-87.781000000000006</v>
       </c>
       <c r="AN23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO23" s="1">
-        <v>6944.732048</v>
+        <v>6944.7320479999998</v>
       </c>
       <c r="AP23" s="1">
         <v>1.929092</v>
       </c>
       <c r="AQ23" s="1">
-        <v>1234.730000</v>
+        <v>1234.73</v>
       </c>
       <c r="AR23" s="1">
-        <v>-99.290300</v>
+        <v>-99.290300000000002</v>
       </c>
       <c r="AS23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT23" s="1">
-        <v>6955.501184</v>
+        <v>6955.5011839999997</v>
       </c>
       <c r="AU23" s="1">
-        <v>1.932084</v>
+        <v>1.9320839999999999</v>
       </c>
       <c r="AV23" s="1">
-        <v>1244.370000</v>
+        <v>1244.3699999999999</v>
       </c>
       <c r="AW23" s="1">
-        <v>-118.130000</v>
+        <v>-118.13</v>
       </c>
       <c r="AX23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY23" s="1">
-        <v>6966.498016</v>
+        <v>6966.4980159999996</v>
       </c>
       <c r="AZ23" s="1">
         <v>1.935138</v>
       </c>
       <c r="BA23" s="1">
-        <v>1252.500000</v>
+        <v>1252.5</v>
       </c>
       <c r="BB23" s="1">
-        <v>-135.211000</v>
+        <v>-135.21100000000001</v>
       </c>
       <c r="BC23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD23" s="1">
-        <v>6977.539426</v>
+        <v>6977.5394260000003</v>
       </c>
       <c r="BE23" s="1">
         <v>1.938205</v>
       </c>
       <c r="BF23" s="1">
-        <v>1290.960000</v>
+        <v>1290.96</v>
       </c>
       <c r="BG23" s="1">
-        <v>-215.605000</v>
+        <v>-215.60499999999999</v>
       </c>
       <c r="BH23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI23" s="1">
-        <v>6989.249475</v>
+        <v>6989.2494749999996</v>
       </c>
       <c r="BJ23" s="1">
-        <v>1.941458</v>
+        <v>1.9414579999999999</v>
       </c>
       <c r="BK23" s="1">
-        <v>1357.800000</v>
+        <v>1357.8</v>
       </c>
       <c r="BL23" s="1">
-        <v>-350.511000</v>
+        <v>-350.51100000000002</v>
       </c>
       <c r="BM23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN23" s="1">
         <v>7000.100453</v>
@@ -6073,575 +6489,575 @@
         <v>1.944472</v>
       </c>
       <c r="BP23" s="1">
-        <v>1467.850000</v>
+        <v>1467.85</v>
       </c>
       <c r="BQ23" s="1">
-        <v>-572.109000</v>
+        <v>-572.10900000000004</v>
       </c>
       <c r="BR23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS23" s="1">
-        <v>7010.702438</v>
+        <v>7010.7024380000003</v>
       </c>
       <c r="BT23" s="1">
         <v>1.947417</v>
       </c>
       <c r="BU23" s="1">
-        <v>1596.060000</v>
+        <v>1596.06</v>
       </c>
       <c r="BV23" s="1">
-        <v>-823.663000</v>
+        <v>-823.66300000000001</v>
       </c>
       <c r="BW23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX23" s="1">
-        <v>7022.096568</v>
+        <v>7022.0965679999999</v>
       </c>
       <c r="BY23" s="1">
         <v>1.950582</v>
       </c>
       <c r="BZ23" s="1">
-        <v>1743.930000</v>
+        <v>1743.93</v>
       </c>
       <c r="CA23" s="1">
-        <v>-1098.640000</v>
+        <v>-1098.6400000000001</v>
       </c>
       <c r="CB23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC23" s="1">
-        <v>7035.398248</v>
+        <v>7035.3982480000004</v>
       </c>
       <c r="CD23" s="1">
         <v>1.954277</v>
       </c>
       <c r="CE23" s="1">
-        <v>2154.410000</v>
+        <v>2154.41</v>
       </c>
       <c r="CF23" s="1">
-        <v>-1770.210000</v>
+        <v>-1770.21</v>
       </c>
       <c r="CG23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:85">
       <c r="A24" s="1">
-        <v>6861.920491</v>
+        <v>6861.9204909999999</v>
       </c>
       <c r="B24" s="1">
-        <v>1.906089</v>
+        <v>1.9060889999999999</v>
       </c>
       <c r="C24" s="1">
-        <v>1144.790000</v>
+        <v>1144.79</v>
       </c>
       <c r="D24" s="1">
-        <v>-258.470000</v>
+        <v>-258.47000000000003</v>
       </c>
       <c r="E24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F24" s="1">
-        <v>6872.000718</v>
+        <v>6872.0007180000002</v>
       </c>
       <c r="G24" s="1">
-        <v>1.908889</v>
+        <v>1.9088890000000001</v>
       </c>
       <c r="H24" s="1">
-        <v>1166.260000</v>
+        <v>1166.26</v>
       </c>
       <c r="I24" s="1">
-        <v>-216.010000</v>
+        <v>-216.01</v>
       </c>
       <c r="J24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K24" s="1">
-        <v>6882.207361</v>
+        <v>6882.2073609999998</v>
       </c>
       <c r="L24" s="1">
         <v>1.911724</v>
       </c>
       <c r="M24" s="1">
-        <v>1194.080000</v>
+        <v>1194.08</v>
       </c>
       <c r="N24" s="1">
-        <v>-149.828000</v>
+        <v>-149.828</v>
       </c>
       <c r="O24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P24" s="1">
-        <v>6892.461651</v>
+        <v>6892.4616509999996</v>
       </c>
       <c r="Q24" s="1">
-        <v>1.914573</v>
+        <v>1.9145730000000001</v>
       </c>
       <c r="R24" s="1">
-        <v>1201.510000</v>
+        <v>1201.51</v>
       </c>
       <c r="S24" s="1">
-        <v>-127.672000</v>
+        <v>-127.672</v>
       </c>
       <c r="T24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U24" s="1">
-        <v>6902.653124</v>
+        <v>6902.6531240000004</v>
       </c>
       <c r="V24" s="1">
-        <v>1.917404</v>
+        <v>1.9174040000000001</v>
       </c>
       <c r="W24" s="1">
-        <v>1208.570000</v>
+        <v>1208.57</v>
       </c>
       <c r="X24" s="1">
-        <v>-106.589000</v>
+        <v>-106.589</v>
       </c>
       <c r="Y24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z24" s="1">
-        <v>6913.178552</v>
+        <v>6913.1785520000003</v>
       </c>
       <c r="AA24" s="1">
-        <v>1.920327</v>
+        <v>1.9203269999999999</v>
       </c>
       <c r="AB24" s="1">
-        <v>1215.740000</v>
+        <v>1215.74</v>
       </c>
       <c r="AC24" s="1">
-        <v>-89.457700</v>
+        <v>-89.457700000000003</v>
       </c>
       <c r="AD24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE24" s="1">
-        <v>6923.631244</v>
+        <v>6923.6312440000002</v>
       </c>
       <c r="AF24" s="1">
-        <v>1.923231</v>
+        <v>1.9232309999999999</v>
       </c>
       <c r="AG24" s="1">
-        <v>1220.260000</v>
+        <v>1220.26</v>
       </c>
       <c r="AH24" s="1">
-        <v>-84.787800</v>
+        <v>-84.787800000000004</v>
       </c>
       <c r="AI24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ24" s="1">
-        <v>6934.157837</v>
+        <v>6934.1578369999997</v>
       </c>
       <c r="AK24" s="1">
-        <v>1.926155</v>
+        <v>1.9261550000000001</v>
       </c>
       <c r="AL24" s="1">
-        <v>1227.040000</v>
+        <v>1227.04</v>
       </c>
       <c r="AM24" s="1">
-        <v>-87.777700</v>
+        <v>-87.777699999999996</v>
       </c>
       <c r="AN24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO24" s="1">
-        <v>6945.092143</v>
+        <v>6945.0921429999999</v>
       </c>
       <c r="AP24" s="1">
         <v>1.929192</v>
       </c>
       <c r="AQ24" s="1">
-        <v>1234.700000</v>
+        <v>1234.7</v>
       </c>
       <c r="AR24" s="1">
-        <v>-99.297200</v>
+        <v>-99.297200000000004</v>
       </c>
       <c r="AS24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT24" s="1">
-        <v>6955.867231</v>
+        <v>6955.8672310000002</v>
       </c>
       <c r="AU24" s="1">
         <v>1.932185</v>
       </c>
       <c r="AV24" s="1">
-        <v>1244.350000</v>
+        <v>1244.3499999999999</v>
       </c>
       <c r="AW24" s="1">
-        <v>-118.144000</v>
+        <v>-118.14400000000001</v>
       </c>
       <c r="AX24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY24" s="1">
-        <v>6967.224658</v>
+        <v>6967.2246580000001</v>
       </c>
       <c r="AZ24" s="1">
-        <v>1.935340</v>
+        <v>1.9353400000000001</v>
       </c>
       <c r="BA24" s="1">
-        <v>1252.520000</v>
+        <v>1252.52</v>
       </c>
       <c r="BB24" s="1">
-        <v>-135.232000</v>
+        <v>-135.232</v>
       </c>
       <c r="BC24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD24" s="1">
-        <v>6978.259121</v>
+        <v>6978.2591210000001</v>
       </c>
       <c r="BE24" s="1">
-        <v>1.938405</v>
+        <v>1.9384049999999999</v>
       </c>
       <c r="BF24" s="1">
-        <v>1290.990000</v>
+        <v>1290.99</v>
       </c>
       <c r="BG24" s="1">
-        <v>-215.593000</v>
+        <v>-215.59299999999999</v>
       </c>
       <c r="BH24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI24" s="1">
-        <v>6989.622467</v>
+        <v>6989.6224670000001</v>
       </c>
       <c r="BJ24" s="1">
         <v>1.941562</v>
       </c>
       <c r="BK24" s="1">
-        <v>1357.770000</v>
+        <v>1357.77</v>
       </c>
       <c r="BL24" s="1">
-        <v>-350.550000</v>
+        <v>-350.55</v>
       </c>
       <c r="BM24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN24" s="1">
-        <v>7000.497253</v>
+        <v>7000.4972529999995</v>
       </c>
       <c r="BO24" s="1">
         <v>1.944583</v>
       </c>
       <c r="BP24" s="1">
-        <v>1467.810000</v>
+        <v>1467.81</v>
       </c>
       <c r="BQ24" s="1">
-        <v>-572.106000</v>
+        <v>-572.10599999999999</v>
       </c>
       <c r="BR24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS24" s="1">
-        <v>7011.131014</v>
+        <v>7011.1310139999996</v>
       </c>
       <c r="BT24" s="1">
-        <v>1.947536</v>
+        <v>1.9475359999999999</v>
       </c>
       <c r="BU24" s="1">
-        <v>1596.160000</v>
+        <v>1596.16</v>
       </c>
       <c r="BV24" s="1">
-        <v>-823.717000</v>
+        <v>-823.71699999999998</v>
       </c>
       <c r="BW24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX24" s="1">
         <v>7022.829127</v>
       </c>
       <c r="BY24" s="1">
-        <v>1.950786</v>
+        <v>1.9507859999999999</v>
       </c>
       <c r="BZ24" s="1">
-        <v>1743.980000</v>
+        <v>1743.98</v>
       </c>
       <c r="CA24" s="1">
-        <v>-1098.860000</v>
+        <v>-1098.8599999999999</v>
       </c>
       <c r="CB24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC24" s="1">
-        <v>7035.612022</v>
+        <v>7035.6120220000003</v>
       </c>
       <c r="CD24" s="1">
         <v>1.954337</v>
       </c>
       <c r="CE24" s="1">
-        <v>2156.140000</v>
+        <v>2156.14</v>
       </c>
       <c r="CF24" s="1">
-        <v>-1770.990000</v>
+        <v>-1770.99</v>
       </c>
       <c r="CG24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:85">
       <c r="A25" s="1">
-        <v>6862.258764</v>
+        <v>6862.2587640000002</v>
       </c>
       <c r="B25" s="1">
         <v>1.906183</v>
       </c>
       <c r="C25" s="1">
-        <v>1145.090000</v>
+        <v>1145.0899999999999</v>
       </c>
       <c r="D25" s="1">
-        <v>-258.250000</v>
+        <v>-258.25</v>
       </c>
       <c r="E25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F25" s="1">
-        <v>6872.344945</v>
+        <v>6872.3449449999998</v>
       </c>
       <c r="G25" s="1">
-        <v>1.908985</v>
+        <v>1.9089849999999999</v>
       </c>
       <c r="H25" s="1">
-        <v>1166.220000</v>
+        <v>1166.22</v>
       </c>
       <c r="I25" s="1">
-        <v>-217.163000</v>
+        <v>-217.16300000000001</v>
       </c>
       <c r="J25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K25" s="1">
-        <v>6882.622546</v>
+        <v>6882.6225459999996</v>
       </c>
       <c r="L25" s="1">
-        <v>1.911840</v>
+        <v>1.91184</v>
       </c>
       <c r="M25" s="1">
-        <v>1193.950000</v>
+        <v>1193.95</v>
       </c>
       <c r="N25" s="1">
-        <v>-149.891000</v>
+        <v>-149.89099999999999</v>
       </c>
       <c r="O25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P25" s="1">
-        <v>6892.883251</v>
+        <v>6892.8832510000002</v>
       </c>
       <c r="Q25" s="1">
-        <v>1.914690</v>
+        <v>1.91469</v>
       </c>
       <c r="R25" s="1">
-        <v>1201.500000</v>
+        <v>1201.5</v>
       </c>
       <c r="S25" s="1">
-        <v>-127.697000</v>
+        <v>-127.697</v>
       </c>
       <c r="T25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U25" s="1">
         <v>6902.945095</v>
       </c>
       <c r="V25" s="1">
-        <v>1.917485</v>
+        <v>1.9174850000000001</v>
       </c>
       <c r="W25" s="1">
-        <v>1208.560000</v>
+        <v>1208.56</v>
       </c>
       <c r="X25" s="1">
-        <v>-106.687000</v>
+        <v>-106.687</v>
       </c>
       <c r="Y25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z25" s="1">
-        <v>6913.527768</v>
+        <v>6913.5277679999999</v>
       </c>
       <c r="AA25" s="1">
-        <v>1.920424</v>
+        <v>1.9204239999999999</v>
       </c>
       <c r="AB25" s="1">
-        <v>1215.820000</v>
+        <v>1215.82</v>
       </c>
       <c r="AC25" s="1">
-        <v>-89.375000</v>
+        <v>-89.375</v>
       </c>
       <c r="AD25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE25" s="1">
-        <v>6923.975961</v>
+        <v>6923.9759610000001</v>
       </c>
       <c r="AF25" s="1">
         <v>1.923327</v>
       </c>
       <c r="AG25" s="1">
-        <v>1220.210000</v>
+        <v>1220.21</v>
       </c>
       <c r="AH25" s="1">
-        <v>-84.744700</v>
+        <v>-84.744699999999995</v>
       </c>
       <c r="AI25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ25" s="1">
-        <v>6934.507515</v>
+        <v>6934.5075150000002</v>
       </c>
       <c r="AK25" s="1">
-        <v>1.926252</v>
+        <v>1.9262520000000001</v>
       </c>
       <c r="AL25" s="1">
-        <v>1227.030000</v>
+        <v>1227.03</v>
       </c>
       <c r="AM25" s="1">
-        <v>-87.795000</v>
+        <v>-87.795000000000002</v>
       </c>
       <c r="AN25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO25" s="1">
-        <v>6945.454222</v>
+        <v>6945.4542220000003</v>
       </c>
       <c r="AP25" s="1">
-        <v>1.929293</v>
+        <v>1.9292929999999999</v>
       </c>
       <c r="AQ25" s="1">
-        <v>1234.750000</v>
+        <v>1234.75</v>
       </c>
       <c r="AR25" s="1">
-        <v>-99.312200</v>
+        <v>-99.312200000000004</v>
       </c>
       <c r="AS25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT25" s="1">
-        <v>6956.594367</v>
+        <v>6956.5943669999997</v>
       </c>
       <c r="AU25" s="1">
-        <v>1.932387</v>
+        <v>1.9323870000000001</v>
       </c>
       <c r="AV25" s="1">
-        <v>1244.320000</v>
+        <v>1244.32</v>
       </c>
       <c r="AW25" s="1">
-        <v>-118.116000</v>
+        <v>-118.116</v>
       </c>
       <c r="AX25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY25" s="1">
         <v>6967.600128</v>
       </c>
       <c r="AZ25" s="1">
-        <v>1.935444</v>
+        <v>1.9354439999999999</v>
       </c>
       <c r="BA25" s="1">
-        <v>1252.480000</v>
+        <v>1252.48</v>
       </c>
       <c r="BB25" s="1">
-        <v>-135.194000</v>
+        <v>-135.19399999999999</v>
       </c>
       <c r="BC25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD25" s="1">
-        <v>6978.624705</v>
+        <v>6978.6247050000002</v>
       </c>
       <c r="BE25" s="1">
         <v>1.938507</v>
       </c>
       <c r="BF25" s="1">
-        <v>1290.990000</v>
+        <v>1290.99</v>
       </c>
       <c r="BG25" s="1">
-        <v>-215.619000</v>
+        <v>-215.619</v>
       </c>
       <c r="BH25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI25" s="1">
-        <v>6990.004386</v>
+        <v>6990.0043859999996</v>
       </c>
       <c r="BJ25" s="1">
-        <v>1.941668</v>
+        <v>1.9416679999999999</v>
       </c>
       <c r="BK25" s="1">
-        <v>1357.790000</v>
+        <v>1357.79</v>
       </c>
       <c r="BL25" s="1">
-        <v>-350.546000</v>
+        <v>-350.54599999999999</v>
       </c>
       <c r="BM25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN25" s="1">
-        <v>7001.220947</v>
+        <v>7001.2209469999998</v>
       </c>
       <c r="BO25" s="1">
-        <v>1.944784</v>
+        <v>1.9447840000000001</v>
       </c>
       <c r="BP25" s="1">
-        <v>1467.820000</v>
+        <v>1467.82</v>
       </c>
       <c r="BQ25" s="1">
-        <v>-572.074000</v>
+        <v>-572.07399999999996</v>
       </c>
       <c r="BR25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS25" s="1">
-        <v>7011.849189</v>
+        <v>7011.8491889999996</v>
       </c>
       <c r="BT25" s="1">
-        <v>1.947736</v>
+        <v>1.9477359999999999</v>
       </c>
       <c r="BU25" s="1">
-        <v>1596.120000</v>
+        <v>1596.12</v>
       </c>
       <c r="BV25" s="1">
-        <v>-823.906000</v>
+        <v>-823.90599999999995</v>
       </c>
       <c r="BW25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX25" s="1">
-        <v>7022.969494</v>
+        <v>7022.9694939999999</v>
       </c>
       <c r="BY25" s="1">
         <v>1.950825</v>
       </c>
       <c r="BZ25" s="1">
-        <v>1743.900000</v>
+        <v>1743.9</v>
       </c>
       <c r="CA25" s="1">
-        <v>-1098.790000</v>
+        <v>-1098.79</v>
       </c>
       <c r="CB25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC25" s="1">
-        <v>7036.129879</v>
+        <v>7036.1298790000001</v>
       </c>
       <c r="CD25" s="1">
-        <v>1.954481</v>
+        <v>1.9544809999999999</v>
       </c>
       <c r="CE25" s="1">
-        <v>2155.910000</v>
+        <v>2155.91</v>
       </c>
       <c r="CF25" s="1">
-        <v>-1770.900000</v>
+        <v>-1770.9</v>
       </c>
       <c r="CG25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:85">
       <c r="A26" s="1">
         <v>6862.674411</v>
       </c>
@@ -6649,255 +7065,256 @@
         <v>1.906298</v>
       </c>
       <c r="C26" s="1">
-        <v>1144.930000</v>
+        <v>1144.93</v>
       </c>
       <c r="D26" s="1">
-        <v>-258.264000</v>
+        <v>-258.26400000000001</v>
       </c>
       <c r="E26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F26" s="1">
-        <v>6872.763534</v>
+        <v>6872.7635339999997</v>
       </c>
       <c r="G26" s="1">
-        <v>1.909101</v>
+        <v>1.9091009999999999</v>
       </c>
       <c r="H26" s="1">
-        <v>1165.790000</v>
+        <v>1165.79</v>
       </c>
       <c r="I26" s="1">
-        <v>-216.495000</v>
+        <v>-216.495</v>
       </c>
       <c r="J26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K26" s="1">
-        <v>6882.908736</v>
+        <v>6882.9087360000003</v>
       </c>
       <c r="L26" s="1">
-        <v>1.911919</v>
+        <v>1.9119189999999999</v>
       </c>
       <c r="M26" s="1">
-        <v>1193.860000</v>
+        <v>1193.8599999999999</v>
       </c>
       <c r="N26" s="1">
-        <v>-149.495000</v>
+        <v>-149.495</v>
       </c>
       <c r="O26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P26" s="1">
-        <v>6893.171426</v>
+        <v>6893.1714259999999</v>
       </c>
       <c r="Q26" s="1">
-        <v>1.914770</v>
+        <v>1.9147700000000001</v>
       </c>
       <c r="R26" s="1">
-        <v>1201.440000</v>
+        <v>1201.44</v>
       </c>
       <c r="S26" s="1">
-        <v>-127.724000</v>
+        <v>-127.724</v>
       </c>
       <c r="T26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U26" s="1">
-        <v>6903.290308</v>
+        <v>6903.2903079999996</v>
       </c>
       <c r="V26" s="1">
         <v>1.917581</v>
       </c>
       <c r="W26" s="1">
-        <v>1208.530000</v>
+        <v>1208.53</v>
       </c>
       <c r="X26" s="1">
-        <v>-106.604000</v>
+        <v>-106.604</v>
       </c>
       <c r="Y26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z26" s="1">
         <v>6913.876921</v>
       </c>
       <c r="AA26" s="1">
-        <v>1.920521</v>
+        <v>1.9205209999999999</v>
       </c>
       <c r="AB26" s="1">
-        <v>1215.820000</v>
+        <v>1215.82</v>
       </c>
       <c r="AC26" s="1">
-        <v>-89.358600</v>
+        <v>-89.358599999999996</v>
       </c>
       <c r="AD26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE26" s="1">
-        <v>6924.320714</v>
+        <v>6924.3207140000004</v>
       </c>
       <c r="AF26" s="1">
         <v>1.923422</v>
       </c>
       <c r="AG26" s="1">
-        <v>1220.210000</v>
+        <v>1220.21</v>
       </c>
       <c r="AH26" s="1">
-        <v>-84.735800</v>
+        <v>-84.735799999999998</v>
       </c>
       <c r="AI26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ26" s="1">
-        <v>6935.203898</v>
+        <v>6935.2038979999998</v>
       </c>
       <c r="AK26" s="1">
-        <v>1.926446</v>
+        <v>1.9264460000000001</v>
       </c>
       <c r="AL26" s="1">
-        <v>1227.040000</v>
+        <v>1227.04</v>
       </c>
       <c r="AM26" s="1">
-        <v>-87.784800</v>
+        <v>-87.784800000000004</v>
       </c>
       <c r="AN26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO26" s="1">
-        <v>6946.197260</v>
+        <v>6946.1972599999999</v>
       </c>
       <c r="AP26" s="1">
-        <v>1.929499</v>
+        <v>1.9294990000000001</v>
       </c>
       <c r="AQ26" s="1">
-        <v>1234.710000</v>
+        <v>1234.71</v>
       </c>
       <c r="AR26" s="1">
-        <v>-99.302800</v>
+        <v>-99.302800000000005</v>
       </c>
       <c r="AS26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT26" s="1">
-        <v>6956.986740</v>
+        <v>6956.9867400000003</v>
       </c>
       <c r="AU26" s="1">
         <v>1.932496</v>
       </c>
       <c r="AV26" s="1">
-        <v>1244.350000</v>
+        <v>1244.3499999999999</v>
       </c>
       <c r="AW26" s="1">
-        <v>-118.134000</v>
+        <v>-118.134</v>
       </c>
       <c r="AX26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY26" s="1">
-        <v>6967.977055</v>
+        <v>6967.9770550000003</v>
       </c>
       <c r="AZ26" s="1">
         <v>1.935549</v>
       </c>
       <c r="BA26" s="1">
-        <v>1252.470000</v>
+        <v>1252.47</v>
       </c>
       <c r="BB26" s="1">
-        <v>-135.191000</v>
+        <v>-135.191</v>
       </c>
       <c r="BC26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD26" s="1">
-        <v>6978.982793</v>
+        <v>6978.9827930000001</v>
       </c>
       <c r="BE26" s="1">
-        <v>1.938606</v>
+        <v>1.9386060000000001</v>
       </c>
       <c r="BF26" s="1">
-        <v>1290.990000</v>
+        <v>1290.99</v>
       </c>
       <c r="BG26" s="1">
-        <v>-215.641000</v>
+        <v>-215.64099999999999</v>
       </c>
       <c r="BH26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI26" s="1">
-        <v>6990.678686</v>
+        <v>6990.6786860000002</v>
       </c>
       <c r="BJ26" s="1">
-        <v>1.941855</v>
+        <v>1.9418550000000001</v>
       </c>
       <c r="BK26" s="1">
-        <v>1357.770000</v>
+        <v>1357.77</v>
       </c>
       <c r="BL26" s="1">
-        <v>-350.527000</v>
+        <v>-350.52699999999999</v>
       </c>
       <c r="BM26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN26" s="1">
         <v>7001.336483</v>
       </c>
       <c r="BO26" s="1">
-        <v>1.944816</v>
+        <v>1.9448160000000001</v>
       </c>
       <c r="BP26" s="1">
-        <v>1467.780000</v>
+        <v>1467.78</v>
       </c>
       <c r="BQ26" s="1">
-        <v>-572.108000</v>
+        <v>-572.10799999999995</v>
       </c>
       <c r="BR26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS26" s="1">
-        <v>7011.973719</v>
+        <v>7011.9737189999996</v>
       </c>
       <c r="BT26" s="1">
-        <v>1.947770</v>
+        <v>1.94777</v>
       </c>
       <c r="BU26" s="1">
-        <v>1595.970000</v>
+        <v>1595.97</v>
       </c>
       <c r="BV26" s="1">
-        <v>-824.052000</v>
+        <v>-824.05200000000002</v>
       </c>
       <c r="BW26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX26" s="1">
-        <v>7023.393082</v>
+        <v>7023.3930819999996</v>
       </c>
       <c r="BY26" s="1">
-        <v>1.950943</v>
+        <v>1.9509430000000001</v>
       </c>
       <c r="BZ26" s="1">
-        <v>1743.970000</v>
+        <v>1743.97</v>
       </c>
       <c r="CA26" s="1">
-        <v>-1098.750000</v>
+        <v>-1098.75</v>
       </c>
       <c r="CB26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC26" s="1">
-        <v>7036.680436</v>
+        <v>7036.6804359999996</v>
       </c>
       <c r="CD26" s="1">
-        <v>1.954633</v>
+        <v>1.9546330000000001</v>
       </c>
       <c r="CE26" s="1">
-        <v>2154.620000</v>
+        <v>2154.62</v>
       </c>
       <c r="CF26" s="1">
-        <v>-1770.730000</v>
+        <v>-1770.73</v>
       </c>
       <c r="CG26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>